--- a/fem2d/elas/errorlinearElasHuangZhou.xlsx
+++ b/fem2d/elas/errorlinearElasHuangZhou.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangxuehai/work/paper/Program/femcode/fem2d/elas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568A507D-0D1D-7846-B30E-95DBC88CF680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0363497A-6CA3-6F47-BEA0-15D835A328FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9500" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{8D0FA11D-B653-7547-A6EE-29A3A0BD1624}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" activeTab="3" xr2:uid="{8D0FA11D-B653-7547-A6EE-29A3A0BD1624}"/>
   </bookViews>
   <sheets>
     <sheet name="HuangZhou element" sheetId="1" r:id="rId1"/>
     <sheet name="reduced HuangZhou element" sheetId="2" r:id="rId2"/>
+    <sheet name="tex4HuangZhou element" sheetId="3" r:id="rId3"/>
+    <sheet name="tex4reduced HuangZhou element" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="37">
   <si>
     <t>k=2</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -258,16 +260,70 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>$2^{-1}$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &amp; </t>
+  </si>
+  <si>
+    <t>$-$</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \\</t>
+  </si>
+  <si>
+    <t>$2^{-2}$</t>
+  </si>
+  <si>
+    <t>$2^{-3}$</t>
+  </si>
+  <si>
+    <t>$2^{-4}$</t>
+  </si>
+  <si>
+    <t>$2^{-5}$</t>
+  </si>
+  <si>
+    <t>$2^{-6}$</t>
+  </si>
+  <si>
+    <r>
+      <t>$2^{-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}$</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#\ ???/???"/>
     <numFmt numFmtId="177" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -323,6 +379,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -341,12 +406,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -369,9 +437,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -685,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E3DDD6-A99A-894E-97C6-915ACAC88081}">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A19" zoomScale="137" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -3041,28 +3116,28 @@
         <v>0.5</v>
       </c>
       <c r="B24" s="10">
-        <v>2.339534</v>
+        <v>2.3396949999999999</v>
       </c>
       <c r="C24" s="10">
-        <v>1.4318660000000001</v>
+        <v>1.4316260000000001</v>
       </c>
       <c r="D24" s="10">
         <v>20.307179999999999</v>
       </c>
       <c r="E24" s="10">
-        <v>0.3591587</v>
+        <v>0.359157</v>
       </c>
       <c r="F24" s="10">
-        <v>0.10076499999999999</v>
+        <v>0.100759</v>
       </c>
       <c r="G24" s="10">
-        <v>0.17982119999999999</v>
+        <v>0.17993239999999999</v>
       </c>
       <c r="H24" s="10">
-        <v>0.42591220000000002</v>
+        <v>0.42576199999999997</v>
       </c>
       <c r="I24" s="10">
-        <v>0.46231689999999998</v>
+        <v>0.46222170000000001</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
@@ -3073,38 +3148,38 @@
         <v>0.25</v>
       </c>
       <c r="B25" s="10">
-        <v>0.45722889999999999</v>
+        <v>0.45730660000000001</v>
       </c>
       <c r="C25" s="10">
-        <v>0.27398129999999998</v>
+        <v>0.27392749999999999</v>
       </c>
       <c r="D25" s="10">
         <v>6.7611150000000002</v>
       </c>
       <c r="E25" s="10">
-        <v>9.8539570000000007E-2</v>
+        <v>9.8539680000000004E-2</v>
       </c>
       <c r="F25" s="10">
-        <v>1.281533E-2</v>
+        <v>1.281619E-2</v>
       </c>
       <c r="G25" s="10">
-        <v>6.0314109999999997E-2</v>
+        <v>6.033467E-2</v>
       </c>
       <c r="H25" s="10">
-        <v>7.2011859999999997E-2</v>
+        <v>7.1964790000000001E-2</v>
       </c>
       <c r="I25" s="10">
-        <v>9.393348E-2</v>
+        <v>9.391062E-2</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
       <c r="N25" s="4">
         <f t="shared" ref="N25:W30" si="2">LOG(B24/B25,2)</f>
-        <v>2.3552326955007801</v>
+        <v>2.3550868281088126</v>
       </c>
       <c r="O25" s="4">
         <f t="shared" si="2"/>
-        <v>2.385747151857966</v>
+        <v>2.3857886373469954</v>
       </c>
       <c r="P25" s="4">
         <f t="shared" si="2"/>
@@ -3112,23 +3187,23 @@
       </c>
       <c r="Q25" s="4">
         <f t="shared" si="2"/>
-        <v>1.8658463814978146</v>
+        <v>1.8658379423131688</v>
       </c>
       <c r="R25" s="4">
         <f t="shared" si="2"/>
-        <v>2.9750520818625321</v>
+        <v>2.9748693628986063</v>
       </c>
       <c r="S25" s="4">
         <f t="shared" si="2"/>
-        <v>1.5759956636460084</v>
+        <v>1.5763958339480995</v>
       </c>
       <c r="T25" s="4">
         <f t="shared" si="2"/>
-        <v>2.5642496195856745</v>
+        <v>2.5646840713385237</v>
       </c>
       <c r="U25" s="4">
         <f t="shared" si="2"/>
-        <v>2.2991707377370929</v>
+        <v>2.2992247706508486</v>
       </c>
       <c r="V25" s="4" t="e">
         <f t="shared" si="2"/>
@@ -3145,10 +3220,10 @@
         <v>0.125</v>
       </c>
       <c r="B26" s="10">
-        <v>7.6643669999999997E-2</v>
+        <v>7.664907E-2</v>
       </c>
       <c r="C26" s="10">
-        <v>4.5182460000000001E-2</v>
+        <v>4.517256E-2</v>
       </c>
       <c r="D26" s="10">
         <v>1.794589</v>
@@ -3157,26 +3232,26 @@
         <v>2.573493E-2</v>
       </c>
       <c r="F26" s="10">
-        <v>1.064731E-3</v>
+        <v>1.064707E-3</v>
       </c>
       <c r="G26" s="10">
-        <v>1.229745E-2</v>
+        <v>1.2289899999999999E-2</v>
       </c>
       <c r="H26" s="10">
-        <v>1.3904329999999999E-2</v>
+        <v>1.3893300000000001E-2</v>
       </c>
       <c r="I26" s="10">
-        <v>1.8562260000000001E-2</v>
+        <v>1.8549E-2</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="N26" s="4">
         <f t="shared" si="2"/>
-        <v>2.5766780449015001</v>
+        <v>2.5768215481796917</v>
       </c>
       <c r="O26" s="4">
         <f t="shared" si="2"/>
-        <v>2.6002427017002767</v>
+        <v>2.6002755266707362</v>
       </c>
       <c r="P26" s="4">
         <f t="shared" si="2"/>
@@ -3184,23 +3259,23 @@
       </c>
       <c r="Q26" s="4">
         <f t="shared" si="2"/>
-        <v>1.9369753177695896</v>
+        <v>1.9369769282532352</v>
       </c>
       <c r="R26" s="4">
         <f t="shared" si="2"/>
-        <v>3.5893097385898733</v>
+        <v>3.5894390704812911</v>
       </c>
       <c r="S26" s="4">
         <f t="shared" si="2"/>
-        <v>2.2941363592459534</v>
+        <v>2.2955140766997504</v>
       </c>
       <c r="T26" s="4">
         <f t="shared" si="2"/>
-        <v>2.3727003028792226</v>
+        <v>2.3729019005092438</v>
       </c>
       <c r="U26" s="4">
         <f t="shared" si="2"/>
-        <v>2.3392670856571067</v>
+        <v>2.3399469046469363</v>
       </c>
       <c r="V26" s="4" t="e">
         <f t="shared" si="2"/>
@@ -3217,10 +3292,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="B27" s="10">
-        <v>1.146023E-2</v>
+        <v>1.14606E-2</v>
       </c>
       <c r="C27" s="10">
-        <v>6.7196369999999997E-3</v>
+        <v>6.7181109999999997E-3</v>
       </c>
       <c r="D27" s="10">
         <v>0.45548909999999998</v>
@@ -3229,26 +3304,26 @@
         <v>6.5130700000000001E-3</v>
       </c>
       <c r="F27" s="10">
-        <v>7.5376590000000005E-5</v>
+        <v>7.536664E-5</v>
       </c>
       <c r="G27" s="10">
-        <v>2.169397E-3</v>
+        <v>2.1677509999999999E-3</v>
       </c>
       <c r="H27" s="10">
-        <v>2.241027E-3</v>
+        <v>2.239095E-3</v>
       </c>
       <c r="I27" s="10">
-        <v>3.1190520000000002E-3</v>
+        <v>3.1165189999999999E-3</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>
       <c r="N27" s="4">
         <f t="shared" si="2"/>
-        <v>2.7415306462172411</v>
+        <v>2.7415857115651319</v>
       </c>
       <c r="O27" s="4">
         <f t="shared" si="2"/>
-        <v>2.7493076169918096</v>
+        <v>2.749319138075411</v>
       </c>
       <c r="P27" s="4">
         <f t="shared" si="2"/>
@@ -3260,19 +3335,19 @@
       </c>
       <c r="R27" s="4">
         <f t="shared" si="2"/>
-        <v>3.8202286455068739</v>
+        <v>3.8203865793577756</v>
       </c>
       <c r="S27" s="4">
         <f t="shared" si="2"/>
-        <v>2.5029931935354948</v>
+        <v>2.5032022215885648</v>
       </c>
       <c r="T27" s="4">
         <f t="shared" si="2"/>
-        <v>2.6333022923141849</v>
+        <v>2.633401670471653</v>
       </c>
       <c r="U27" s="4">
         <f t="shared" si="2"/>
-        <v>2.5731928625153007</v>
+        <v>2.5733339980878607</v>
       </c>
       <c r="V27" s="4" t="e">
         <f t="shared" si="2"/>
@@ -3289,10 +3364,10 @@
         <v>3.125E-2</v>
       </c>
       <c r="B28" s="10">
-        <v>1.544398E-3</v>
+        <v>1.5444289999999999E-3</v>
       </c>
       <c r="C28" s="10">
-        <v>9.0292689999999995E-4</v>
+        <v>9.0271820000000001E-4</v>
       </c>
       <c r="D28" s="10">
         <v>0.11430510000000001</v>
@@ -3301,26 +3376,26 @@
         <v>1.6335049999999999E-3</v>
       </c>
       <c r="F28" s="10">
-        <v>4.942441E-6</v>
+        <v>4.9414930000000001E-6</v>
       </c>
       <c r="G28" s="10">
-        <v>3.0834569999999998E-4</v>
+        <v>3.081011E-4</v>
       </c>
       <c r="H28" s="10">
-        <v>3.0985440000000001E-4</v>
+        <v>3.095776E-4</v>
       </c>
       <c r="I28" s="10">
-        <v>4.3713479999999999E-4</v>
+        <v>4.3676609999999998E-4</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="N28" s="4">
         <f t="shared" si="2"/>
-        <v>2.8915195022048881</v>
+        <v>2.8915371214054115</v>
       </c>
       <c r="O28" s="4">
         <f t="shared" si="2"/>
-        <v>2.8957022011117299</v>
+        <v>2.8957080332506875</v>
       </c>
       <c r="P28" s="4">
         <f t="shared" si="2"/>
@@ -3332,19 +3407,19 @@
       </c>
       <c r="R28" s="4">
         <f t="shared" si="2"/>
-        <v>3.9308208805502196</v>
+        <v>3.9309071737545476</v>
       </c>
       <c r="S28" s="4">
         <f t="shared" si="2"/>
-        <v>2.8146734579662329</v>
+        <v>2.8147233118992681</v>
       </c>
       <c r="T28" s="4">
         <f t="shared" si="2"/>
-        <v>2.8544976704599843</v>
+        <v>2.8545427481641892</v>
       </c>
       <c r="U28" s="4">
         <f t="shared" si="2"/>
-        <v>2.8349574653725944</v>
+        <v>2.8350027186099171</v>
       </c>
       <c r="V28" s="4" t="e">
         <f t="shared" si="2"/>
@@ -3361,10 +3436,10 @@
         <v>1.5625E-2</v>
       </c>
       <c r="B29" s="10">
-        <v>1.986585E-4</v>
+        <v>1.9866170000000001E-4</v>
       </c>
       <c r="C29" s="10">
-        <v>1.159589E-4</v>
+        <v>1.1593189999999999E-4</v>
       </c>
       <c r="D29" s="10">
         <v>2.8603400000000001E-2</v>
@@ -3373,26 +3448,26 @@
         <v>4.0870929999999999E-4</v>
       </c>
       <c r="F29" s="10">
-        <v>3.1410360000000002E-7</v>
+        <v>3.1403519999999998E-7</v>
       </c>
       <c r="G29" s="10">
-        <v>4.0298189999999999E-5</v>
+        <v>4.0265729999999998E-5</v>
       </c>
       <c r="H29" s="10">
-        <v>4.0173879999999997E-5</v>
+        <v>4.0137459999999997E-5</v>
       </c>
       <c r="I29" s="10">
-        <v>5.6902420000000001E-5</v>
+        <v>5.6853710000000002E-5</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
       <c r="N29" s="4">
         <f t="shared" si="2"/>
-        <v>2.9586821626562623</v>
+        <v>2.9586878821192419</v>
       </c>
       <c r="O29" s="4">
         <f t="shared" si="2"/>
-        <v>2.9609956403810518</v>
+        <v>2.9609980991792972</v>
       </c>
       <c r="P29" s="4">
         <f t="shared" si="2"/>
@@ -3404,19 +3479,19 @@
       </c>
       <c r="R29" s="4">
         <f t="shared" si="2"/>
-        <v>3.9759113608044281</v>
+        <v>3.9759488128897456</v>
       </c>
       <c r="S29" s="4">
         <f t="shared" si="2"/>
-        <v>2.9357617810860921</v>
+        <v>2.9357794390061862</v>
       </c>
       <c r="T29" s="4">
         <f t="shared" si="2"/>
-        <v>2.9472607460873905</v>
+        <v>2.9472798593593326</v>
       </c>
       <c r="U29" s="4">
         <f t="shared" si="2"/>
-        <v>2.941516319402794</v>
+        <v>2.9415344838591695</v>
       </c>
       <c r="V29" s="4" t="e">
         <f t="shared" si="2"/>
@@ -3433,10 +3508,10 @@
         <v>7.8125E-3</v>
       </c>
       <c r="B30" s="10">
-        <v>2.5116829999999999E-5</v>
+        <v>2.5117179999999999E-5</v>
       </c>
       <c r="C30" s="10">
-        <v>1.464857E-5</v>
+        <v>1.464513E-5</v>
       </c>
       <c r="D30" s="10">
         <v>7.1525479999999999E-3</v>
@@ -3445,26 +3520,26 @@
         <v>1.021982E-4</v>
       </c>
       <c r="F30" s="10">
-        <v>1.9739900000000001E-8</v>
+        <v>1.9735149999999999E-8</v>
       </c>
       <c r="G30" s="10">
-        <v>5.1203720000000002E-6</v>
+        <v>5.1162210000000002E-6</v>
       </c>
       <c r="H30" s="10">
-        <v>5.0920779999999997E-6</v>
+        <v>5.0874300000000002E-6</v>
       </c>
       <c r="I30" s="10">
-        <v>7.2213200000000003E-6</v>
+        <v>7.2150999999999997E-6</v>
       </c>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="N30" s="4">
         <f t="shared" si="2"/>
-        <v>2.9835642253205301</v>
+        <v>2.9835673604880761</v>
       </c>
       <c r="O30" s="4">
         <f t="shared" si="2"/>
-        <v>2.9847818129046759</v>
+        <v>2.9847846904419768</v>
       </c>
       <c r="P30" s="4">
         <f t="shared" si="2"/>
@@ -3476,19 +3551,19 @@
       </c>
       <c r="R30" s="4">
         <f t="shared" si="2"/>
-        <v>3.9920538916789154</v>
+        <v>3.9920868891156083</v>
       </c>
       <c r="S30" s="4">
         <f t="shared" si="2"/>
-        <v>2.9763945089756403</v>
+        <v>2.9764019998056348</v>
       </c>
       <c r="T30" s="4">
         <f t="shared" si="2"/>
-        <v>2.9799313802428298</v>
+        <v>2.9799403781920613</v>
       </c>
       <c r="U30" s="4">
         <f t="shared" si="2"/>
-        <v>2.9781555306003389</v>
+        <v>2.9781632000734555</v>
       </c>
       <c r="V30" s="4" t="e">
         <f t="shared" si="2"/>
@@ -4036,8 +4111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5042E3CE-0857-D44C-BA56-832D1E00C234}">
   <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:I20"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -7360,4 +7435,5151 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D7383BA-17D4-3F4A-9B09-77A1BE85B2E1}">
+  <dimension ref="A1:P37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="3.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.1640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="7.5" style="4" customWidth="1"/>
+    <col min="14" max="253" width="9" style="4"/>
+    <col min="254" max="254" width="3.6640625" style="4" customWidth="1"/>
+    <col min="255" max="255" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="4.33203125" style="4" customWidth="1"/>
+    <col min="257" max="257" width="6.83203125" style="4" customWidth="1"/>
+    <col min="258" max="258" width="4.33203125" style="4" customWidth="1"/>
+    <col min="259" max="259" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="4.1640625" style="4" customWidth="1"/>
+    <col min="261" max="261" width="7.1640625" style="4" customWidth="1"/>
+    <col min="262" max="262" width="4.6640625" style="4" customWidth="1"/>
+    <col min="263" max="263" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="4.1640625" style="4" customWidth="1"/>
+    <col min="265" max="266" width="7.5" style="4" customWidth="1"/>
+    <col min="267" max="267" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="4.1640625" style="4" customWidth="1"/>
+    <col min="269" max="269" width="7.5" style="4" customWidth="1"/>
+    <col min="270" max="509" width="9" style="4"/>
+    <col min="510" max="510" width="3.6640625" style="4" customWidth="1"/>
+    <col min="511" max="511" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="512" max="512" width="4.33203125" style="4" customWidth="1"/>
+    <col min="513" max="513" width="6.83203125" style="4" customWidth="1"/>
+    <col min="514" max="514" width="4.33203125" style="4" customWidth="1"/>
+    <col min="515" max="515" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="4.1640625" style="4" customWidth="1"/>
+    <col min="517" max="517" width="7.1640625" style="4" customWidth="1"/>
+    <col min="518" max="518" width="4.6640625" style="4" customWidth="1"/>
+    <col min="519" max="519" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="4.1640625" style="4" customWidth="1"/>
+    <col min="521" max="522" width="7.5" style="4" customWidth="1"/>
+    <col min="523" max="523" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="4.1640625" style="4" customWidth="1"/>
+    <col min="525" max="525" width="7.5" style="4" customWidth="1"/>
+    <col min="526" max="765" width="9" style="4"/>
+    <col min="766" max="766" width="3.6640625" style="4" customWidth="1"/>
+    <col min="767" max="767" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="768" max="768" width="4.33203125" style="4" customWidth="1"/>
+    <col min="769" max="769" width="6.83203125" style="4" customWidth="1"/>
+    <col min="770" max="770" width="4.33203125" style="4" customWidth="1"/>
+    <col min="771" max="771" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="4.1640625" style="4" customWidth="1"/>
+    <col min="773" max="773" width="7.1640625" style="4" customWidth="1"/>
+    <col min="774" max="774" width="4.6640625" style="4" customWidth="1"/>
+    <col min="775" max="775" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="4.1640625" style="4" customWidth="1"/>
+    <col min="777" max="778" width="7.5" style="4" customWidth="1"/>
+    <col min="779" max="779" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="4.1640625" style="4" customWidth="1"/>
+    <col min="781" max="781" width="7.5" style="4" customWidth="1"/>
+    <col min="782" max="1021" width="9" style="4"/>
+    <col min="1022" max="1022" width="3.6640625" style="4" customWidth="1"/>
+    <col min="1023" max="1023" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1024" max="1024" width="4.33203125" style="4" customWidth="1"/>
+    <col min="1025" max="1025" width="6.83203125" style="4" customWidth="1"/>
+    <col min="1026" max="1026" width="4.33203125" style="4" customWidth="1"/>
+    <col min="1027" max="1027" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="4.1640625" style="4" customWidth="1"/>
+    <col min="1029" max="1029" width="7.1640625" style="4" customWidth="1"/>
+    <col min="1030" max="1030" width="4.6640625" style="4" customWidth="1"/>
+    <col min="1031" max="1031" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="4.1640625" style="4" customWidth="1"/>
+    <col min="1033" max="1034" width="7.5" style="4" customWidth="1"/>
+    <col min="1035" max="1035" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="4.1640625" style="4" customWidth="1"/>
+    <col min="1037" max="1037" width="7.5" style="4" customWidth="1"/>
+    <col min="1038" max="1277" width="9" style="4"/>
+    <col min="1278" max="1278" width="3.6640625" style="4" customWidth="1"/>
+    <col min="1279" max="1279" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1280" max="1280" width="4.33203125" style="4" customWidth="1"/>
+    <col min="1281" max="1281" width="6.83203125" style="4" customWidth="1"/>
+    <col min="1282" max="1282" width="4.33203125" style="4" customWidth="1"/>
+    <col min="1283" max="1283" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="4.1640625" style="4" customWidth="1"/>
+    <col min="1285" max="1285" width="7.1640625" style="4" customWidth="1"/>
+    <col min="1286" max="1286" width="4.6640625" style="4" customWidth="1"/>
+    <col min="1287" max="1287" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="4.1640625" style="4" customWidth="1"/>
+    <col min="1289" max="1290" width="7.5" style="4" customWidth="1"/>
+    <col min="1291" max="1291" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="4.1640625" style="4" customWidth="1"/>
+    <col min="1293" max="1293" width="7.5" style="4" customWidth="1"/>
+    <col min="1294" max="1533" width="9" style="4"/>
+    <col min="1534" max="1534" width="3.6640625" style="4" customWidth="1"/>
+    <col min="1535" max="1535" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1536" max="1536" width="4.33203125" style="4" customWidth="1"/>
+    <col min="1537" max="1537" width="6.83203125" style="4" customWidth="1"/>
+    <col min="1538" max="1538" width="4.33203125" style="4" customWidth="1"/>
+    <col min="1539" max="1539" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="4.1640625" style="4" customWidth="1"/>
+    <col min="1541" max="1541" width="7.1640625" style="4" customWidth="1"/>
+    <col min="1542" max="1542" width="4.6640625" style="4" customWidth="1"/>
+    <col min="1543" max="1543" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="4.1640625" style="4" customWidth="1"/>
+    <col min="1545" max="1546" width="7.5" style="4" customWidth="1"/>
+    <col min="1547" max="1547" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="4.1640625" style="4" customWidth="1"/>
+    <col min="1549" max="1549" width="7.5" style="4" customWidth="1"/>
+    <col min="1550" max="1789" width="9" style="4"/>
+    <col min="1790" max="1790" width="3.6640625" style="4" customWidth="1"/>
+    <col min="1791" max="1791" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1792" max="1792" width="4.33203125" style="4" customWidth="1"/>
+    <col min="1793" max="1793" width="6.83203125" style="4" customWidth="1"/>
+    <col min="1794" max="1794" width="4.33203125" style="4" customWidth="1"/>
+    <col min="1795" max="1795" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="4.1640625" style="4" customWidth="1"/>
+    <col min="1797" max="1797" width="7.1640625" style="4" customWidth="1"/>
+    <col min="1798" max="1798" width="4.6640625" style="4" customWidth="1"/>
+    <col min="1799" max="1799" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="4.1640625" style="4" customWidth="1"/>
+    <col min="1801" max="1802" width="7.5" style="4" customWidth="1"/>
+    <col min="1803" max="1803" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="4.1640625" style="4" customWidth="1"/>
+    <col min="1805" max="1805" width="7.5" style="4" customWidth="1"/>
+    <col min="1806" max="2045" width="9" style="4"/>
+    <col min="2046" max="2046" width="3.6640625" style="4" customWidth="1"/>
+    <col min="2047" max="2047" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2048" max="2048" width="4.33203125" style="4" customWidth="1"/>
+    <col min="2049" max="2049" width="6.83203125" style="4" customWidth="1"/>
+    <col min="2050" max="2050" width="4.33203125" style="4" customWidth="1"/>
+    <col min="2051" max="2051" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="4.1640625" style="4" customWidth="1"/>
+    <col min="2053" max="2053" width="7.1640625" style="4" customWidth="1"/>
+    <col min="2054" max="2054" width="4.6640625" style="4" customWidth="1"/>
+    <col min="2055" max="2055" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="4.1640625" style="4" customWidth="1"/>
+    <col min="2057" max="2058" width="7.5" style="4" customWidth="1"/>
+    <col min="2059" max="2059" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="4.1640625" style="4" customWidth="1"/>
+    <col min="2061" max="2061" width="7.5" style="4" customWidth="1"/>
+    <col min="2062" max="2301" width="9" style="4"/>
+    <col min="2302" max="2302" width="3.6640625" style="4" customWidth="1"/>
+    <col min="2303" max="2303" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2304" max="2304" width="4.33203125" style="4" customWidth="1"/>
+    <col min="2305" max="2305" width="6.83203125" style="4" customWidth="1"/>
+    <col min="2306" max="2306" width="4.33203125" style="4" customWidth="1"/>
+    <col min="2307" max="2307" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="4.1640625" style="4" customWidth="1"/>
+    <col min="2309" max="2309" width="7.1640625" style="4" customWidth="1"/>
+    <col min="2310" max="2310" width="4.6640625" style="4" customWidth="1"/>
+    <col min="2311" max="2311" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="4.1640625" style="4" customWidth="1"/>
+    <col min="2313" max="2314" width="7.5" style="4" customWidth="1"/>
+    <col min="2315" max="2315" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="4.1640625" style="4" customWidth="1"/>
+    <col min="2317" max="2317" width="7.5" style="4" customWidth="1"/>
+    <col min="2318" max="2557" width="9" style="4"/>
+    <col min="2558" max="2558" width="3.6640625" style="4" customWidth="1"/>
+    <col min="2559" max="2559" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2560" max="2560" width="4.33203125" style="4" customWidth="1"/>
+    <col min="2561" max="2561" width="6.83203125" style="4" customWidth="1"/>
+    <col min="2562" max="2562" width="4.33203125" style="4" customWidth="1"/>
+    <col min="2563" max="2563" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="4.1640625" style="4" customWidth="1"/>
+    <col min="2565" max="2565" width="7.1640625" style="4" customWidth="1"/>
+    <col min="2566" max="2566" width="4.6640625" style="4" customWidth="1"/>
+    <col min="2567" max="2567" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="4.1640625" style="4" customWidth="1"/>
+    <col min="2569" max="2570" width="7.5" style="4" customWidth="1"/>
+    <col min="2571" max="2571" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="4.1640625" style="4" customWidth="1"/>
+    <col min="2573" max="2573" width="7.5" style="4" customWidth="1"/>
+    <col min="2574" max="2813" width="9" style="4"/>
+    <col min="2814" max="2814" width="3.6640625" style="4" customWidth="1"/>
+    <col min="2815" max="2815" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2816" max="2816" width="4.33203125" style="4" customWidth="1"/>
+    <col min="2817" max="2817" width="6.83203125" style="4" customWidth="1"/>
+    <col min="2818" max="2818" width="4.33203125" style="4" customWidth="1"/>
+    <col min="2819" max="2819" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="4.1640625" style="4" customWidth="1"/>
+    <col min="2821" max="2821" width="7.1640625" style="4" customWidth="1"/>
+    <col min="2822" max="2822" width="4.6640625" style="4" customWidth="1"/>
+    <col min="2823" max="2823" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="4.1640625" style="4" customWidth="1"/>
+    <col min="2825" max="2826" width="7.5" style="4" customWidth="1"/>
+    <col min="2827" max="2827" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="4.1640625" style="4" customWidth="1"/>
+    <col min="2829" max="2829" width="7.5" style="4" customWidth="1"/>
+    <col min="2830" max="3069" width="9" style="4"/>
+    <col min="3070" max="3070" width="3.6640625" style="4" customWidth="1"/>
+    <col min="3071" max="3071" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3072" max="3072" width="4.33203125" style="4" customWidth="1"/>
+    <col min="3073" max="3073" width="6.83203125" style="4" customWidth="1"/>
+    <col min="3074" max="3074" width="4.33203125" style="4" customWidth="1"/>
+    <col min="3075" max="3075" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="4.1640625" style="4" customWidth="1"/>
+    <col min="3077" max="3077" width="7.1640625" style="4" customWidth="1"/>
+    <col min="3078" max="3078" width="4.6640625" style="4" customWidth="1"/>
+    <col min="3079" max="3079" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="4.1640625" style="4" customWidth="1"/>
+    <col min="3081" max="3082" width="7.5" style="4" customWidth="1"/>
+    <col min="3083" max="3083" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="4.1640625" style="4" customWidth="1"/>
+    <col min="3085" max="3085" width="7.5" style="4" customWidth="1"/>
+    <col min="3086" max="3325" width="9" style="4"/>
+    <col min="3326" max="3326" width="3.6640625" style="4" customWidth="1"/>
+    <col min="3327" max="3327" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3328" max="3328" width="4.33203125" style="4" customWidth="1"/>
+    <col min="3329" max="3329" width="6.83203125" style="4" customWidth="1"/>
+    <col min="3330" max="3330" width="4.33203125" style="4" customWidth="1"/>
+    <col min="3331" max="3331" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="4.1640625" style="4" customWidth="1"/>
+    <col min="3333" max="3333" width="7.1640625" style="4" customWidth="1"/>
+    <col min="3334" max="3334" width="4.6640625" style="4" customWidth="1"/>
+    <col min="3335" max="3335" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="4.1640625" style="4" customWidth="1"/>
+    <col min="3337" max="3338" width="7.5" style="4" customWidth="1"/>
+    <col min="3339" max="3339" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="4.1640625" style="4" customWidth="1"/>
+    <col min="3341" max="3341" width="7.5" style="4" customWidth="1"/>
+    <col min="3342" max="3581" width="9" style="4"/>
+    <col min="3582" max="3582" width="3.6640625" style="4" customWidth="1"/>
+    <col min="3583" max="3583" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3584" max="3584" width="4.33203125" style="4" customWidth="1"/>
+    <col min="3585" max="3585" width="6.83203125" style="4" customWidth="1"/>
+    <col min="3586" max="3586" width="4.33203125" style="4" customWidth="1"/>
+    <col min="3587" max="3587" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="4.1640625" style="4" customWidth="1"/>
+    <col min="3589" max="3589" width="7.1640625" style="4" customWidth="1"/>
+    <col min="3590" max="3590" width="4.6640625" style="4" customWidth="1"/>
+    <col min="3591" max="3591" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="4.1640625" style="4" customWidth="1"/>
+    <col min="3593" max="3594" width="7.5" style="4" customWidth="1"/>
+    <col min="3595" max="3595" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="4.1640625" style="4" customWidth="1"/>
+    <col min="3597" max="3597" width="7.5" style="4" customWidth="1"/>
+    <col min="3598" max="3837" width="9" style="4"/>
+    <col min="3838" max="3838" width="3.6640625" style="4" customWidth="1"/>
+    <col min="3839" max="3839" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3840" max="3840" width="4.33203125" style="4" customWidth="1"/>
+    <col min="3841" max="3841" width="6.83203125" style="4" customWidth="1"/>
+    <col min="3842" max="3842" width="4.33203125" style="4" customWidth="1"/>
+    <col min="3843" max="3843" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="4.1640625" style="4" customWidth="1"/>
+    <col min="3845" max="3845" width="7.1640625" style="4" customWidth="1"/>
+    <col min="3846" max="3846" width="4.6640625" style="4" customWidth="1"/>
+    <col min="3847" max="3847" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="4.1640625" style="4" customWidth="1"/>
+    <col min="3849" max="3850" width="7.5" style="4" customWidth="1"/>
+    <col min="3851" max="3851" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="4.1640625" style="4" customWidth="1"/>
+    <col min="3853" max="3853" width="7.5" style="4" customWidth="1"/>
+    <col min="3854" max="4093" width="9" style="4"/>
+    <col min="4094" max="4094" width="3.6640625" style="4" customWidth="1"/>
+    <col min="4095" max="4095" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4096" max="4096" width="4.33203125" style="4" customWidth="1"/>
+    <col min="4097" max="4097" width="6.83203125" style="4" customWidth="1"/>
+    <col min="4098" max="4098" width="4.33203125" style="4" customWidth="1"/>
+    <col min="4099" max="4099" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="4.1640625" style="4" customWidth="1"/>
+    <col min="4101" max="4101" width="7.1640625" style="4" customWidth="1"/>
+    <col min="4102" max="4102" width="4.6640625" style="4" customWidth="1"/>
+    <col min="4103" max="4103" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="4.1640625" style="4" customWidth="1"/>
+    <col min="4105" max="4106" width="7.5" style="4" customWidth="1"/>
+    <col min="4107" max="4107" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="4.1640625" style="4" customWidth="1"/>
+    <col min="4109" max="4109" width="7.5" style="4" customWidth="1"/>
+    <col min="4110" max="4349" width="9" style="4"/>
+    <col min="4350" max="4350" width="3.6640625" style="4" customWidth="1"/>
+    <col min="4351" max="4351" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4352" max="4352" width="4.33203125" style="4" customWidth="1"/>
+    <col min="4353" max="4353" width="6.83203125" style="4" customWidth="1"/>
+    <col min="4354" max="4354" width="4.33203125" style="4" customWidth="1"/>
+    <col min="4355" max="4355" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="4.1640625" style="4" customWidth="1"/>
+    <col min="4357" max="4357" width="7.1640625" style="4" customWidth="1"/>
+    <col min="4358" max="4358" width="4.6640625" style="4" customWidth="1"/>
+    <col min="4359" max="4359" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="4.1640625" style="4" customWidth="1"/>
+    <col min="4361" max="4362" width="7.5" style="4" customWidth="1"/>
+    <col min="4363" max="4363" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="4.1640625" style="4" customWidth="1"/>
+    <col min="4365" max="4365" width="7.5" style="4" customWidth="1"/>
+    <col min="4366" max="4605" width="9" style="4"/>
+    <col min="4606" max="4606" width="3.6640625" style="4" customWidth="1"/>
+    <col min="4607" max="4607" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4608" max="4608" width="4.33203125" style="4" customWidth="1"/>
+    <col min="4609" max="4609" width="6.83203125" style="4" customWidth="1"/>
+    <col min="4610" max="4610" width="4.33203125" style="4" customWidth="1"/>
+    <col min="4611" max="4611" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="4.1640625" style="4" customWidth="1"/>
+    <col min="4613" max="4613" width="7.1640625" style="4" customWidth="1"/>
+    <col min="4614" max="4614" width="4.6640625" style="4" customWidth="1"/>
+    <col min="4615" max="4615" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="4.1640625" style="4" customWidth="1"/>
+    <col min="4617" max="4618" width="7.5" style="4" customWidth="1"/>
+    <col min="4619" max="4619" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="4.1640625" style="4" customWidth="1"/>
+    <col min="4621" max="4621" width="7.5" style="4" customWidth="1"/>
+    <col min="4622" max="4861" width="9" style="4"/>
+    <col min="4862" max="4862" width="3.6640625" style="4" customWidth="1"/>
+    <col min="4863" max="4863" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4864" max="4864" width="4.33203125" style="4" customWidth="1"/>
+    <col min="4865" max="4865" width="6.83203125" style="4" customWidth="1"/>
+    <col min="4866" max="4866" width="4.33203125" style="4" customWidth="1"/>
+    <col min="4867" max="4867" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="4.1640625" style="4" customWidth="1"/>
+    <col min="4869" max="4869" width="7.1640625" style="4" customWidth="1"/>
+    <col min="4870" max="4870" width="4.6640625" style="4" customWidth="1"/>
+    <col min="4871" max="4871" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="4.1640625" style="4" customWidth="1"/>
+    <col min="4873" max="4874" width="7.5" style="4" customWidth="1"/>
+    <col min="4875" max="4875" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="4.1640625" style="4" customWidth="1"/>
+    <col min="4877" max="4877" width="7.5" style="4" customWidth="1"/>
+    <col min="4878" max="5117" width="9" style="4"/>
+    <col min="5118" max="5118" width="3.6640625" style="4" customWidth="1"/>
+    <col min="5119" max="5119" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5120" max="5120" width="4.33203125" style="4" customWidth="1"/>
+    <col min="5121" max="5121" width="6.83203125" style="4" customWidth="1"/>
+    <col min="5122" max="5122" width="4.33203125" style="4" customWidth="1"/>
+    <col min="5123" max="5123" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="4.1640625" style="4" customWidth="1"/>
+    <col min="5125" max="5125" width="7.1640625" style="4" customWidth="1"/>
+    <col min="5126" max="5126" width="4.6640625" style="4" customWidth="1"/>
+    <col min="5127" max="5127" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="4.1640625" style="4" customWidth="1"/>
+    <col min="5129" max="5130" width="7.5" style="4" customWidth="1"/>
+    <col min="5131" max="5131" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="4.1640625" style="4" customWidth="1"/>
+    <col min="5133" max="5133" width="7.5" style="4" customWidth="1"/>
+    <col min="5134" max="5373" width="9" style="4"/>
+    <col min="5374" max="5374" width="3.6640625" style="4" customWidth="1"/>
+    <col min="5375" max="5375" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5376" max="5376" width="4.33203125" style="4" customWidth="1"/>
+    <col min="5377" max="5377" width="6.83203125" style="4" customWidth="1"/>
+    <col min="5378" max="5378" width="4.33203125" style="4" customWidth="1"/>
+    <col min="5379" max="5379" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="4.1640625" style="4" customWidth="1"/>
+    <col min="5381" max="5381" width="7.1640625" style="4" customWidth="1"/>
+    <col min="5382" max="5382" width="4.6640625" style="4" customWidth="1"/>
+    <col min="5383" max="5383" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="4.1640625" style="4" customWidth="1"/>
+    <col min="5385" max="5386" width="7.5" style="4" customWidth="1"/>
+    <col min="5387" max="5387" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="4.1640625" style="4" customWidth="1"/>
+    <col min="5389" max="5389" width="7.5" style="4" customWidth="1"/>
+    <col min="5390" max="5629" width="9" style="4"/>
+    <col min="5630" max="5630" width="3.6640625" style="4" customWidth="1"/>
+    <col min="5631" max="5631" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5632" max="5632" width="4.33203125" style="4" customWidth="1"/>
+    <col min="5633" max="5633" width="6.83203125" style="4" customWidth="1"/>
+    <col min="5634" max="5634" width="4.33203125" style="4" customWidth="1"/>
+    <col min="5635" max="5635" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="4.1640625" style="4" customWidth="1"/>
+    <col min="5637" max="5637" width="7.1640625" style="4" customWidth="1"/>
+    <col min="5638" max="5638" width="4.6640625" style="4" customWidth="1"/>
+    <col min="5639" max="5639" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="4.1640625" style="4" customWidth="1"/>
+    <col min="5641" max="5642" width="7.5" style="4" customWidth="1"/>
+    <col min="5643" max="5643" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="4.1640625" style="4" customWidth="1"/>
+    <col min="5645" max="5645" width="7.5" style="4" customWidth="1"/>
+    <col min="5646" max="5885" width="9" style="4"/>
+    <col min="5886" max="5886" width="3.6640625" style="4" customWidth="1"/>
+    <col min="5887" max="5887" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5888" max="5888" width="4.33203125" style="4" customWidth="1"/>
+    <col min="5889" max="5889" width="6.83203125" style="4" customWidth="1"/>
+    <col min="5890" max="5890" width="4.33203125" style="4" customWidth="1"/>
+    <col min="5891" max="5891" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="4.1640625" style="4" customWidth="1"/>
+    <col min="5893" max="5893" width="7.1640625" style="4" customWidth="1"/>
+    <col min="5894" max="5894" width="4.6640625" style="4" customWidth="1"/>
+    <col min="5895" max="5895" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="4.1640625" style="4" customWidth="1"/>
+    <col min="5897" max="5898" width="7.5" style="4" customWidth="1"/>
+    <col min="5899" max="5899" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="4.1640625" style="4" customWidth="1"/>
+    <col min="5901" max="5901" width="7.5" style="4" customWidth="1"/>
+    <col min="5902" max="6141" width="9" style="4"/>
+    <col min="6142" max="6142" width="3.6640625" style="4" customWidth="1"/>
+    <col min="6143" max="6143" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6144" max="6144" width="4.33203125" style="4" customWidth="1"/>
+    <col min="6145" max="6145" width="6.83203125" style="4" customWidth="1"/>
+    <col min="6146" max="6146" width="4.33203125" style="4" customWidth="1"/>
+    <col min="6147" max="6147" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="4.1640625" style="4" customWidth="1"/>
+    <col min="6149" max="6149" width="7.1640625" style="4" customWidth="1"/>
+    <col min="6150" max="6150" width="4.6640625" style="4" customWidth="1"/>
+    <col min="6151" max="6151" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="4.1640625" style="4" customWidth="1"/>
+    <col min="6153" max="6154" width="7.5" style="4" customWidth="1"/>
+    <col min="6155" max="6155" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="4.1640625" style="4" customWidth="1"/>
+    <col min="6157" max="6157" width="7.5" style="4" customWidth="1"/>
+    <col min="6158" max="6397" width="9" style="4"/>
+    <col min="6398" max="6398" width="3.6640625" style="4" customWidth="1"/>
+    <col min="6399" max="6399" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6400" max="6400" width="4.33203125" style="4" customWidth="1"/>
+    <col min="6401" max="6401" width="6.83203125" style="4" customWidth="1"/>
+    <col min="6402" max="6402" width="4.33203125" style="4" customWidth="1"/>
+    <col min="6403" max="6403" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="4.1640625" style="4" customWidth="1"/>
+    <col min="6405" max="6405" width="7.1640625" style="4" customWidth="1"/>
+    <col min="6406" max="6406" width="4.6640625" style="4" customWidth="1"/>
+    <col min="6407" max="6407" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="4.1640625" style="4" customWidth="1"/>
+    <col min="6409" max="6410" width="7.5" style="4" customWidth="1"/>
+    <col min="6411" max="6411" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="4.1640625" style="4" customWidth="1"/>
+    <col min="6413" max="6413" width="7.5" style="4" customWidth="1"/>
+    <col min="6414" max="6653" width="9" style="4"/>
+    <col min="6654" max="6654" width="3.6640625" style="4" customWidth="1"/>
+    <col min="6655" max="6655" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6656" max="6656" width="4.33203125" style="4" customWidth="1"/>
+    <col min="6657" max="6657" width="6.83203125" style="4" customWidth="1"/>
+    <col min="6658" max="6658" width="4.33203125" style="4" customWidth="1"/>
+    <col min="6659" max="6659" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="4.1640625" style="4" customWidth="1"/>
+    <col min="6661" max="6661" width="7.1640625" style="4" customWidth="1"/>
+    <col min="6662" max="6662" width="4.6640625" style="4" customWidth="1"/>
+    <col min="6663" max="6663" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="4.1640625" style="4" customWidth="1"/>
+    <col min="6665" max="6666" width="7.5" style="4" customWidth="1"/>
+    <col min="6667" max="6667" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="4.1640625" style="4" customWidth="1"/>
+    <col min="6669" max="6669" width="7.5" style="4" customWidth="1"/>
+    <col min="6670" max="6909" width="9" style="4"/>
+    <col min="6910" max="6910" width="3.6640625" style="4" customWidth="1"/>
+    <col min="6911" max="6911" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6912" max="6912" width="4.33203125" style="4" customWidth="1"/>
+    <col min="6913" max="6913" width="6.83203125" style="4" customWidth="1"/>
+    <col min="6914" max="6914" width="4.33203125" style="4" customWidth="1"/>
+    <col min="6915" max="6915" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="4.1640625" style="4" customWidth="1"/>
+    <col min="6917" max="6917" width="7.1640625" style="4" customWidth="1"/>
+    <col min="6918" max="6918" width="4.6640625" style="4" customWidth="1"/>
+    <col min="6919" max="6919" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="4.1640625" style="4" customWidth="1"/>
+    <col min="6921" max="6922" width="7.5" style="4" customWidth="1"/>
+    <col min="6923" max="6923" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="4.1640625" style="4" customWidth="1"/>
+    <col min="6925" max="6925" width="7.5" style="4" customWidth="1"/>
+    <col min="6926" max="7165" width="9" style="4"/>
+    <col min="7166" max="7166" width="3.6640625" style="4" customWidth="1"/>
+    <col min="7167" max="7167" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7168" max="7168" width="4.33203125" style="4" customWidth="1"/>
+    <col min="7169" max="7169" width="6.83203125" style="4" customWidth="1"/>
+    <col min="7170" max="7170" width="4.33203125" style="4" customWidth="1"/>
+    <col min="7171" max="7171" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="4.1640625" style="4" customWidth="1"/>
+    <col min="7173" max="7173" width="7.1640625" style="4" customWidth="1"/>
+    <col min="7174" max="7174" width="4.6640625" style="4" customWidth="1"/>
+    <col min="7175" max="7175" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="4.1640625" style="4" customWidth="1"/>
+    <col min="7177" max="7178" width="7.5" style="4" customWidth="1"/>
+    <col min="7179" max="7179" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="4.1640625" style="4" customWidth="1"/>
+    <col min="7181" max="7181" width="7.5" style="4" customWidth="1"/>
+    <col min="7182" max="7421" width="9" style="4"/>
+    <col min="7422" max="7422" width="3.6640625" style="4" customWidth="1"/>
+    <col min="7423" max="7423" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7424" max="7424" width="4.33203125" style="4" customWidth="1"/>
+    <col min="7425" max="7425" width="6.83203125" style="4" customWidth="1"/>
+    <col min="7426" max="7426" width="4.33203125" style="4" customWidth="1"/>
+    <col min="7427" max="7427" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="4.1640625" style="4" customWidth="1"/>
+    <col min="7429" max="7429" width="7.1640625" style="4" customWidth="1"/>
+    <col min="7430" max="7430" width="4.6640625" style="4" customWidth="1"/>
+    <col min="7431" max="7431" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="4.1640625" style="4" customWidth="1"/>
+    <col min="7433" max="7434" width="7.5" style="4" customWidth="1"/>
+    <col min="7435" max="7435" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="4.1640625" style="4" customWidth="1"/>
+    <col min="7437" max="7437" width="7.5" style="4" customWidth="1"/>
+    <col min="7438" max="7677" width="9" style="4"/>
+    <col min="7678" max="7678" width="3.6640625" style="4" customWidth="1"/>
+    <col min="7679" max="7679" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7680" max="7680" width="4.33203125" style="4" customWidth="1"/>
+    <col min="7681" max="7681" width="6.83203125" style="4" customWidth="1"/>
+    <col min="7682" max="7682" width="4.33203125" style="4" customWidth="1"/>
+    <col min="7683" max="7683" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="4.1640625" style="4" customWidth="1"/>
+    <col min="7685" max="7685" width="7.1640625" style="4" customWidth="1"/>
+    <col min="7686" max="7686" width="4.6640625" style="4" customWidth="1"/>
+    <col min="7687" max="7687" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="4.1640625" style="4" customWidth="1"/>
+    <col min="7689" max="7690" width="7.5" style="4" customWidth="1"/>
+    <col min="7691" max="7691" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="4.1640625" style="4" customWidth="1"/>
+    <col min="7693" max="7693" width="7.5" style="4" customWidth="1"/>
+    <col min="7694" max="7933" width="9" style="4"/>
+    <col min="7934" max="7934" width="3.6640625" style="4" customWidth="1"/>
+    <col min="7935" max="7935" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7936" max="7936" width="4.33203125" style="4" customWidth="1"/>
+    <col min="7937" max="7937" width="6.83203125" style="4" customWidth="1"/>
+    <col min="7938" max="7938" width="4.33203125" style="4" customWidth="1"/>
+    <col min="7939" max="7939" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="4.1640625" style="4" customWidth="1"/>
+    <col min="7941" max="7941" width="7.1640625" style="4" customWidth="1"/>
+    <col min="7942" max="7942" width="4.6640625" style="4" customWidth="1"/>
+    <col min="7943" max="7943" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="4.1640625" style="4" customWidth="1"/>
+    <col min="7945" max="7946" width="7.5" style="4" customWidth="1"/>
+    <col min="7947" max="7947" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="4.1640625" style="4" customWidth="1"/>
+    <col min="7949" max="7949" width="7.5" style="4" customWidth="1"/>
+    <col min="7950" max="8189" width="9" style="4"/>
+    <col min="8190" max="8190" width="3.6640625" style="4" customWidth="1"/>
+    <col min="8191" max="8191" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8192" max="8192" width="4.33203125" style="4" customWidth="1"/>
+    <col min="8193" max="8193" width="6.83203125" style="4" customWidth="1"/>
+    <col min="8194" max="8194" width="4.33203125" style="4" customWidth="1"/>
+    <col min="8195" max="8195" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="4.1640625" style="4" customWidth="1"/>
+    <col min="8197" max="8197" width="7.1640625" style="4" customWidth="1"/>
+    <col min="8198" max="8198" width="4.6640625" style="4" customWidth="1"/>
+    <col min="8199" max="8199" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="4.1640625" style="4" customWidth="1"/>
+    <col min="8201" max="8202" width="7.5" style="4" customWidth="1"/>
+    <col min="8203" max="8203" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="4.1640625" style="4" customWidth="1"/>
+    <col min="8205" max="8205" width="7.5" style="4" customWidth="1"/>
+    <col min="8206" max="8445" width="9" style="4"/>
+    <col min="8446" max="8446" width="3.6640625" style="4" customWidth="1"/>
+    <col min="8447" max="8447" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8448" max="8448" width="4.33203125" style="4" customWidth="1"/>
+    <col min="8449" max="8449" width="6.83203125" style="4" customWidth="1"/>
+    <col min="8450" max="8450" width="4.33203125" style="4" customWidth="1"/>
+    <col min="8451" max="8451" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="4.1640625" style="4" customWidth="1"/>
+    <col min="8453" max="8453" width="7.1640625" style="4" customWidth="1"/>
+    <col min="8454" max="8454" width="4.6640625" style="4" customWidth="1"/>
+    <col min="8455" max="8455" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="4.1640625" style="4" customWidth="1"/>
+    <col min="8457" max="8458" width="7.5" style="4" customWidth="1"/>
+    <col min="8459" max="8459" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="4.1640625" style="4" customWidth="1"/>
+    <col min="8461" max="8461" width="7.5" style="4" customWidth="1"/>
+    <col min="8462" max="8701" width="9" style="4"/>
+    <col min="8702" max="8702" width="3.6640625" style="4" customWidth="1"/>
+    <col min="8703" max="8703" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8704" max="8704" width="4.33203125" style="4" customWidth="1"/>
+    <col min="8705" max="8705" width="6.83203125" style="4" customWidth="1"/>
+    <col min="8706" max="8706" width="4.33203125" style="4" customWidth="1"/>
+    <col min="8707" max="8707" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="4.1640625" style="4" customWidth="1"/>
+    <col min="8709" max="8709" width="7.1640625" style="4" customWidth="1"/>
+    <col min="8710" max="8710" width="4.6640625" style="4" customWidth="1"/>
+    <col min="8711" max="8711" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="4.1640625" style="4" customWidth="1"/>
+    <col min="8713" max="8714" width="7.5" style="4" customWidth="1"/>
+    <col min="8715" max="8715" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="4.1640625" style="4" customWidth="1"/>
+    <col min="8717" max="8717" width="7.5" style="4" customWidth="1"/>
+    <col min="8718" max="8957" width="9" style="4"/>
+    <col min="8958" max="8958" width="3.6640625" style="4" customWidth="1"/>
+    <col min="8959" max="8959" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8960" max="8960" width="4.33203125" style="4" customWidth="1"/>
+    <col min="8961" max="8961" width="6.83203125" style="4" customWidth="1"/>
+    <col min="8962" max="8962" width="4.33203125" style="4" customWidth="1"/>
+    <col min="8963" max="8963" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="4.1640625" style="4" customWidth="1"/>
+    <col min="8965" max="8965" width="7.1640625" style="4" customWidth="1"/>
+    <col min="8966" max="8966" width="4.6640625" style="4" customWidth="1"/>
+    <col min="8967" max="8967" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="4.1640625" style="4" customWidth="1"/>
+    <col min="8969" max="8970" width="7.5" style="4" customWidth="1"/>
+    <col min="8971" max="8971" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="4.1640625" style="4" customWidth="1"/>
+    <col min="8973" max="8973" width="7.5" style="4" customWidth="1"/>
+    <col min="8974" max="9213" width="9" style="4"/>
+    <col min="9214" max="9214" width="3.6640625" style="4" customWidth="1"/>
+    <col min="9215" max="9215" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9216" max="9216" width="4.33203125" style="4" customWidth="1"/>
+    <col min="9217" max="9217" width="6.83203125" style="4" customWidth="1"/>
+    <col min="9218" max="9218" width="4.33203125" style="4" customWidth="1"/>
+    <col min="9219" max="9219" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="4.1640625" style="4" customWidth="1"/>
+    <col min="9221" max="9221" width="7.1640625" style="4" customWidth="1"/>
+    <col min="9222" max="9222" width="4.6640625" style="4" customWidth="1"/>
+    <col min="9223" max="9223" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="4.1640625" style="4" customWidth="1"/>
+    <col min="9225" max="9226" width="7.5" style="4" customWidth="1"/>
+    <col min="9227" max="9227" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="4.1640625" style="4" customWidth="1"/>
+    <col min="9229" max="9229" width="7.5" style="4" customWidth="1"/>
+    <col min="9230" max="9469" width="9" style="4"/>
+    <col min="9470" max="9470" width="3.6640625" style="4" customWidth="1"/>
+    <col min="9471" max="9471" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9472" max="9472" width="4.33203125" style="4" customWidth="1"/>
+    <col min="9473" max="9473" width="6.83203125" style="4" customWidth="1"/>
+    <col min="9474" max="9474" width="4.33203125" style="4" customWidth="1"/>
+    <col min="9475" max="9475" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="4.1640625" style="4" customWidth="1"/>
+    <col min="9477" max="9477" width="7.1640625" style="4" customWidth="1"/>
+    <col min="9478" max="9478" width="4.6640625" style="4" customWidth="1"/>
+    <col min="9479" max="9479" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="4.1640625" style="4" customWidth="1"/>
+    <col min="9481" max="9482" width="7.5" style="4" customWidth="1"/>
+    <col min="9483" max="9483" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="4.1640625" style="4" customWidth="1"/>
+    <col min="9485" max="9485" width="7.5" style="4" customWidth="1"/>
+    <col min="9486" max="9725" width="9" style="4"/>
+    <col min="9726" max="9726" width="3.6640625" style="4" customWidth="1"/>
+    <col min="9727" max="9727" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9728" max="9728" width="4.33203125" style="4" customWidth="1"/>
+    <col min="9729" max="9729" width="6.83203125" style="4" customWidth="1"/>
+    <col min="9730" max="9730" width="4.33203125" style="4" customWidth="1"/>
+    <col min="9731" max="9731" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="4.1640625" style="4" customWidth="1"/>
+    <col min="9733" max="9733" width="7.1640625" style="4" customWidth="1"/>
+    <col min="9734" max="9734" width="4.6640625" style="4" customWidth="1"/>
+    <col min="9735" max="9735" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="4.1640625" style="4" customWidth="1"/>
+    <col min="9737" max="9738" width="7.5" style="4" customWidth="1"/>
+    <col min="9739" max="9739" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="4.1640625" style="4" customWidth="1"/>
+    <col min="9741" max="9741" width="7.5" style="4" customWidth="1"/>
+    <col min="9742" max="9981" width="9" style="4"/>
+    <col min="9982" max="9982" width="3.6640625" style="4" customWidth="1"/>
+    <col min="9983" max="9983" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9984" max="9984" width="4.33203125" style="4" customWidth="1"/>
+    <col min="9985" max="9985" width="6.83203125" style="4" customWidth="1"/>
+    <col min="9986" max="9986" width="4.33203125" style="4" customWidth="1"/>
+    <col min="9987" max="9987" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="4.1640625" style="4" customWidth="1"/>
+    <col min="9989" max="9989" width="7.1640625" style="4" customWidth="1"/>
+    <col min="9990" max="9990" width="4.6640625" style="4" customWidth="1"/>
+    <col min="9991" max="9991" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="4.1640625" style="4" customWidth="1"/>
+    <col min="9993" max="9994" width="7.5" style="4" customWidth="1"/>
+    <col min="9995" max="9995" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="4.1640625" style="4" customWidth="1"/>
+    <col min="9997" max="9997" width="7.5" style="4" customWidth="1"/>
+    <col min="9998" max="10237" width="9" style="4"/>
+    <col min="10238" max="10238" width="3.6640625" style="4" customWidth="1"/>
+    <col min="10239" max="10239" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="10240" max="10240" width="4.33203125" style="4" customWidth="1"/>
+    <col min="10241" max="10241" width="6.83203125" style="4" customWidth="1"/>
+    <col min="10242" max="10242" width="4.33203125" style="4" customWidth="1"/>
+    <col min="10243" max="10243" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="4.1640625" style="4" customWidth="1"/>
+    <col min="10245" max="10245" width="7.1640625" style="4" customWidth="1"/>
+    <col min="10246" max="10246" width="4.6640625" style="4" customWidth="1"/>
+    <col min="10247" max="10247" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="4.1640625" style="4" customWidth="1"/>
+    <col min="10249" max="10250" width="7.5" style="4" customWidth="1"/>
+    <col min="10251" max="10251" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="4.1640625" style="4" customWidth="1"/>
+    <col min="10253" max="10253" width="7.5" style="4" customWidth="1"/>
+    <col min="10254" max="10493" width="9" style="4"/>
+    <col min="10494" max="10494" width="3.6640625" style="4" customWidth="1"/>
+    <col min="10495" max="10495" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="10496" max="10496" width="4.33203125" style="4" customWidth="1"/>
+    <col min="10497" max="10497" width="6.83203125" style="4" customWidth="1"/>
+    <col min="10498" max="10498" width="4.33203125" style="4" customWidth="1"/>
+    <col min="10499" max="10499" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="4.1640625" style="4" customWidth="1"/>
+    <col min="10501" max="10501" width="7.1640625" style="4" customWidth="1"/>
+    <col min="10502" max="10502" width="4.6640625" style="4" customWidth="1"/>
+    <col min="10503" max="10503" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="4.1640625" style="4" customWidth="1"/>
+    <col min="10505" max="10506" width="7.5" style="4" customWidth="1"/>
+    <col min="10507" max="10507" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="4.1640625" style="4" customWidth="1"/>
+    <col min="10509" max="10509" width="7.5" style="4" customWidth="1"/>
+    <col min="10510" max="10749" width="9" style="4"/>
+    <col min="10750" max="10750" width="3.6640625" style="4" customWidth="1"/>
+    <col min="10751" max="10751" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="10752" max="10752" width="4.33203125" style="4" customWidth="1"/>
+    <col min="10753" max="10753" width="6.83203125" style="4" customWidth="1"/>
+    <col min="10754" max="10754" width="4.33203125" style="4" customWidth="1"/>
+    <col min="10755" max="10755" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="4.1640625" style="4" customWidth="1"/>
+    <col min="10757" max="10757" width="7.1640625" style="4" customWidth="1"/>
+    <col min="10758" max="10758" width="4.6640625" style="4" customWidth="1"/>
+    <col min="10759" max="10759" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="4.1640625" style="4" customWidth="1"/>
+    <col min="10761" max="10762" width="7.5" style="4" customWidth="1"/>
+    <col min="10763" max="10763" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="4.1640625" style="4" customWidth="1"/>
+    <col min="10765" max="10765" width="7.5" style="4" customWidth="1"/>
+    <col min="10766" max="11005" width="9" style="4"/>
+    <col min="11006" max="11006" width="3.6640625" style="4" customWidth="1"/>
+    <col min="11007" max="11007" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11008" max="11008" width="4.33203125" style="4" customWidth="1"/>
+    <col min="11009" max="11009" width="6.83203125" style="4" customWidth="1"/>
+    <col min="11010" max="11010" width="4.33203125" style="4" customWidth="1"/>
+    <col min="11011" max="11011" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="4.1640625" style="4" customWidth="1"/>
+    <col min="11013" max="11013" width="7.1640625" style="4" customWidth="1"/>
+    <col min="11014" max="11014" width="4.6640625" style="4" customWidth="1"/>
+    <col min="11015" max="11015" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="4.1640625" style="4" customWidth="1"/>
+    <col min="11017" max="11018" width="7.5" style="4" customWidth="1"/>
+    <col min="11019" max="11019" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="4.1640625" style="4" customWidth="1"/>
+    <col min="11021" max="11021" width="7.5" style="4" customWidth="1"/>
+    <col min="11022" max="11261" width="9" style="4"/>
+    <col min="11262" max="11262" width="3.6640625" style="4" customWidth="1"/>
+    <col min="11263" max="11263" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11264" max="11264" width="4.33203125" style="4" customWidth="1"/>
+    <col min="11265" max="11265" width="6.83203125" style="4" customWidth="1"/>
+    <col min="11266" max="11266" width="4.33203125" style="4" customWidth="1"/>
+    <col min="11267" max="11267" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="4.1640625" style="4" customWidth="1"/>
+    <col min="11269" max="11269" width="7.1640625" style="4" customWidth="1"/>
+    <col min="11270" max="11270" width="4.6640625" style="4" customWidth="1"/>
+    <col min="11271" max="11271" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="4.1640625" style="4" customWidth="1"/>
+    <col min="11273" max="11274" width="7.5" style="4" customWidth="1"/>
+    <col min="11275" max="11275" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="4.1640625" style="4" customWidth="1"/>
+    <col min="11277" max="11277" width="7.5" style="4" customWidth="1"/>
+    <col min="11278" max="11517" width="9" style="4"/>
+    <col min="11518" max="11518" width="3.6640625" style="4" customWidth="1"/>
+    <col min="11519" max="11519" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11520" max="11520" width="4.33203125" style="4" customWidth="1"/>
+    <col min="11521" max="11521" width="6.83203125" style="4" customWidth="1"/>
+    <col min="11522" max="11522" width="4.33203125" style="4" customWidth="1"/>
+    <col min="11523" max="11523" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="4.1640625" style="4" customWidth="1"/>
+    <col min="11525" max="11525" width="7.1640625" style="4" customWidth="1"/>
+    <col min="11526" max="11526" width="4.6640625" style="4" customWidth="1"/>
+    <col min="11527" max="11527" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="4.1640625" style="4" customWidth="1"/>
+    <col min="11529" max="11530" width="7.5" style="4" customWidth="1"/>
+    <col min="11531" max="11531" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="4.1640625" style="4" customWidth="1"/>
+    <col min="11533" max="11533" width="7.5" style="4" customWidth="1"/>
+    <col min="11534" max="11773" width="9" style="4"/>
+    <col min="11774" max="11774" width="3.6640625" style="4" customWidth="1"/>
+    <col min="11775" max="11775" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11776" max="11776" width="4.33203125" style="4" customWidth="1"/>
+    <col min="11777" max="11777" width="6.83203125" style="4" customWidth="1"/>
+    <col min="11778" max="11778" width="4.33203125" style="4" customWidth="1"/>
+    <col min="11779" max="11779" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="4.1640625" style="4" customWidth="1"/>
+    <col min="11781" max="11781" width="7.1640625" style="4" customWidth="1"/>
+    <col min="11782" max="11782" width="4.6640625" style="4" customWidth="1"/>
+    <col min="11783" max="11783" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="4.1640625" style="4" customWidth="1"/>
+    <col min="11785" max="11786" width="7.5" style="4" customWidth="1"/>
+    <col min="11787" max="11787" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="4.1640625" style="4" customWidth="1"/>
+    <col min="11789" max="11789" width="7.5" style="4" customWidth="1"/>
+    <col min="11790" max="12029" width="9" style="4"/>
+    <col min="12030" max="12030" width="3.6640625" style="4" customWidth="1"/>
+    <col min="12031" max="12031" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12032" max="12032" width="4.33203125" style="4" customWidth="1"/>
+    <col min="12033" max="12033" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12034" max="12034" width="4.33203125" style="4" customWidth="1"/>
+    <col min="12035" max="12035" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="4.1640625" style="4" customWidth="1"/>
+    <col min="12037" max="12037" width="7.1640625" style="4" customWidth="1"/>
+    <col min="12038" max="12038" width="4.6640625" style="4" customWidth="1"/>
+    <col min="12039" max="12039" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="4.1640625" style="4" customWidth="1"/>
+    <col min="12041" max="12042" width="7.5" style="4" customWidth="1"/>
+    <col min="12043" max="12043" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="4.1640625" style="4" customWidth="1"/>
+    <col min="12045" max="12045" width="7.5" style="4" customWidth="1"/>
+    <col min="12046" max="12285" width="9" style="4"/>
+    <col min="12286" max="12286" width="3.6640625" style="4" customWidth="1"/>
+    <col min="12287" max="12287" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12288" max="12288" width="4.33203125" style="4" customWidth="1"/>
+    <col min="12289" max="12289" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12290" max="12290" width="4.33203125" style="4" customWidth="1"/>
+    <col min="12291" max="12291" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="4.1640625" style="4" customWidth="1"/>
+    <col min="12293" max="12293" width="7.1640625" style="4" customWidth="1"/>
+    <col min="12294" max="12294" width="4.6640625" style="4" customWidth="1"/>
+    <col min="12295" max="12295" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="4.1640625" style="4" customWidth="1"/>
+    <col min="12297" max="12298" width="7.5" style="4" customWidth="1"/>
+    <col min="12299" max="12299" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="4.1640625" style="4" customWidth="1"/>
+    <col min="12301" max="12301" width="7.5" style="4" customWidth="1"/>
+    <col min="12302" max="12541" width="9" style="4"/>
+    <col min="12542" max="12542" width="3.6640625" style="4" customWidth="1"/>
+    <col min="12543" max="12543" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12544" max="12544" width="4.33203125" style="4" customWidth="1"/>
+    <col min="12545" max="12545" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12546" max="12546" width="4.33203125" style="4" customWidth="1"/>
+    <col min="12547" max="12547" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="4.1640625" style="4" customWidth="1"/>
+    <col min="12549" max="12549" width="7.1640625" style="4" customWidth="1"/>
+    <col min="12550" max="12550" width="4.6640625" style="4" customWidth="1"/>
+    <col min="12551" max="12551" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="4.1640625" style="4" customWidth="1"/>
+    <col min="12553" max="12554" width="7.5" style="4" customWidth="1"/>
+    <col min="12555" max="12555" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="4.1640625" style="4" customWidth="1"/>
+    <col min="12557" max="12557" width="7.5" style="4" customWidth="1"/>
+    <col min="12558" max="12797" width="9" style="4"/>
+    <col min="12798" max="12798" width="3.6640625" style="4" customWidth="1"/>
+    <col min="12799" max="12799" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12800" max="12800" width="4.33203125" style="4" customWidth="1"/>
+    <col min="12801" max="12801" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12802" max="12802" width="4.33203125" style="4" customWidth="1"/>
+    <col min="12803" max="12803" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="4.1640625" style="4" customWidth="1"/>
+    <col min="12805" max="12805" width="7.1640625" style="4" customWidth="1"/>
+    <col min="12806" max="12806" width="4.6640625" style="4" customWidth="1"/>
+    <col min="12807" max="12807" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="4.1640625" style="4" customWidth="1"/>
+    <col min="12809" max="12810" width="7.5" style="4" customWidth="1"/>
+    <col min="12811" max="12811" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="4.1640625" style="4" customWidth="1"/>
+    <col min="12813" max="12813" width="7.5" style="4" customWidth="1"/>
+    <col min="12814" max="13053" width="9" style="4"/>
+    <col min="13054" max="13054" width="3.6640625" style="4" customWidth="1"/>
+    <col min="13055" max="13055" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13056" max="13056" width="4.33203125" style="4" customWidth="1"/>
+    <col min="13057" max="13057" width="6.83203125" style="4" customWidth="1"/>
+    <col min="13058" max="13058" width="4.33203125" style="4" customWidth="1"/>
+    <col min="13059" max="13059" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="4.1640625" style="4" customWidth="1"/>
+    <col min="13061" max="13061" width="7.1640625" style="4" customWidth="1"/>
+    <col min="13062" max="13062" width="4.6640625" style="4" customWidth="1"/>
+    <col min="13063" max="13063" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="4.1640625" style="4" customWidth="1"/>
+    <col min="13065" max="13066" width="7.5" style="4" customWidth="1"/>
+    <col min="13067" max="13067" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="4.1640625" style="4" customWidth="1"/>
+    <col min="13069" max="13069" width="7.5" style="4" customWidth="1"/>
+    <col min="13070" max="13309" width="9" style="4"/>
+    <col min="13310" max="13310" width="3.6640625" style="4" customWidth="1"/>
+    <col min="13311" max="13311" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13312" max="13312" width="4.33203125" style="4" customWidth="1"/>
+    <col min="13313" max="13313" width="6.83203125" style="4" customWidth="1"/>
+    <col min="13314" max="13314" width="4.33203125" style="4" customWidth="1"/>
+    <col min="13315" max="13315" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="4.1640625" style="4" customWidth="1"/>
+    <col min="13317" max="13317" width="7.1640625" style="4" customWidth="1"/>
+    <col min="13318" max="13318" width="4.6640625" style="4" customWidth="1"/>
+    <col min="13319" max="13319" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="4.1640625" style="4" customWidth="1"/>
+    <col min="13321" max="13322" width="7.5" style="4" customWidth="1"/>
+    <col min="13323" max="13323" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="4.1640625" style="4" customWidth="1"/>
+    <col min="13325" max="13325" width="7.5" style="4" customWidth="1"/>
+    <col min="13326" max="13565" width="9" style="4"/>
+    <col min="13566" max="13566" width="3.6640625" style="4" customWidth="1"/>
+    <col min="13567" max="13567" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13568" max="13568" width="4.33203125" style="4" customWidth="1"/>
+    <col min="13569" max="13569" width="6.83203125" style="4" customWidth="1"/>
+    <col min="13570" max="13570" width="4.33203125" style="4" customWidth="1"/>
+    <col min="13571" max="13571" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="4.1640625" style="4" customWidth="1"/>
+    <col min="13573" max="13573" width="7.1640625" style="4" customWidth="1"/>
+    <col min="13574" max="13574" width="4.6640625" style="4" customWidth="1"/>
+    <col min="13575" max="13575" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="4.1640625" style="4" customWidth="1"/>
+    <col min="13577" max="13578" width="7.5" style="4" customWidth="1"/>
+    <col min="13579" max="13579" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="4.1640625" style="4" customWidth="1"/>
+    <col min="13581" max="13581" width="7.5" style="4" customWidth="1"/>
+    <col min="13582" max="13821" width="9" style="4"/>
+    <col min="13822" max="13822" width="3.6640625" style="4" customWidth="1"/>
+    <col min="13823" max="13823" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13824" max="13824" width="4.33203125" style="4" customWidth="1"/>
+    <col min="13825" max="13825" width="6.83203125" style="4" customWidth="1"/>
+    <col min="13826" max="13826" width="4.33203125" style="4" customWidth="1"/>
+    <col min="13827" max="13827" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="4.1640625" style="4" customWidth="1"/>
+    <col min="13829" max="13829" width="7.1640625" style="4" customWidth="1"/>
+    <col min="13830" max="13830" width="4.6640625" style="4" customWidth="1"/>
+    <col min="13831" max="13831" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="4.1640625" style="4" customWidth="1"/>
+    <col min="13833" max="13834" width="7.5" style="4" customWidth="1"/>
+    <col min="13835" max="13835" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="4.1640625" style="4" customWidth="1"/>
+    <col min="13837" max="13837" width="7.5" style="4" customWidth="1"/>
+    <col min="13838" max="14077" width="9" style="4"/>
+    <col min="14078" max="14078" width="3.6640625" style="4" customWidth="1"/>
+    <col min="14079" max="14079" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14080" max="14080" width="4.33203125" style="4" customWidth="1"/>
+    <col min="14081" max="14081" width="6.83203125" style="4" customWidth="1"/>
+    <col min="14082" max="14082" width="4.33203125" style="4" customWidth="1"/>
+    <col min="14083" max="14083" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="4.1640625" style="4" customWidth="1"/>
+    <col min="14085" max="14085" width="7.1640625" style="4" customWidth="1"/>
+    <col min="14086" max="14086" width="4.6640625" style="4" customWidth="1"/>
+    <col min="14087" max="14087" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="4.1640625" style="4" customWidth="1"/>
+    <col min="14089" max="14090" width="7.5" style="4" customWidth="1"/>
+    <col min="14091" max="14091" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="4.1640625" style="4" customWidth="1"/>
+    <col min="14093" max="14093" width="7.5" style="4" customWidth="1"/>
+    <col min="14094" max="14333" width="9" style="4"/>
+    <col min="14334" max="14334" width="3.6640625" style="4" customWidth="1"/>
+    <col min="14335" max="14335" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14336" max="14336" width="4.33203125" style="4" customWidth="1"/>
+    <col min="14337" max="14337" width="6.83203125" style="4" customWidth="1"/>
+    <col min="14338" max="14338" width="4.33203125" style="4" customWidth="1"/>
+    <col min="14339" max="14339" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="4.1640625" style="4" customWidth="1"/>
+    <col min="14341" max="14341" width="7.1640625" style="4" customWidth="1"/>
+    <col min="14342" max="14342" width="4.6640625" style="4" customWidth="1"/>
+    <col min="14343" max="14343" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="4.1640625" style="4" customWidth="1"/>
+    <col min="14345" max="14346" width="7.5" style="4" customWidth="1"/>
+    <col min="14347" max="14347" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="4.1640625" style="4" customWidth="1"/>
+    <col min="14349" max="14349" width="7.5" style="4" customWidth="1"/>
+    <col min="14350" max="14589" width="9" style="4"/>
+    <col min="14590" max="14590" width="3.6640625" style="4" customWidth="1"/>
+    <col min="14591" max="14591" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14592" max="14592" width="4.33203125" style="4" customWidth="1"/>
+    <col min="14593" max="14593" width="6.83203125" style="4" customWidth="1"/>
+    <col min="14594" max="14594" width="4.33203125" style="4" customWidth="1"/>
+    <col min="14595" max="14595" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="4.1640625" style="4" customWidth="1"/>
+    <col min="14597" max="14597" width="7.1640625" style="4" customWidth="1"/>
+    <col min="14598" max="14598" width="4.6640625" style="4" customWidth="1"/>
+    <col min="14599" max="14599" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="4.1640625" style="4" customWidth="1"/>
+    <col min="14601" max="14602" width="7.5" style="4" customWidth="1"/>
+    <col min="14603" max="14603" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="4.1640625" style="4" customWidth="1"/>
+    <col min="14605" max="14605" width="7.5" style="4" customWidth="1"/>
+    <col min="14606" max="14845" width="9" style="4"/>
+    <col min="14846" max="14846" width="3.6640625" style="4" customWidth="1"/>
+    <col min="14847" max="14847" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14848" max="14848" width="4.33203125" style="4" customWidth="1"/>
+    <col min="14849" max="14849" width="6.83203125" style="4" customWidth="1"/>
+    <col min="14850" max="14850" width="4.33203125" style="4" customWidth="1"/>
+    <col min="14851" max="14851" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="4.1640625" style="4" customWidth="1"/>
+    <col min="14853" max="14853" width="7.1640625" style="4" customWidth="1"/>
+    <col min="14854" max="14854" width="4.6640625" style="4" customWidth="1"/>
+    <col min="14855" max="14855" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="4.1640625" style="4" customWidth="1"/>
+    <col min="14857" max="14858" width="7.5" style="4" customWidth="1"/>
+    <col min="14859" max="14859" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="4.1640625" style="4" customWidth="1"/>
+    <col min="14861" max="14861" width="7.5" style="4" customWidth="1"/>
+    <col min="14862" max="15101" width="9" style="4"/>
+    <col min="15102" max="15102" width="3.6640625" style="4" customWidth="1"/>
+    <col min="15103" max="15103" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15104" max="15104" width="4.33203125" style="4" customWidth="1"/>
+    <col min="15105" max="15105" width="6.83203125" style="4" customWidth="1"/>
+    <col min="15106" max="15106" width="4.33203125" style="4" customWidth="1"/>
+    <col min="15107" max="15107" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="4.1640625" style="4" customWidth="1"/>
+    <col min="15109" max="15109" width="7.1640625" style="4" customWidth="1"/>
+    <col min="15110" max="15110" width="4.6640625" style="4" customWidth="1"/>
+    <col min="15111" max="15111" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="4.1640625" style="4" customWidth="1"/>
+    <col min="15113" max="15114" width="7.5" style="4" customWidth="1"/>
+    <col min="15115" max="15115" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="4.1640625" style="4" customWidth="1"/>
+    <col min="15117" max="15117" width="7.5" style="4" customWidth="1"/>
+    <col min="15118" max="15357" width="9" style="4"/>
+    <col min="15358" max="15358" width="3.6640625" style="4" customWidth="1"/>
+    <col min="15359" max="15359" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15360" max="15360" width="4.33203125" style="4" customWidth="1"/>
+    <col min="15361" max="15361" width="6.83203125" style="4" customWidth="1"/>
+    <col min="15362" max="15362" width="4.33203125" style="4" customWidth="1"/>
+    <col min="15363" max="15363" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="4.1640625" style="4" customWidth="1"/>
+    <col min="15365" max="15365" width="7.1640625" style="4" customWidth="1"/>
+    <col min="15366" max="15366" width="4.6640625" style="4" customWidth="1"/>
+    <col min="15367" max="15367" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="4.1640625" style="4" customWidth="1"/>
+    <col min="15369" max="15370" width="7.5" style="4" customWidth="1"/>
+    <col min="15371" max="15371" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="4.1640625" style="4" customWidth="1"/>
+    <col min="15373" max="15373" width="7.5" style="4" customWidth="1"/>
+    <col min="15374" max="15613" width="9" style="4"/>
+    <col min="15614" max="15614" width="3.6640625" style="4" customWidth="1"/>
+    <col min="15615" max="15615" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15616" max="15616" width="4.33203125" style="4" customWidth="1"/>
+    <col min="15617" max="15617" width="6.83203125" style="4" customWidth="1"/>
+    <col min="15618" max="15618" width="4.33203125" style="4" customWidth="1"/>
+    <col min="15619" max="15619" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="4.1640625" style="4" customWidth="1"/>
+    <col min="15621" max="15621" width="7.1640625" style="4" customWidth="1"/>
+    <col min="15622" max="15622" width="4.6640625" style="4" customWidth="1"/>
+    <col min="15623" max="15623" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="4.1640625" style="4" customWidth="1"/>
+    <col min="15625" max="15626" width="7.5" style="4" customWidth="1"/>
+    <col min="15627" max="15627" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="4.1640625" style="4" customWidth="1"/>
+    <col min="15629" max="15629" width="7.5" style="4" customWidth="1"/>
+    <col min="15630" max="15869" width="9" style="4"/>
+    <col min="15870" max="15870" width="3.6640625" style="4" customWidth="1"/>
+    <col min="15871" max="15871" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15872" max="15872" width="4.33203125" style="4" customWidth="1"/>
+    <col min="15873" max="15873" width="6.83203125" style="4" customWidth="1"/>
+    <col min="15874" max="15874" width="4.33203125" style="4" customWidth="1"/>
+    <col min="15875" max="15875" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="4.1640625" style="4" customWidth="1"/>
+    <col min="15877" max="15877" width="7.1640625" style="4" customWidth="1"/>
+    <col min="15878" max="15878" width="4.6640625" style="4" customWidth="1"/>
+    <col min="15879" max="15879" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="4.1640625" style="4" customWidth="1"/>
+    <col min="15881" max="15882" width="7.5" style="4" customWidth="1"/>
+    <col min="15883" max="15883" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="4.1640625" style="4" customWidth="1"/>
+    <col min="15885" max="15885" width="7.5" style="4" customWidth="1"/>
+    <col min="15886" max="16125" width="9" style="4"/>
+    <col min="16126" max="16126" width="3.6640625" style="4" customWidth="1"/>
+    <col min="16127" max="16127" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="16128" max="16128" width="4.33203125" style="4" customWidth="1"/>
+    <col min="16129" max="16129" width="6.83203125" style="4" customWidth="1"/>
+    <col min="16130" max="16130" width="4.33203125" style="4" customWidth="1"/>
+    <col min="16131" max="16131" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="4.1640625" style="4" customWidth="1"/>
+    <col min="16133" max="16133" width="7.1640625" style="4" customWidth="1"/>
+    <col min="16134" max="16134" width="4.6640625" style="4" customWidth="1"/>
+    <col min="16135" max="16135" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="4.1640625" style="4" customWidth="1"/>
+    <col min="16137" max="16138" width="7.5" style="4" customWidth="1"/>
+    <col min="16139" max="16139" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="4.1640625" style="4" customWidth="1"/>
+    <col min="16141" max="16141" width="7.5" style="4" customWidth="1"/>
+    <col min="16142" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="14">
+        <f>'HuangZhou element'!B4</f>
+        <v>2.3007610000000001</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="14">
+        <f>'HuangZhou element'!F4</f>
+        <v>0.1052912</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="14">
+        <f>'HuangZhou element'!I4</f>
+        <v>0.55879540000000005</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="4" t="str">
+        <f>A1&amp;B1&amp;TEXT(C1,"0.0000E+00")&amp;D1&amp;TEXT(E1,"0.00")&amp;F1&amp;TEXT(G1,"0.0000E+00")&amp;H1&amp;TEXT(I1,"0.00")&amp;J1&amp;TEXT(K1,"0.0000E+00")&amp;L1&amp;TEXT(M1,"0.00")&amp;N1</f>
+        <v>$2^{-1}$ &amp; 2.3008E+00 &amp; $-$ &amp; 1.0529E-01 &amp; $-$ &amp; 5.5880E-01 &amp; $-$ \\</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="14">
+        <f>'HuangZhou element'!B5</f>
+        <v>0.44164520000000002</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="17">
+        <f>LOG(C1/C2,2)</f>
+        <v>2.381151389271257</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="14">
+        <f>'HuangZhou element'!F5</f>
+        <v>1.302385E-2</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="17">
+        <f>LOG(G1/G2,2)</f>
+        <v>3.0151569702906329</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="14">
+        <f>'HuangZhou element'!I5</f>
+        <v>0.11765639999999999</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="17">
+        <f>LOG(K1/K2,2)</f>
+        <v>2.2477403454644436</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="4" t="str">
+        <f>A2&amp;B2&amp;TEXT(C2,"0.0000E+00")&amp;D2&amp;TEXT(E2,"0.00")&amp;F2&amp;TEXT(G2,"0.0000E+00")&amp;H2&amp;TEXT(I2,"0.00")&amp;J2&amp;TEXT(K2,"0.0000E+00")&amp;L2&amp;TEXT(M2,"0.00")&amp;N2</f>
+        <v>$2^{-2}$ &amp; 4.4165E-01 &amp; 2.38 &amp; 1.3024E-02 &amp; 3.02 &amp; 1.1766E-01 &amp; 2.25 \\</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="14">
+        <f>'HuangZhou element'!B6</f>
+        <v>7.5474169999999993E-2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="17">
+        <f>LOG(C2/C3,2)</f>
+        <v>2.548832940295112</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="14">
+        <f>'HuangZhou element'!F6</f>
+        <v>1.1380229999999999E-3</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="17">
+        <f>LOG(G2/G3,2)</f>
+        <v>3.5165543681928488</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="14">
+        <f>'HuangZhou element'!I6</f>
+        <v>2.6621300000000001E-2</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="17">
+        <f>LOG(K2/K3,2)</f>
+        <v>2.1439268697547891</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="4" t="str">
+        <f>A3&amp;B3&amp;TEXT(C3,"0.0000E+00")&amp;D3&amp;TEXT(E3,"0.00")&amp;F3&amp;TEXT(G3,"0.0000E+00")&amp;H3&amp;TEXT(I3,"0.00")&amp;J3&amp;TEXT(K3,"0.0000E+00")&amp;L3&amp;TEXT(M3,"0.00")&amp;N3</f>
+        <v>$2^{-3}$ &amp; 7.5474E-02 &amp; 2.55 &amp; 1.1380E-03 &amp; 3.52 &amp; 2.6621E-02 &amp; 2.14 \\</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="14">
+        <f>'HuangZhou element'!B7</f>
+        <v>1.137883E-2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="17">
+        <f>LOG(C3/C4,2)</f>
+        <v>2.7296307625794962</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="14">
+        <f>'HuangZhou element'!F7</f>
+        <v>8.5163599999999999E-5</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="17">
+        <f>LOG(G3/G4,2)</f>
+        <v>3.7401489692052214</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="14">
+        <f>'HuangZhou element'!I7</f>
+        <v>4.5965190000000003E-3</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="17">
+        <f>LOG(K3/K4,2)</f>
+        <v>2.5339674150080245</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="4" t="str">
+        <f>A4&amp;B4&amp;TEXT(C4,"0.0000E+00")&amp;D4&amp;TEXT(E4,"0.00")&amp;F4&amp;TEXT(G4,"0.0000E+00")&amp;H4&amp;TEXT(I4,"0.00")&amp;J4&amp;TEXT(K4,"0.0000E+00")&amp;L4&amp;TEXT(M4,"0.00")&amp;N4</f>
+        <v>$2^{-4}$ &amp; 1.1379E-02 &amp; 2.73 &amp; 8.5164E-05 &amp; 3.74 &amp; 4.5965E-03 &amp; 2.53 \\</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="14">
+        <f>'HuangZhou element'!B8</f>
+        <v>1.537503E-3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="17">
+        <f t="shared" ref="E5:E7" si="0">LOG(C4/C5,2)</f>
+        <v>2.8876910931510813</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="14">
+        <f>'HuangZhou element'!F8</f>
+        <v>5.7457599999999999E-6</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="17">
+        <f t="shared" ref="I5:I7" si="1">LOG(G4/G5,2)</f>
+        <v>3.8896672981102576</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="14">
+        <f>'HuangZhou element'!I8</f>
+        <v>6.5102689999999995E-4</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="17">
+        <f t="shared" ref="M5:M7" si="2">LOG(K4/K5,2)</f>
+        <v>2.8197526431498021</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="4" t="str">
+        <f>A5&amp;B5&amp;TEXT(C5,"0.0000E+00")&amp;D5&amp;TEXT(E5,"0.00")&amp;F5&amp;TEXT(G5,"0.0000E+00")&amp;H5&amp;TEXT(I5,"0.00")&amp;J5&amp;TEXT(K5,"0.0000E+00")&amp;L5&amp;TEXT(M5,"0.00")&amp;N5</f>
+        <v>$2^{-5}$ &amp; 1.5375E-03 &amp; 2.89 &amp; 5.7458E-06 &amp; 3.89 &amp; 6.5103E-04 &amp; 2.82 \\</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="14">
+        <f>'HuangZhou element'!B9</f>
+        <v>1.9794370000000001E-4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" si="0"/>
+        <v>2.9574271692418215</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="14">
+        <f>'HuangZhou element'!F9</f>
+        <v>3.6940060000000002E-7</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="17">
+        <f t="shared" si="1"/>
+        <v>3.959239618119816</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="14">
+        <f>'HuangZhou element'!I9</f>
+        <v>8.5131320000000004E-5</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="17">
+        <f t="shared" si="2"/>
+        <v>2.9349552504607872</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="4" t="str">
+        <f>A6&amp;B6&amp;TEXT(C6,"0.0000E+00")&amp;D6&amp;TEXT(E6,"0.00")&amp;F6&amp;TEXT(G6,"0.0000E+00")&amp;H6&amp;TEXT(I6,"0.00")&amp;J6&amp;TEXT(K6,"0.0000E+00")&amp;L6&amp;TEXT(M6,"0.00")&amp;N6</f>
+        <v>$2^{-6}$ &amp; 1.9794E-04 &amp; 2.96 &amp; 3.6940E-07 &amp; 3.96 &amp; 8.5131E-05 &amp; 2.93 \\</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="14">
+        <f>'HuangZhou element'!B10</f>
+        <v>2.5034449999999999E-5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="17">
+        <f t="shared" si="0"/>
+        <v>2.9831034858412568</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="14">
+        <f>'HuangZhou element'!F10</f>
+        <v>2.334347E-8</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="17">
+        <f t="shared" si="1"/>
+        <v>3.9840952713283606</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="14">
+        <f>'HuangZhou element'!I10</f>
+        <v>1.082593E-5</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="17">
+        <f t="shared" si="2"/>
+        <v>2.975199035460955</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="4" t="str">
+        <f>A7&amp;B7&amp;TEXT(C7,"0.0000E+00")&amp;D7&amp;TEXT(E7,"0.00")&amp;F7&amp;TEXT(G7,"0.0000E+00")&amp;H7&amp;TEXT(I7,"0.00")&amp;J7&amp;TEXT(K7,"0.0000E+00")&amp;L7&amp;TEXT(M7,"0.00")&amp;N7</f>
+        <v>$2^{-7}$ &amp; 2.5034E-05 &amp; 2.98 &amp; 2.3343E-08 &amp; 3.98 &amp; 1.0826E-05 &amp; 2.98 \\</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="14">
+        <f>'HuangZhou element'!B14</f>
+        <v>2.339534</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="14">
+        <f>'HuangZhou element'!F14</f>
+        <v>0.10076499999999999</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="14">
+        <f>'HuangZhou element'!I14</f>
+        <v>0.46231689999999998</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="4" t="str">
+        <f>A11&amp;B11&amp;TEXT(C11,"0.0000E+00")&amp;D11&amp;TEXT(E11,"0.00")&amp;F11&amp;TEXT(G11,"0.0000E+00")&amp;H11&amp;TEXT(I11,"0.00")&amp;J11&amp;TEXT(K11,"0.0000E+00")&amp;L11&amp;TEXT(M11,"0.00")&amp;N11</f>
+        <v>$2^{-1}$ &amp; 2.3395E+00 &amp; $-$ &amp; 1.0077E-01 &amp; $-$ &amp; 4.6232E-01 &amp; $-$ \\</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="14">
+        <f>'HuangZhou element'!B15</f>
+        <v>0.45722889999999999</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="17">
+        <f>LOG(C11/C12,2)</f>
+        <v>2.3552326955007801</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="14">
+        <f>'HuangZhou element'!F15</f>
+        <v>1.281533E-2</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="17">
+        <f>LOG(G11/G12,2)</f>
+        <v>2.9750520818625321</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="14">
+        <f>'HuangZhou element'!I15</f>
+        <v>9.393348E-2</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="17">
+        <f>LOG(K11/K12,2)</f>
+        <v>2.2991707377370929</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="4" t="str">
+        <f>A12&amp;B12&amp;TEXT(C12,"0.0000E+00")&amp;D12&amp;TEXT(E12,"0.00")&amp;F12&amp;TEXT(G12,"0.0000E+00")&amp;H12&amp;TEXT(I12,"0.00")&amp;J12&amp;TEXT(K12,"0.0000E+00")&amp;L12&amp;TEXT(M12,"0.00")&amp;N12</f>
+        <v>$2^{-2}$ &amp; 4.5723E-01 &amp; 2.36 &amp; 1.2815E-02 &amp; 2.98 &amp; 9.3933E-02 &amp; 2.30 \\</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="14">
+        <f>'HuangZhou element'!B16</f>
+        <v>7.6643669999999997E-2</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="17">
+        <f>LOG(C12/C13,2)</f>
+        <v>2.5766780449015001</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="14">
+        <f>'HuangZhou element'!F16</f>
+        <v>1.064731E-3</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="17">
+        <f>LOG(G12/G13,2)</f>
+        <v>3.5893097385898733</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="14">
+        <f>'HuangZhou element'!I16</f>
+        <v>1.8562260000000001E-2</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="17">
+        <f>LOG(K12/K13,2)</f>
+        <v>2.3392670856571067</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="4" t="str">
+        <f>A13&amp;B13&amp;TEXT(C13,"0.0000E+00")&amp;D13&amp;TEXT(E13,"0.00")&amp;F13&amp;TEXT(G13,"0.0000E+00")&amp;H13&amp;TEXT(I13,"0.00")&amp;J13&amp;TEXT(K13,"0.0000E+00")&amp;L13&amp;TEXT(M13,"0.00")&amp;N13</f>
+        <v>$2^{-3}$ &amp; 7.6644E-02 &amp; 2.58 &amp; 1.0647E-03 &amp; 3.59 &amp; 1.8562E-02 &amp; 2.34 \\</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="14">
+        <f>'HuangZhou element'!B17</f>
+        <v>1.146023E-2</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="17">
+        <f>LOG(C13/C14,2)</f>
+        <v>2.7415306462172411</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="14">
+        <f>'HuangZhou element'!F17</f>
+        <v>7.5376590000000005E-5</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="17">
+        <f>LOG(G13/G14,2)</f>
+        <v>3.8202286455068739</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="14">
+        <f>'HuangZhou element'!I17</f>
+        <v>3.1190520000000002E-3</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="17">
+        <f>LOG(K13/K14,2)</f>
+        <v>2.5731928625153007</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="4" t="str">
+        <f>A14&amp;B14&amp;TEXT(C14,"0.0000E+00")&amp;D14&amp;TEXT(E14,"0.00")&amp;F14&amp;TEXT(G14,"0.0000E+00")&amp;H14&amp;TEXT(I14,"0.00")&amp;J14&amp;TEXT(K14,"0.0000E+00")&amp;L14&amp;TEXT(M14,"0.00")&amp;N14</f>
+        <v>$2^{-4}$ &amp; 1.1460E-02 &amp; 2.74 &amp; 7.5377E-05 &amp; 3.82 &amp; 3.1191E-03 &amp; 2.57 \\</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="14">
+        <f>'HuangZhou element'!B18</f>
+        <v>1.544398E-3</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="17">
+        <f t="shared" ref="E15:E27" si="3">LOG(C14/C15,2)</f>
+        <v>2.8915195022048881</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="14">
+        <f>'HuangZhou element'!F18</f>
+        <v>4.942441E-6</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="17">
+        <f t="shared" ref="I15:I27" si="4">LOG(G14/G15,2)</f>
+        <v>3.9308208805502196</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="14">
+        <f>'HuangZhou element'!I18</f>
+        <v>4.3713479999999999E-4</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="17">
+        <f t="shared" ref="M15:M27" si="5">LOG(K14/K15,2)</f>
+        <v>2.8349574653725944</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="4" t="str">
+        <f>A15&amp;B15&amp;TEXT(C15,"0.0000E+00")&amp;D15&amp;TEXT(E15,"0.00")&amp;F15&amp;TEXT(G15,"0.0000E+00")&amp;H15&amp;TEXT(I15,"0.00")&amp;J15&amp;TEXT(K15,"0.0000E+00")&amp;L15&amp;TEXT(M15,"0.00")&amp;N15</f>
+        <v>$2^{-5}$ &amp; 1.5444E-03 &amp; 2.89 &amp; 4.9424E-06 &amp; 3.93 &amp; 4.3713E-04 &amp; 2.83 \\</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="14">
+        <f>'HuangZhou element'!B19</f>
+        <v>1.986585E-4</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="17">
+        <f t="shared" si="3"/>
+        <v>2.9586821626562623</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="14">
+        <f>'HuangZhou element'!F19</f>
+        <v>3.1410360000000002E-7</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="17">
+        <f t="shared" si="4"/>
+        <v>3.9759113608044281</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="14">
+        <f>'HuangZhou element'!I19</f>
+        <v>5.6902420000000001E-5</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="17">
+        <f t="shared" si="5"/>
+        <v>2.941516319402794</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="4" t="str">
+        <f>A16&amp;B16&amp;TEXT(C16,"0.0000E+00")&amp;D16&amp;TEXT(E16,"0.00")&amp;F16&amp;TEXT(G16,"0.0000E+00")&amp;H16&amp;TEXT(I16,"0.00")&amp;J16&amp;TEXT(K16,"0.0000E+00")&amp;L16&amp;TEXT(M16,"0.00")&amp;N16</f>
+        <v>$2^{-6}$ &amp; 1.9866E-04 &amp; 2.96 &amp; 3.1410E-07 &amp; 3.98 &amp; 5.6902E-05 &amp; 2.94 \\</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="14">
+        <f>'HuangZhou element'!B20</f>
+        <v>2.5116829999999999E-5</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="17">
+        <f t="shared" si="3"/>
+        <v>2.9835642253205301</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="14">
+        <f>'HuangZhou element'!F20</f>
+        <v>1.9739900000000001E-8</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="17">
+        <f t="shared" si="4"/>
+        <v>3.9920538916789154</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="14">
+        <f>'HuangZhou element'!I20</f>
+        <v>7.2213200000000003E-6</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="17">
+        <f t="shared" si="5"/>
+        <v>2.9781555306003389</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="4" t="str">
+        <f>A17&amp;B17&amp;TEXT(C17,"0.0000E+00")&amp;D17&amp;TEXT(E17,"0.00")&amp;F17&amp;TEXT(G17,"0.0000E+00")&amp;H17&amp;TEXT(I17,"0.00")&amp;J17&amp;TEXT(K17,"0.0000E+00")&amp;L17&amp;TEXT(M17,"0.00")&amp;N17</f>
+        <v>$2^{-7}$ &amp; 2.5117E-05 &amp; 2.98 &amp; 1.9740E-08 &amp; 3.99 &amp; 7.2213E-06 &amp; 2.98 \\</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="14">
+        <f>'HuangZhou element'!B24</f>
+        <v>2.3396949999999999</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="14">
+        <f>'HuangZhou element'!F24</f>
+        <v>0.100759</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="14">
+        <f>'HuangZhou element'!I24</f>
+        <v>0.46222170000000001</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="4" t="str">
+        <f>A21&amp;B21&amp;TEXT(C21,"0.0000E+00")&amp;D21&amp;TEXT(E21,"0.00")&amp;F21&amp;TEXT(G21,"0.0000E+00")&amp;H21&amp;TEXT(I21,"0.00")&amp;J21&amp;TEXT(K21,"0.0000E+00")&amp;L21&amp;TEXT(M21,"0.00")&amp;N21</f>
+        <v>$2^{-1}$ &amp; 2.3397E+00 &amp; $-$ &amp; 1.0076E-01 &amp; $-$ &amp; 4.6222E-01 &amp; $-$ \\</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="14">
+        <f>'HuangZhou element'!B25</f>
+        <v>0.45730660000000001</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="17">
+        <f t="shared" si="3"/>
+        <v>2.3550868281088126</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="14">
+        <f>'HuangZhou element'!F25</f>
+        <v>1.281619E-2</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="17">
+        <f t="shared" si="4"/>
+        <v>2.9748693628986063</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="14">
+        <f>'HuangZhou element'!I25</f>
+        <v>9.391062E-2</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" s="17">
+        <f t="shared" si="5"/>
+        <v>2.2992247706508486</v>
+      </c>
+      <c r="N22" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P22" s="4" t="str">
+        <f>A22&amp;B22&amp;TEXT(C22,"0.0000E+00")&amp;D22&amp;TEXT(E22,"0.00")&amp;F22&amp;TEXT(G22,"0.0000E+00")&amp;H22&amp;TEXT(I22,"0.00")&amp;J22&amp;TEXT(K22,"0.0000E+00")&amp;L22&amp;TEXT(M22,"0.00")&amp;N22</f>
+        <v>$2^{-2}$ &amp; 4.5731E-01 &amp; 2.36 &amp; 1.2816E-02 &amp; 2.97 &amp; 9.3911E-02 &amp; 2.30 \\</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="14">
+        <f>'HuangZhou element'!B26</f>
+        <v>7.664907E-2</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="17">
+        <f t="shared" si="3"/>
+        <v>2.5768215481796917</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="14">
+        <f>'HuangZhou element'!F26</f>
+        <v>1.064707E-3</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="17">
+        <f t="shared" si="4"/>
+        <v>3.5894390704812911</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="14">
+        <f>'HuangZhou element'!I26</f>
+        <v>1.8549E-2</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" s="17">
+        <f t="shared" si="5"/>
+        <v>2.3399469046469363</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" s="4" t="str">
+        <f>A23&amp;B23&amp;TEXT(C23,"0.0000E+00")&amp;D23&amp;TEXT(E23,"0.00")&amp;F23&amp;TEXT(G23,"0.0000E+00")&amp;H23&amp;TEXT(I23,"0.00")&amp;J23&amp;TEXT(K23,"0.0000E+00")&amp;L23&amp;TEXT(M23,"0.00")&amp;N23</f>
+        <v>$2^{-3}$ &amp; 7.6649E-02 &amp; 2.58 &amp; 1.0647E-03 &amp; 3.59 &amp; 1.8549E-02 &amp; 2.34 \\</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="14">
+        <f>'HuangZhou element'!B27</f>
+        <v>1.14606E-2</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="17">
+        <f t="shared" si="3"/>
+        <v>2.7415857115651319</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="14">
+        <f>'HuangZhou element'!F27</f>
+        <v>7.536664E-5</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="17">
+        <f t="shared" si="4"/>
+        <v>3.8203865793577756</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="14">
+        <f>'HuangZhou element'!I27</f>
+        <v>3.1165189999999999E-3</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="17">
+        <f t="shared" si="5"/>
+        <v>2.5733339980878607</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="4" t="str">
+        <f>A24&amp;B24&amp;TEXT(C24,"0.0000E+00")&amp;D24&amp;TEXT(E24,"0.00")&amp;F24&amp;TEXT(G24,"0.0000E+00")&amp;H24&amp;TEXT(I24,"0.00")&amp;J24&amp;TEXT(K24,"0.0000E+00")&amp;L24&amp;TEXT(M24,"0.00")&amp;N24</f>
+        <v>$2^{-4}$ &amp; 1.1461E-02 &amp; 2.74 &amp; 7.5367E-05 &amp; 3.82 &amp; 3.1165E-03 &amp; 2.57 \\</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="14">
+        <f>'HuangZhou element'!B28</f>
+        <v>1.5444289999999999E-3</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="17">
+        <f t="shared" si="3"/>
+        <v>2.8915371214054115</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="14">
+        <f>'HuangZhou element'!F28</f>
+        <v>4.9414930000000001E-6</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="17">
+        <f t="shared" si="4"/>
+        <v>3.9309071737545476</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="14">
+        <f>'HuangZhou element'!I28</f>
+        <v>4.3676609999999998E-4</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" s="17">
+        <f t="shared" si="5"/>
+        <v>2.8350027186099171</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P25" s="4" t="str">
+        <f>A25&amp;B25&amp;TEXT(C25,"0.0000E+00")&amp;D25&amp;TEXT(E25,"0.00")&amp;F25&amp;TEXT(G25,"0.0000E+00")&amp;H25&amp;TEXT(I25,"0.00")&amp;J25&amp;TEXT(K25,"0.0000E+00")&amp;L25&amp;TEXT(M25,"0.00")&amp;N25</f>
+        <v>$2^{-5}$ &amp; 1.5444E-03 &amp; 2.89 &amp; 4.9415E-06 &amp; 3.93 &amp; 4.3677E-04 &amp; 2.84 \\</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="14">
+        <f>'HuangZhou element'!B29</f>
+        <v>1.9866170000000001E-4</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="17">
+        <f t="shared" si="3"/>
+        <v>2.9586878821192419</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="14">
+        <f>'HuangZhou element'!F29</f>
+        <v>3.1403519999999998E-7</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="17">
+        <f t="shared" si="4"/>
+        <v>3.9759488128897456</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" s="14">
+        <f>'HuangZhou element'!I29</f>
+        <v>5.6853710000000002E-5</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" s="17">
+        <f t="shared" si="5"/>
+        <v>2.9415344838591695</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" s="4" t="str">
+        <f>A26&amp;B26&amp;TEXT(C26,"0.0000E+00")&amp;D26&amp;TEXT(E26,"0.00")&amp;F26&amp;TEXT(G26,"0.0000E+00")&amp;H26&amp;TEXT(I26,"0.00")&amp;J26&amp;TEXT(K26,"0.0000E+00")&amp;L26&amp;TEXT(M26,"0.00")&amp;N26</f>
+        <v>$2^{-6}$ &amp; 1.9866E-04 &amp; 2.96 &amp; 3.1404E-07 &amp; 3.98 &amp; 5.6854E-05 &amp; 2.94 \\</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="14">
+        <f>'HuangZhou element'!B30</f>
+        <v>2.5117179999999999E-5</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="17">
+        <f t="shared" si="3"/>
+        <v>2.9835673604880761</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="14">
+        <f>'HuangZhou element'!F30</f>
+        <v>1.9735149999999999E-8</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="17">
+        <f t="shared" si="4"/>
+        <v>3.9920868891156083</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="14">
+        <f>'HuangZhou element'!I30</f>
+        <v>7.2150999999999997E-6</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="17">
+        <f t="shared" si="5"/>
+        <v>2.9781632000734555</v>
+      </c>
+      <c r="N27" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="4" t="str">
+        <f>A27&amp;B27&amp;TEXT(C27,"0.0000E+00")&amp;D27&amp;TEXT(E27,"0.00")&amp;F27&amp;TEXT(G27,"0.0000E+00")&amp;H27&amp;TEXT(I27,"0.00")&amp;J27&amp;TEXT(K27,"0.0000E+00")&amp;L27&amp;TEXT(M27,"0.00")&amp;N27</f>
+        <v>$2^{-7}$ &amp; 2.5117E-05 &amp; 2.98 &amp; 1.9735E-08 &amp; 3.99 &amp; 7.2151E-06 &amp; 2.98 \\</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="14">
+        <f>'HuangZhou element'!B34</f>
+        <v>2.3396949999999999</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="14">
+        <f>'HuangZhou element'!F34</f>
+        <v>0.100759</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="14">
+        <f>'HuangZhou element'!I34</f>
+        <v>0.46222170000000001</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P31" s="4" t="str">
+        <f>A31&amp;B31&amp;TEXT(C31,"0.0000E+00")&amp;D31&amp;TEXT(E31,"0.00")&amp;F31&amp;TEXT(G31,"0.0000E+00")&amp;H31&amp;TEXT(I31,"0.00")&amp;J31&amp;TEXT(K31,"0.0000E+00")&amp;L31&amp;TEXT(M31,"0.00")&amp;N31</f>
+        <v>$2^{-1}$ &amp; 2.3397E+00 &amp; $-$ &amp; 1.0076E-01 &amp; $-$ &amp; 4.6222E-01 &amp; $-$ \\</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="14">
+        <f>'HuangZhou element'!B35</f>
+        <v>0.45730670000000001</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="17">
+        <f t="shared" ref="E32:E37" si="6">LOG(C31/C32,2)</f>
+        <v>2.3550865126323064</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="14">
+        <f>'HuangZhou element'!F35</f>
+        <v>1.281619E-2</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="17">
+        <f t="shared" ref="I32:I37" si="7">LOG(G31/G32,2)</f>
+        <v>2.9748693628986063</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" s="14">
+        <f>'HuangZhou element'!I35</f>
+        <v>9.3910590000000002E-2</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" s="17">
+        <f t="shared" ref="M32:M37" si="8">LOG(K31/K32,2)</f>
+        <v>2.2992252315237311</v>
+      </c>
+      <c r="N32" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P32" s="4" t="str">
+        <f>A32&amp;B32&amp;TEXT(C32,"0.0000E+00")&amp;D32&amp;TEXT(E32,"0.00")&amp;F32&amp;TEXT(G32,"0.0000E+00")&amp;H32&amp;TEXT(I32,"0.00")&amp;J32&amp;TEXT(K32,"0.0000E+00")&amp;L32&amp;TEXT(M32,"0.00")&amp;N32</f>
+        <v>$2^{-2}$ &amp; 4.5731E-01 &amp; 2.36 &amp; 1.2816E-02 &amp; 2.97 &amp; 9.3911E-02 &amp; 2.30 \\</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="14">
+        <f>'HuangZhou element'!B36</f>
+        <v>7.6649079999999994E-2</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="17">
+        <f t="shared" si="6"/>
+        <v>2.576821675435395</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="14">
+        <f>'HuangZhou element'!F36</f>
+        <v>1.0647059999999999E-3</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="17">
+        <f t="shared" si="7"/>
+        <v>3.5894404254979473</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="14">
+        <f>'HuangZhou element'!I36</f>
+        <v>1.8548990000000001E-2</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" s="17">
+        <f t="shared" si="8"/>
+        <v>2.3399472215493677</v>
+      </c>
+      <c r="N33" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P33" s="4" t="str">
+        <f>A33&amp;B33&amp;TEXT(C33,"0.0000E+00")&amp;D33&amp;TEXT(E33,"0.00")&amp;F33&amp;TEXT(G33,"0.0000E+00")&amp;H33&amp;TEXT(I33,"0.00")&amp;J33&amp;TEXT(K33,"0.0000E+00")&amp;L33&amp;TEXT(M33,"0.00")&amp;N33</f>
+        <v>$2^{-3}$ &amp; 7.6649E-02 &amp; 2.58 &amp; 1.0647E-03 &amp; 3.59 &amp; 1.8549E-02 &amp; 2.34 \\</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="14">
+        <f>'HuangZhou element'!B37</f>
+        <v>1.14606E-2</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="17">
+        <f t="shared" si="6"/>
+        <v>2.7415858997859344</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="14">
+        <f>'HuangZhou element'!F37</f>
+        <v>7.536663E-5</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="17">
+        <f t="shared" si="7"/>
+        <v>3.820385415764691</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="14">
+        <f>'HuangZhou element'!I37</f>
+        <v>3.1165170000000001E-3</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" s="17">
+        <f t="shared" si="8"/>
+        <v>2.573334146150319</v>
+      </c>
+      <c r="N34" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P34" s="4" t="str">
+        <f>A34&amp;B34&amp;TEXT(C34,"0.0000E+00")&amp;D34&amp;TEXT(E34,"0.00")&amp;F34&amp;TEXT(G34,"0.0000E+00")&amp;H34&amp;TEXT(I34,"0.00")&amp;J34&amp;TEXT(K34,"0.0000E+00")&amp;L34&amp;TEXT(M34,"0.00")&amp;N34</f>
+        <v>$2^{-4}$ &amp; 1.1461E-02 &amp; 2.74 &amp; 7.5367E-05 &amp; 3.82 &amp; 3.1165E-03 &amp; 2.57 \\</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="14">
+        <f>'HuangZhou element'!B38</f>
+        <v>1.5444289999999999E-3</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="17">
+        <f t="shared" si="6"/>
+        <v>2.8915371214054115</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="14">
+        <f>'HuangZhou element'!F38</f>
+        <v>4.9414919999999998E-6</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="17">
+        <f t="shared" si="7"/>
+        <v>3.9309072742863003</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="14">
+        <f>'HuangZhou element'!I38</f>
+        <v>4.367657E-4</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" s="17">
+        <f t="shared" si="8"/>
+        <v>2.8350031140245973</v>
+      </c>
+      <c r="N35" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P35" s="4" t="str">
+        <f>A35&amp;B35&amp;TEXT(C35,"0.0000E+00")&amp;D35&amp;TEXT(E35,"0.00")&amp;F35&amp;TEXT(G35,"0.0000E+00")&amp;H35&amp;TEXT(I35,"0.00")&amp;J35&amp;TEXT(K35,"0.0000E+00")&amp;L35&amp;TEXT(M35,"0.00")&amp;N35</f>
+        <v>$2^{-5}$ &amp; 1.5444E-03 &amp; 2.89 &amp; 4.9415E-06 &amp; 3.93 &amp; 4.3677E-04 &amp; 2.84 \\</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="14">
+        <f>'HuangZhou element'!B39</f>
+        <v>1.9866170000000001E-4</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="17">
+        <f t="shared" si="6"/>
+        <v>2.9586878821192419</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="14">
+        <f>'HuangZhou element'!F39</f>
+        <v>3.1403519999999998E-7</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="17">
+        <f t="shared" si="7"/>
+        <v>3.9759485209344225</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="14">
+        <f>'HuangZhou element'!I39</f>
+        <v>5.6853659999999998E-5</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" s="17">
+        <f t="shared" si="8"/>
+        <v>2.9415344313855494</v>
+      </c>
+      <c r="N36" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P36" s="4" t="str">
+        <f>A36&amp;B36&amp;TEXT(C36,"0.0000E+00")&amp;D36&amp;TEXT(E36,"0.00")&amp;F36&amp;TEXT(G36,"0.0000E+00")&amp;H36&amp;TEXT(I36,"0.00")&amp;J36&amp;TEXT(K36,"0.0000E+00")&amp;L36&amp;TEXT(M36,"0.00")&amp;N36</f>
+        <v>$2^{-6}$ &amp; 1.9866E-04 &amp; 2.96 &amp; 3.1404E-07 &amp; 3.98 &amp; 5.6854E-05 &amp; 2.94 \\</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="14">
+        <f>'HuangZhou element'!B40</f>
+        <v>2.5117179999999999E-5</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="17">
+        <f t="shared" si="6"/>
+        <v>2.9835673604880761</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="14">
+        <f>'HuangZhou element'!F40</f>
+        <v>1.9735139999999999E-8</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="17">
+        <f t="shared" si="7"/>
+        <v>3.9920876201439541</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="14">
+        <f>'HuangZhou element'!I40</f>
+        <v>7.215094E-6</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M37" s="17">
+        <f t="shared" si="8"/>
+        <v>2.9781631310248891</v>
+      </c>
+      <c r="N37" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P37" s="4" t="str">
+        <f>A37&amp;B37&amp;TEXT(C37,"0.0000E+00")&amp;D37&amp;TEXT(E37,"0.00")&amp;F37&amp;TEXT(G37,"0.0000E+00")&amp;H37&amp;TEXT(I37,"0.00")&amp;J37&amp;TEXT(K37,"0.0000E+00")&amp;L37&amp;TEXT(M37,"0.00")&amp;N37</f>
+        <v>$2^{-7}$ &amp; 2.5117E-05 &amp; 2.98 &amp; 1.9735E-08 &amp; 3.99 &amp; 7.2151E-06 &amp; 2.98 \\</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="N11" r:id="rId1" xr:uid="{A9B7D181-D5EB-E641-B239-22028C52BA46}"/>
+    <hyperlink ref="N12:N17" r:id="rId2" display=" \\" xr:uid="{6AA1F931-3694-BC48-9402-86ADCEC06EF7}"/>
+    <hyperlink ref="N21" r:id="rId3" xr:uid="{793AC9FB-9D8F-4549-A068-E0360E4E426C}"/>
+    <hyperlink ref="N22:N27" r:id="rId4" display=" \\" xr:uid="{3EC597D8-2C41-EB4F-A252-191698377C64}"/>
+    <hyperlink ref="N31" r:id="rId5" xr:uid="{3A6931ED-F76C-2D41-BAE8-25859D7FB1AB}"/>
+    <hyperlink ref="N32:N37" r:id="rId6" display=" \\" xr:uid="{15B1FB4D-F594-3342-90A9-08DD64966453}"/>
+    <hyperlink ref="N1" r:id="rId7" xr:uid="{9C93CE3A-6B9C-B84E-B217-9823087E8CA1}"/>
+    <hyperlink ref="N2:N7" r:id="rId8" display=" \\" xr:uid="{EA0DFE4B-C9DB-E042-AECD-09524E79E896}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078E6508-967C-0042-BEEB-1677A5DBEA60}">
+  <dimension ref="A1:P37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="3.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.1640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="7.5" style="4" customWidth="1"/>
+    <col min="14" max="253" width="9" style="4"/>
+    <col min="254" max="254" width="3.6640625" style="4" customWidth="1"/>
+    <col min="255" max="255" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="4.33203125" style="4" customWidth="1"/>
+    <col min="257" max="257" width="6.83203125" style="4" customWidth="1"/>
+    <col min="258" max="258" width="4.33203125" style="4" customWidth="1"/>
+    <col min="259" max="259" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="4.1640625" style="4" customWidth="1"/>
+    <col min="261" max="261" width="7.1640625" style="4" customWidth="1"/>
+    <col min="262" max="262" width="4.6640625" style="4" customWidth="1"/>
+    <col min="263" max="263" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="4.1640625" style="4" customWidth="1"/>
+    <col min="265" max="266" width="7.5" style="4" customWidth="1"/>
+    <col min="267" max="267" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="4.1640625" style="4" customWidth="1"/>
+    <col min="269" max="269" width="7.5" style="4" customWidth="1"/>
+    <col min="270" max="509" width="9" style="4"/>
+    <col min="510" max="510" width="3.6640625" style="4" customWidth="1"/>
+    <col min="511" max="511" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="512" max="512" width="4.33203125" style="4" customWidth="1"/>
+    <col min="513" max="513" width="6.83203125" style="4" customWidth="1"/>
+    <col min="514" max="514" width="4.33203125" style="4" customWidth="1"/>
+    <col min="515" max="515" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="4.1640625" style="4" customWidth="1"/>
+    <col min="517" max="517" width="7.1640625" style="4" customWidth="1"/>
+    <col min="518" max="518" width="4.6640625" style="4" customWidth="1"/>
+    <col min="519" max="519" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="4.1640625" style="4" customWidth="1"/>
+    <col min="521" max="522" width="7.5" style="4" customWidth="1"/>
+    <col min="523" max="523" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="4.1640625" style="4" customWidth="1"/>
+    <col min="525" max="525" width="7.5" style="4" customWidth="1"/>
+    <col min="526" max="765" width="9" style="4"/>
+    <col min="766" max="766" width="3.6640625" style="4" customWidth="1"/>
+    <col min="767" max="767" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="768" max="768" width="4.33203125" style="4" customWidth="1"/>
+    <col min="769" max="769" width="6.83203125" style="4" customWidth="1"/>
+    <col min="770" max="770" width="4.33203125" style="4" customWidth="1"/>
+    <col min="771" max="771" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="4.1640625" style="4" customWidth="1"/>
+    <col min="773" max="773" width="7.1640625" style="4" customWidth="1"/>
+    <col min="774" max="774" width="4.6640625" style="4" customWidth="1"/>
+    <col min="775" max="775" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="4.1640625" style="4" customWidth="1"/>
+    <col min="777" max="778" width="7.5" style="4" customWidth="1"/>
+    <col min="779" max="779" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="4.1640625" style="4" customWidth="1"/>
+    <col min="781" max="781" width="7.5" style="4" customWidth="1"/>
+    <col min="782" max="1021" width="9" style="4"/>
+    <col min="1022" max="1022" width="3.6640625" style="4" customWidth="1"/>
+    <col min="1023" max="1023" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1024" max="1024" width="4.33203125" style="4" customWidth="1"/>
+    <col min="1025" max="1025" width="6.83203125" style="4" customWidth="1"/>
+    <col min="1026" max="1026" width="4.33203125" style="4" customWidth="1"/>
+    <col min="1027" max="1027" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="4.1640625" style="4" customWidth="1"/>
+    <col min="1029" max="1029" width="7.1640625" style="4" customWidth="1"/>
+    <col min="1030" max="1030" width="4.6640625" style="4" customWidth="1"/>
+    <col min="1031" max="1031" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="4.1640625" style="4" customWidth="1"/>
+    <col min="1033" max="1034" width="7.5" style="4" customWidth="1"/>
+    <col min="1035" max="1035" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="4.1640625" style="4" customWidth="1"/>
+    <col min="1037" max="1037" width="7.5" style="4" customWidth="1"/>
+    <col min="1038" max="1277" width="9" style="4"/>
+    <col min="1278" max="1278" width="3.6640625" style="4" customWidth="1"/>
+    <col min="1279" max="1279" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1280" max="1280" width="4.33203125" style="4" customWidth="1"/>
+    <col min="1281" max="1281" width="6.83203125" style="4" customWidth="1"/>
+    <col min="1282" max="1282" width="4.33203125" style="4" customWidth="1"/>
+    <col min="1283" max="1283" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="4.1640625" style="4" customWidth="1"/>
+    <col min="1285" max="1285" width="7.1640625" style="4" customWidth="1"/>
+    <col min="1286" max="1286" width="4.6640625" style="4" customWidth="1"/>
+    <col min="1287" max="1287" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="4.1640625" style="4" customWidth="1"/>
+    <col min="1289" max="1290" width="7.5" style="4" customWidth="1"/>
+    <col min="1291" max="1291" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="4.1640625" style="4" customWidth="1"/>
+    <col min="1293" max="1293" width="7.5" style="4" customWidth="1"/>
+    <col min="1294" max="1533" width="9" style="4"/>
+    <col min="1534" max="1534" width="3.6640625" style="4" customWidth="1"/>
+    <col min="1535" max="1535" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1536" max="1536" width="4.33203125" style="4" customWidth="1"/>
+    <col min="1537" max="1537" width="6.83203125" style="4" customWidth="1"/>
+    <col min="1538" max="1538" width="4.33203125" style="4" customWidth="1"/>
+    <col min="1539" max="1539" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="4.1640625" style="4" customWidth="1"/>
+    <col min="1541" max="1541" width="7.1640625" style="4" customWidth="1"/>
+    <col min="1542" max="1542" width="4.6640625" style="4" customWidth="1"/>
+    <col min="1543" max="1543" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="4.1640625" style="4" customWidth="1"/>
+    <col min="1545" max="1546" width="7.5" style="4" customWidth="1"/>
+    <col min="1547" max="1547" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="4.1640625" style="4" customWidth="1"/>
+    <col min="1549" max="1549" width="7.5" style="4" customWidth="1"/>
+    <col min="1550" max="1789" width="9" style="4"/>
+    <col min="1790" max="1790" width="3.6640625" style="4" customWidth="1"/>
+    <col min="1791" max="1791" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1792" max="1792" width="4.33203125" style="4" customWidth="1"/>
+    <col min="1793" max="1793" width="6.83203125" style="4" customWidth="1"/>
+    <col min="1794" max="1794" width="4.33203125" style="4" customWidth="1"/>
+    <col min="1795" max="1795" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="4.1640625" style="4" customWidth="1"/>
+    <col min="1797" max="1797" width="7.1640625" style="4" customWidth="1"/>
+    <col min="1798" max="1798" width="4.6640625" style="4" customWidth="1"/>
+    <col min="1799" max="1799" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="4.1640625" style="4" customWidth="1"/>
+    <col min="1801" max="1802" width="7.5" style="4" customWidth="1"/>
+    <col min="1803" max="1803" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="4.1640625" style="4" customWidth="1"/>
+    <col min="1805" max="1805" width="7.5" style="4" customWidth="1"/>
+    <col min="1806" max="2045" width="9" style="4"/>
+    <col min="2046" max="2046" width="3.6640625" style="4" customWidth="1"/>
+    <col min="2047" max="2047" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2048" max="2048" width="4.33203125" style="4" customWidth="1"/>
+    <col min="2049" max="2049" width="6.83203125" style="4" customWidth="1"/>
+    <col min="2050" max="2050" width="4.33203125" style="4" customWidth="1"/>
+    <col min="2051" max="2051" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="4.1640625" style="4" customWidth="1"/>
+    <col min="2053" max="2053" width="7.1640625" style="4" customWidth="1"/>
+    <col min="2054" max="2054" width="4.6640625" style="4" customWidth="1"/>
+    <col min="2055" max="2055" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="4.1640625" style="4" customWidth="1"/>
+    <col min="2057" max="2058" width="7.5" style="4" customWidth="1"/>
+    <col min="2059" max="2059" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="4.1640625" style="4" customWidth="1"/>
+    <col min="2061" max="2061" width="7.5" style="4" customWidth="1"/>
+    <col min="2062" max="2301" width="9" style="4"/>
+    <col min="2302" max="2302" width="3.6640625" style="4" customWidth="1"/>
+    <col min="2303" max="2303" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2304" max="2304" width="4.33203125" style="4" customWidth="1"/>
+    <col min="2305" max="2305" width="6.83203125" style="4" customWidth="1"/>
+    <col min="2306" max="2306" width="4.33203125" style="4" customWidth="1"/>
+    <col min="2307" max="2307" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="4.1640625" style="4" customWidth="1"/>
+    <col min="2309" max="2309" width="7.1640625" style="4" customWidth="1"/>
+    <col min="2310" max="2310" width="4.6640625" style="4" customWidth="1"/>
+    <col min="2311" max="2311" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="4.1640625" style="4" customWidth="1"/>
+    <col min="2313" max="2314" width="7.5" style="4" customWidth="1"/>
+    <col min="2315" max="2315" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="4.1640625" style="4" customWidth="1"/>
+    <col min="2317" max="2317" width="7.5" style="4" customWidth="1"/>
+    <col min="2318" max="2557" width="9" style="4"/>
+    <col min="2558" max="2558" width="3.6640625" style="4" customWidth="1"/>
+    <col min="2559" max="2559" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2560" max="2560" width="4.33203125" style="4" customWidth="1"/>
+    <col min="2561" max="2561" width="6.83203125" style="4" customWidth="1"/>
+    <col min="2562" max="2562" width="4.33203125" style="4" customWidth="1"/>
+    <col min="2563" max="2563" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="4.1640625" style="4" customWidth="1"/>
+    <col min="2565" max="2565" width="7.1640625" style="4" customWidth="1"/>
+    <col min="2566" max="2566" width="4.6640625" style="4" customWidth="1"/>
+    <col min="2567" max="2567" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="4.1640625" style="4" customWidth="1"/>
+    <col min="2569" max="2570" width="7.5" style="4" customWidth="1"/>
+    <col min="2571" max="2571" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="4.1640625" style="4" customWidth="1"/>
+    <col min="2573" max="2573" width="7.5" style="4" customWidth="1"/>
+    <col min="2574" max="2813" width="9" style="4"/>
+    <col min="2814" max="2814" width="3.6640625" style="4" customWidth="1"/>
+    <col min="2815" max="2815" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2816" max="2816" width="4.33203125" style="4" customWidth="1"/>
+    <col min="2817" max="2817" width="6.83203125" style="4" customWidth="1"/>
+    <col min="2818" max="2818" width="4.33203125" style="4" customWidth="1"/>
+    <col min="2819" max="2819" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="4.1640625" style="4" customWidth="1"/>
+    <col min="2821" max="2821" width="7.1640625" style="4" customWidth="1"/>
+    <col min="2822" max="2822" width="4.6640625" style="4" customWidth="1"/>
+    <col min="2823" max="2823" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="4.1640625" style="4" customWidth="1"/>
+    <col min="2825" max="2826" width="7.5" style="4" customWidth="1"/>
+    <col min="2827" max="2827" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="4.1640625" style="4" customWidth="1"/>
+    <col min="2829" max="2829" width="7.5" style="4" customWidth="1"/>
+    <col min="2830" max="3069" width="9" style="4"/>
+    <col min="3070" max="3070" width="3.6640625" style="4" customWidth="1"/>
+    <col min="3071" max="3071" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3072" max="3072" width="4.33203125" style="4" customWidth="1"/>
+    <col min="3073" max="3073" width="6.83203125" style="4" customWidth="1"/>
+    <col min="3074" max="3074" width="4.33203125" style="4" customWidth="1"/>
+    <col min="3075" max="3075" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="4.1640625" style="4" customWidth="1"/>
+    <col min="3077" max="3077" width="7.1640625" style="4" customWidth="1"/>
+    <col min="3078" max="3078" width="4.6640625" style="4" customWidth="1"/>
+    <col min="3079" max="3079" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="4.1640625" style="4" customWidth="1"/>
+    <col min="3081" max="3082" width="7.5" style="4" customWidth="1"/>
+    <col min="3083" max="3083" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="4.1640625" style="4" customWidth="1"/>
+    <col min="3085" max="3085" width="7.5" style="4" customWidth="1"/>
+    <col min="3086" max="3325" width="9" style="4"/>
+    <col min="3326" max="3326" width="3.6640625" style="4" customWidth="1"/>
+    <col min="3327" max="3327" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3328" max="3328" width="4.33203125" style="4" customWidth="1"/>
+    <col min="3329" max="3329" width="6.83203125" style="4" customWidth="1"/>
+    <col min="3330" max="3330" width="4.33203125" style="4" customWidth="1"/>
+    <col min="3331" max="3331" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="4.1640625" style="4" customWidth="1"/>
+    <col min="3333" max="3333" width="7.1640625" style="4" customWidth="1"/>
+    <col min="3334" max="3334" width="4.6640625" style="4" customWidth="1"/>
+    <col min="3335" max="3335" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="4.1640625" style="4" customWidth="1"/>
+    <col min="3337" max="3338" width="7.5" style="4" customWidth="1"/>
+    <col min="3339" max="3339" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="4.1640625" style="4" customWidth="1"/>
+    <col min="3341" max="3341" width="7.5" style="4" customWidth="1"/>
+    <col min="3342" max="3581" width="9" style="4"/>
+    <col min="3582" max="3582" width="3.6640625" style="4" customWidth="1"/>
+    <col min="3583" max="3583" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3584" max="3584" width="4.33203125" style="4" customWidth="1"/>
+    <col min="3585" max="3585" width="6.83203125" style="4" customWidth="1"/>
+    <col min="3586" max="3586" width="4.33203125" style="4" customWidth="1"/>
+    <col min="3587" max="3587" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="4.1640625" style="4" customWidth="1"/>
+    <col min="3589" max="3589" width="7.1640625" style="4" customWidth="1"/>
+    <col min="3590" max="3590" width="4.6640625" style="4" customWidth="1"/>
+    <col min="3591" max="3591" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="4.1640625" style="4" customWidth="1"/>
+    <col min="3593" max="3594" width="7.5" style="4" customWidth="1"/>
+    <col min="3595" max="3595" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="4.1640625" style="4" customWidth="1"/>
+    <col min="3597" max="3597" width="7.5" style="4" customWidth="1"/>
+    <col min="3598" max="3837" width="9" style="4"/>
+    <col min="3838" max="3838" width="3.6640625" style="4" customWidth="1"/>
+    <col min="3839" max="3839" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3840" max="3840" width="4.33203125" style="4" customWidth="1"/>
+    <col min="3841" max="3841" width="6.83203125" style="4" customWidth="1"/>
+    <col min="3842" max="3842" width="4.33203125" style="4" customWidth="1"/>
+    <col min="3843" max="3843" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="4.1640625" style="4" customWidth="1"/>
+    <col min="3845" max="3845" width="7.1640625" style="4" customWidth="1"/>
+    <col min="3846" max="3846" width="4.6640625" style="4" customWidth="1"/>
+    <col min="3847" max="3847" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="4.1640625" style="4" customWidth="1"/>
+    <col min="3849" max="3850" width="7.5" style="4" customWidth="1"/>
+    <col min="3851" max="3851" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="4.1640625" style="4" customWidth="1"/>
+    <col min="3853" max="3853" width="7.5" style="4" customWidth="1"/>
+    <col min="3854" max="4093" width="9" style="4"/>
+    <col min="4094" max="4094" width="3.6640625" style="4" customWidth="1"/>
+    <col min="4095" max="4095" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4096" max="4096" width="4.33203125" style="4" customWidth="1"/>
+    <col min="4097" max="4097" width="6.83203125" style="4" customWidth="1"/>
+    <col min="4098" max="4098" width="4.33203125" style="4" customWidth="1"/>
+    <col min="4099" max="4099" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="4.1640625" style="4" customWidth="1"/>
+    <col min="4101" max="4101" width="7.1640625" style="4" customWidth="1"/>
+    <col min="4102" max="4102" width="4.6640625" style="4" customWidth="1"/>
+    <col min="4103" max="4103" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="4.1640625" style="4" customWidth="1"/>
+    <col min="4105" max="4106" width="7.5" style="4" customWidth="1"/>
+    <col min="4107" max="4107" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="4.1640625" style="4" customWidth="1"/>
+    <col min="4109" max="4109" width="7.5" style="4" customWidth="1"/>
+    <col min="4110" max="4349" width="9" style="4"/>
+    <col min="4350" max="4350" width="3.6640625" style="4" customWidth="1"/>
+    <col min="4351" max="4351" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4352" max="4352" width="4.33203125" style="4" customWidth="1"/>
+    <col min="4353" max="4353" width="6.83203125" style="4" customWidth="1"/>
+    <col min="4354" max="4354" width="4.33203125" style="4" customWidth="1"/>
+    <col min="4355" max="4355" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="4.1640625" style="4" customWidth="1"/>
+    <col min="4357" max="4357" width="7.1640625" style="4" customWidth="1"/>
+    <col min="4358" max="4358" width="4.6640625" style="4" customWidth="1"/>
+    <col min="4359" max="4359" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="4.1640625" style="4" customWidth="1"/>
+    <col min="4361" max="4362" width="7.5" style="4" customWidth="1"/>
+    <col min="4363" max="4363" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="4.1640625" style="4" customWidth="1"/>
+    <col min="4365" max="4365" width="7.5" style="4" customWidth="1"/>
+    <col min="4366" max="4605" width="9" style="4"/>
+    <col min="4606" max="4606" width="3.6640625" style="4" customWidth="1"/>
+    <col min="4607" max="4607" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4608" max="4608" width="4.33203125" style="4" customWidth="1"/>
+    <col min="4609" max="4609" width="6.83203125" style="4" customWidth="1"/>
+    <col min="4610" max="4610" width="4.33203125" style="4" customWidth="1"/>
+    <col min="4611" max="4611" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="4.1640625" style="4" customWidth="1"/>
+    <col min="4613" max="4613" width="7.1640625" style="4" customWidth="1"/>
+    <col min="4614" max="4614" width="4.6640625" style="4" customWidth="1"/>
+    <col min="4615" max="4615" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="4.1640625" style="4" customWidth="1"/>
+    <col min="4617" max="4618" width="7.5" style="4" customWidth="1"/>
+    <col min="4619" max="4619" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="4.1640625" style="4" customWidth="1"/>
+    <col min="4621" max="4621" width="7.5" style="4" customWidth="1"/>
+    <col min="4622" max="4861" width="9" style="4"/>
+    <col min="4862" max="4862" width="3.6640625" style="4" customWidth="1"/>
+    <col min="4863" max="4863" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4864" max="4864" width="4.33203125" style="4" customWidth="1"/>
+    <col min="4865" max="4865" width="6.83203125" style="4" customWidth="1"/>
+    <col min="4866" max="4866" width="4.33203125" style="4" customWidth="1"/>
+    <col min="4867" max="4867" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="4.1640625" style="4" customWidth="1"/>
+    <col min="4869" max="4869" width="7.1640625" style="4" customWidth="1"/>
+    <col min="4870" max="4870" width="4.6640625" style="4" customWidth="1"/>
+    <col min="4871" max="4871" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="4.1640625" style="4" customWidth="1"/>
+    <col min="4873" max="4874" width="7.5" style="4" customWidth="1"/>
+    <col min="4875" max="4875" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="4.1640625" style="4" customWidth="1"/>
+    <col min="4877" max="4877" width="7.5" style="4" customWidth="1"/>
+    <col min="4878" max="5117" width="9" style="4"/>
+    <col min="5118" max="5118" width="3.6640625" style="4" customWidth="1"/>
+    <col min="5119" max="5119" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5120" max="5120" width="4.33203125" style="4" customWidth="1"/>
+    <col min="5121" max="5121" width="6.83203125" style="4" customWidth="1"/>
+    <col min="5122" max="5122" width="4.33203125" style="4" customWidth="1"/>
+    <col min="5123" max="5123" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="4.1640625" style="4" customWidth="1"/>
+    <col min="5125" max="5125" width="7.1640625" style="4" customWidth="1"/>
+    <col min="5126" max="5126" width="4.6640625" style="4" customWidth="1"/>
+    <col min="5127" max="5127" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="4.1640625" style="4" customWidth="1"/>
+    <col min="5129" max="5130" width="7.5" style="4" customWidth="1"/>
+    <col min="5131" max="5131" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="4.1640625" style="4" customWidth="1"/>
+    <col min="5133" max="5133" width="7.5" style="4" customWidth="1"/>
+    <col min="5134" max="5373" width="9" style="4"/>
+    <col min="5374" max="5374" width="3.6640625" style="4" customWidth="1"/>
+    <col min="5375" max="5375" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5376" max="5376" width="4.33203125" style="4" customWidth="1"/>
+    <col min="5377" max="5377" width="6.83203125" style="4" customWidth="1"/>
+    <col min="5378" max="5378" width="4.33203125" style="4" customWidth="1"/>
+    <col min="5379" max="5379" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="4.1640625" style="4" customWidth="1"/>
+    <col min="5381" max="5381" width="7.1640625" style="4" customWidth="1"/>
+    <col min="5382" max="5382" width="4.6640625" style="4" customWidth="1"/>
+    <col min="5383" max="5383" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="4.1640625" style="4" customWidth="1"/>
+    <col min="5385" max="5386" width="7.5" style="4" customWidth="1"/>
+    <col min="5387" max="5387" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="4.1640625" style="4" customWidth="1"/>
+    <col min="5389" max="5389" width="7.5" style="4" customWidth="1"/>
+    <col min="5390" max="5629" width="9" style="4"/>
+    <col min="5630" max="5630" width="3.6640625" style="4" customWidth="1"/>
+    <col min="5631" max="5631" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5632" max="5632" width="4.33203125" style="4" customWidth="1"/>
+    <col min="5633" max="5633" width="6.83203125" style="4" customWidth="1"/>
+    <col min="5634" max="5634" width="4.33203125" style="4" customWidth="1"/>
+    <col min="5635" max="5635" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="4.1640625" style="4" customWidth="1"/>
+    <col min="5637" max="5637" width="7.1640625" style="4" customWidth="1"/>
+    <col min="5638" max="5638" width="4.6640625" style="4" customWidth="1"/>
+    <col min="5639" max="5639" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="4.1640625" style="4" customWidth="1"/>
+    <col min="5641" max="5642" width="7.5" style="4" customWidth="1"/>
+    <col min="5643" max="5643" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="4.1640625" style="4" customWidth="1"/>
+    <col min="5645" max="5645" width="7.5" style="4" customWidth="1"/>
+    <col min="5646" max="5885" width="9" style="4"/>
+    <col min="5886" max="5886" width="3.6640625" style="4" customWidth="1"/>
+    <col min="5887" max="5887" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5888" max="5888" width="4.33203125" style="4" customWidth="1"/>
+    <col min="5889" max="5889" width="6.83203125" style="4" customWidth="1"/>
+    <col min="5890" max="5890" width="4.33203125" style="4" customWidth="1"/>
+    <col min="5891" max="5891" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="4.1640625" style="4" customWidth="1"/>
+    <col min="5893" max="5893" width="7.1640625" style="4" customWidth="1"/>
+    <col min="5894" max="5894" width="4.6640625" style="4" customWidth="1"/>
+    <col min="5895" max="5895" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="4.1640625" style="4" customWidth="1"/>
+    <col min="5897" max="5898" width="7.5" style="4" customWidth="1"/>
+    <col min="5899" max="5899" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="4.1640625" style="4" customWidth="1"/>
+    <col min="5901" max="5901" width="7.5" style="4" customWidth="1"/>
+    <col min="5902" max="6141" width="9" style="4"/>
+    <col min="6142" max="6142" width="3.6640625" style="4" customWidth="1"/>
+    <col min="6143" max="6143" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6144" max="6144" width="4.33203125" style="4" customWidth="1"/>
+    <col min="6145" max="6145" width="6.83203125" style="4" customWidth="1"/>
+    <col min="6146" max="6146" width="4.33203125" style="4" customWidth="1"/>
+    <col min="6147" max="6147" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="4.1640625" style="4" customWidth="1"/>
+    <col min="6149" max="6149" width="7.1640625" style="4" customWidth="1"/>
+    <col min="6150" max="6150" width="4.6640625" style="4" customWidth="1"/>
+    <col min="6151" max="6151" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="4.1640625" style="4" customWidth="1"/>
+    <col min="6153" max="6154" width="7.5" style="4" customWidth="1"/>
+    <col min="6155" max="6155" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="4.1640625" style="4" customWidth="1"/>
+    <col min="6157" max="6157" width="7.5" style="4" customWidth="1"/>
+    <col min="6158" max="6397" width="9" style="4"/>
+    <col min="6398" max="6398" width="3.6640625" style="4" customWidth="1"/>
+    <col min="6399" max="6399" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6400" max="6400" width="4.33203125" style="4" customWidth="1"/>
+    <col min="6401" max="6401" width="6.83203125" style="4" customWidth="1"/>
+    <col min="6402" max="6402" width="4.33203125" style="4" customWidth="1"/>
+    <col min="6403" max="6403" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="4.1640625" style="4" customWidth="1"/>
+    <col min="6405" max="6405" width="7.1640625" style="4" customWidth="1"/>
+    <col min="6406" max="6406" width="4.6640625" style="4" customWidth="1"/>
+    <col min="6407" max="6407" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="4.1640625" style="4" customWidth="1"/>
+    <col min="6409" max="6410" width="7.5" style="4" customWidth="1"/>
+    <col min="6411" max="6411" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="4.1640625" style="4" customWidth="1"/>
+    <col min="6413" max="6413" width="7.5" style="4" customWidth="1"/>
+    <col min="6414" max="6653" width="9" style="4"/>
+    <col min="6654" max="6654" width="3.6640625" style="4" customWidth="1"/>
+    <col min="6655" max="6655" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6656" max="6656" width="4.33203125" style="4" customWidth="1"/>
+    <col min="6657" max="6657" width="6.83203125" style="4" customWidth="1"/>
+    <col min="6658" max="6658" width="4.33203125" style="4" customWidth="1"/>
+    <col min="6659" max="6659" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="4.1640625" style="4" customWidth="1"/>
+    <col min="6661" max="6661" width="7.1640625" style="4" customWidth="1"/>
+    <col min="6662" max="6662" width="4.6640625" style="4" customWidth="1"/>
+    <col min="6663" max="6663" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="4.1640625" style="4" customWidth="1"/>
+    <col min="6665" max="6666" width="7.5" style="4" customWidth="1"/>
+    <col min="6667" max="6667" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="4.1640625" style="4" customWidth="1"/>
+    <col min="6669" max="6669" width="7.5" style="4" customWidth="1"/>
+    <col min="6670" max="6909" width="9" style="4"/>
+    <col min="6910" max="6910" width="3.6640625" style="4" customWidth="1"/>
+    <col min="6911" max="6911" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6912" max="6912" width="4.33203125" style="4" customWidth="1"/>
+    <col min="6913" max="6913" width="6.83203125" style="4" customWidth="1"/>
+    <col min="6914" max="6914" width="4.33203125" style="4" customWidth="1"/>
+    <col min="6915" max="6915" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="4.1640625" style="4" customWidth="1"/>
+    <col min="6917" max="6917" width="7.1640625" style="4" customWidth="1"/>
+    <col min="6918" max="6918" width="4.6640625" style="4" customWidth="1"/>
+    <col min="6919" max="6919" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="4.1640625" style="4" customWidth="1"/>
+    <col min="6921" max="6922" width="7.5" style="4" customWidth="1"/>
+    <col min="6923" max="6923" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="4.1640625" style="4" customWidth="1"/>
+    <col min="6925" max="6925" width="7.5" style="4" customWidth="1"/>
+    <col min="6926" max="7165" width="9" style="4"/>
+    <col min="7166" max="7166" width="3.6640625" style="4" customWidth="1"/>
+    <col min="7167" max="7167" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7168" max="7168" width="4.33203125" style="4" customWidth="1"/>
+    <col min="7169" max="7169" width="6.83203125" style="4" customWidth="1"/>
+    <col min="7170" max="7170" width="4.33203125" style="4" customWidth="1"/>
+    <col min="7171" max="7171" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="4.1640625" style="4" customWidth="1"/>
+    <col min="7173" max="7173" width="7.1640625" style="4" customWidth="1"/>
+    <col min="7174" max="7174" width="4.6640625" style="4" customWidth="1"/>
+    <col min="7175" max="7175" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="4.1640625" style="4" customWidth="1"/>
+    <col min="7177" max="7178" width="7.5" style="4" customWidth="1"/>
+    <col min="7179" max="7179" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="4.1640625" style="4" customWidth="1"/>
+    <col min="7181" max="7181" width="7.5" style="4" customWidth="1"/>
+    <col min="7182" max="7421" width="9" style="4"/>
+    <col min="7422" max="7422" width="3.6640625" style="4" customWidth="1"/>
+    <col min="7423" max="7423" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7424" max="7424" width="4.33203125" style="4" customWidth="1"/>
+    <col min="7425" max="7425" width="6.83203125" style="4" customWidth="1"/>
+    <col min="7426" max="7426" width="4.33203125" style="4" customWidth="1"/>
+    <col min="7427" max="7427" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="4.1640625" style="4" customWidth="1"/>
+    <col min="7429" max="7429" width="7.1640625" style="4" customWidth="1"/>
+    <col min="7430" max="7430" width="4.6640625" style="4" customWidth="1"/>
+    <col min="7431" max="7431" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="4.1640625" style="4" customWidth="1"/>
+    <col min="7433" max="7434" width="7.5" style="4" customWidth="1"/>
+    <col min="7435" max="7435" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="4.1640625" style="4" customWidth="1"/>
+    <col min="7437" max="7437" width="7.5" style="4" customWidth="1"/>
+    <col min="7438" max="7677" width="9" style="4"/>
+    <col min="7678" max="7678" width="3.6640625" style="4" customWidth="1"/>
+    <col min="7679" max="7679" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7680" max="7680" width="4.33203125" style="4" customWidth="1"/>
+    <col min="7681" max="7681" width="6.83203125" style="4" customWidth="1"/>
+    <col min="7682" max="7682" width="4.33203125" style="4" customWidth="1"/>
+    <col min="7683" max="7683" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="4.1640625" style="4" customWidth="1"/>
+    <col min="7685" max="7685" width="7.1640625" style="4" customWidth="1"/>
+    <col min="7686" max="7686" width="4.6640625" style="4" customWidth="1"/>
+    <col min="7687" max="7687" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="4.1640625" style="4" customWidth="1"/>
+    <col min="7689" max="7690" width="7.5" style="4" customWidth="1"/>
+    <col min="7691" max="7691" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="4.1640625" style="4" customWidth="1"/>
+    <col min="7693" max="7693" width="7.5" style="4" customWidth="1"/>
+    <col min="7694" max="7933" width="9" style="4"/>
+    <col min="7934" max="7934" width="3.6640625" style="4" customWidth="1"/>
+    <col min="7935" max="7935" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7936" max="7936" width="4.33203125" style="4" customWidth="1"/>
+    <col min="7937" max="7937" width="6.83203125" style="4" customWidth="1"/>
+    <col min="7938" max="7938" width="4.33203125" style="4" customWidth="1"/>
+    <col min="7939" max="7939" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="4.1640625" style="4" customWidth="1"/>
+    <col min="7941" max="7941" width="7.1640625" style="4" customWidth="1"/>
+    <col min="7942" max="7942" width="4.6640625" style="4" customWidth="1"/>
+    <col min="7943" max="7943" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="4.1640625" style="4" customWidth="1"/>
+    <col min="7945" max="7946" width="7.5" style="4" customWidth="1"/>
+    <col min="7947" max="7947" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="4.1640625" style="4" customWidth="1"/>
+    <col min="7949" max="7949" width="7.5" style="4" customWidth="1"/>
+    <col min="7950" max="8189" width="9" style="4"/>
+    <col min="8190" max="8190" width="3.6640625" style="4" customWidth="1"/>
+    <col min="8191" max="8191" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8192" max="8192" width="4.33203125" style="4" customWidth="1"/>
+    <col min="8193" max="8193" width="6.83203125" style="4" customWidth="1"/>
+    <col min="8194" max="8194" width="4.33203125" style="4" customWidth="1"/>
+    <col min="8195" max="8195" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="4.1640625" style="4" customWidth="1"/>
+    <col min="8197" max="8197" width="7.1640625" style="4" customWidth="1"/>
+    <col min="8198" max="8198" width="4.6640625" style="4" customWidth="1"/>
+    <col min="8199" max="8199" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="4.1640625" style="4" customWidth="1"/>
+    <col min="8201" max="8202" width="7.5" style="4" customWidth="1"/>
+    <col min="8203" max="8203" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="4.1640625" style="4" customWidth="1"/>
+    <col min="8205" max="8205" width="7.5" style="4" customWidth="1"/>
+    <col min="8206" max="8445" width="9" style="4"/>
+    <col min="8446" max="8446" width="3.6640625" style="4" customWidth="1"/>
+    <col min="8447" max="8447" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8448" max="8448" width="4.33203125" style="4" customWidth="1"/>
+    <col min="8449" max="8449" width="6.83203125" style="4" customWidth="1"/>
+    <col min="8450" max="8450" width="4.33203125" style="4" customWidth="1"/>
+    <col min="8451" max="8451" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="4.1640625" style="4" customWidth="1"/>
+    <col min="8453" max="8453" width="7.1640625" style="4" customWidth="1"/>
+    <col min="8454" max="8454" width="4.6640625" style="4" customWidth="1"/>
+    <col min="8455" max="8455" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="4.1640625" style="4" customWidth="1"/>
+    <col min="8457" max="8458" width="7.5" style="4" customWidth="1"/>
+    <col min="8459" max="8459" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="4.1640625" style="4" customWidth="1"/>
+    <col min="8461" max="8461" width="7.5" style="4" customWidth="1"/>
+    <col min="8462" max="8701" width="9" style="4"/>
+    <col min="8702" max="8702" width="3.6640625" style="4" customWidth="1"/>
+    <col min="8703" max="8703" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8704" max="8704" width="4.33203125" style="4" customWidth="1"/>
+    <col min="8705" max="8705" width="6.83203125" style="4" customWidth="1"/>
+    <col min="8706" max="8706" width="4.33203125" style="4" customWidth="1"/>
+    <col min="8707" max="8707" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="4.1640625" style="4" customWidth="1"/>
+    <col min="8709" max="8709" width="7.1640625" style="4" customWidth="1"/>
+    <col min="8710" max="8710" width="4.6640625" style="4" customWidth="1"/>
+    <col min="8711" max="8711" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="4.1640625" style="4" customWidth="1"/>
+    <col min="8713" max="8714" width="7.5" style="4" customWidth="1"/>
+    <col min="8715" max="8715" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="4.1640625" style="4" customWidth="1"/>
+    <col min="8717" max="8717" width="7.5" style="4" customWidth="1"/>
+    <col min="8718" max="8957" width="9" style="4"/>
+    <col min="8958" max="8958" width="3.6640625" style="4" customWidth="1"/>
+    <col min="8959" max="8959" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8960" max="8960" width="4.33203125" style="4" customWidth="1"/>
+    <col min="8961" max="8961" width="6.83203125" style="4" customWidth="1"/>
+    <col min="8962" max="8962" width="4.33203125" style="4" customWidth="1"/>
+    <col min="8963" max="8963" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="4.1640625" style="4" customWidth="1"/>
+    <col min="8965" max="8965" width="7.1640625" style="4" customWidth="1"/>
+    <col min="8966" max="8966" width="4.6640625" style="4" customWidth="1"/>
+    <col min="8967" max="8967" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="4.1640625" style="4" customWidth="1"/>
+    <col min="8969" max="8970" width="7.5" style="4" customWidth="1"/>
+    <col min="8971" max="8971" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="4.1640625" style="4" customWidth="1"/>
+    <col min="8973" max="8973" width="7.5" style="4" customWidth="1"/>
+    <col min="8974" max="9213" width="9" style="4"/>
+    <col min="9214" max="9214" width="3.6640625" style="4" customWidth="1"/>
+    <col min="9215" max="9215" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9216" max="9216" width="4.33203125" style="4" customWidth="1"/>
+    <col min="9217" max="9217" width="6.83203125" style="4" customWidth="1"/>
+    <col min="9218" max="9218" width="4.33203125" style="4" customWidth="1"/>
+    <col min="9219" max="9219" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="4.1640625" style="4" customWidth="1"/>
+    <col min="9221" max="9221" width="7.1640625" style="4" customWidth="1"/>
+    <col min="9222" max="9222" width="4.6640625" style="4" customWidth="1"/>
+    <col min="9223" max="9223" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="4.1640625" style="4" customWidth="1"/>
+    <col min="9225" max="9226" width="7.5" style="4" customWidth="1"/>
+    <col min="9227" max="9227" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="4.1640625" style="4" customWidth="1"/>
+    <col min="9229" max="9229" width="7.5" style="4" customWidth="1"/>
+    <col min="9230" max="9469" width="9" style="4"/>
+    <col min="9470" max="9470" width="3.6640625" style="4" customWidth="1"/>
+    <col min="9471" max="9471" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9472" max="9472" width="4.33203125" style="4" customWidth="1"/>
+    <col min="9473" max="9473" width="6.83203125" style="4" customWidth="1"/>
+    <col min="9474" max="9474" width="4.33203125" style="4" customWidth="1"/>
+    <col min="9475" max="9475" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="4.1640625" style="4" customWidth="1"/>
+    <col min="9477" max="9477" width="7.1640625" style="4" customWidth="1"/>
+    <col min="9478" max="9478" width="4.6640625" style="4" customWidth="1"/>
+    <col min="9479" max="9479" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="4.1640625" style="4" customWidth="1"/>
+    <col min="9481" max="9482" width="7.5" style="4" customWidth="1"/>
+    <col min="9483" max="9483" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="4.1640625" style="4" customWidth="1"/>
+    <col min="9485" max="9485" width="7.5" style="4" customWidth="1"/>
+    <col min="9486" max="9725" width="9" style="4"/>
+    <col min="9726" max="9726" width="3.6640625" style="4" customWidth="1"/>
+    <col min="9727" max="9727" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9728" max="9728" width="4.33203125" style="4" customWidth="1"/>
+    <col min="9729" max="9729" width="6.83203125" style="4" customWidth="1"/>
+    <col min="9730" max="9730" width="4.33203125" style="4" customWidth="1"/>
+    <col min="9731" max="9731" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="4.1640625" style="4" customWidth="1"/>
+    <col min="9733" max="9733" width="7.1640625" style="4" customWidth="1"/>
+    <col min="9734" max="9734" width="4.6640625" style="4" customWidth="1"/>
+    <col min="9735" max="9735" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="4.1640625" style="4" customWidth="1"/>
+    <col min="9737" max="9738" width="7.5" style="4" customWidth="1"/>
+    <col min="9739" max="9739" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="4.1640625" style="4" customWidth="1"/>
+    <col min="9741" max="9741" width="7.5" style="4" customWidth="1"/>
+    <col min="9742" max="9981" width="9" style="4"/>
+    <col min="9982" max="9982" width="3.6640625" style="4" customWidth="1"/>
+    <col min="9983" max="9983" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9984" max="9984" width="4.33203125" style="4" customWidth="1"/>
+    <col min="9985" max="9985" width="6.83203125" style="4" customWidth="1"/>
+    <col min="9986" max="9986" width="4.33203125" style="4" customWidth="1"/>
+    <col min="9987" max="9987" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="4.1640625" style="4" customWidth="1"/>
+    <col min="9989" max="9989" width="7.1640625" style="4" customWidth="1"/>
+    <col min="9990" max="9990" width="4.6640625" style="4" customWidth="1"/>
+    <col min="9991" max="9991" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="4.1640625" style="4" customWidth="1"/>
+    <col min="9993" max="9994" width="7.5" style="4" customWidth="1"/>
+    <col min="9995" max="9995" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="4.1640625" style="4" customWidth="1"/>
+    <col min="9997" max="9997" width="7.5" style="4" customWidth="1"/>
+    <col min="9998" max="10237" width="9" style="4"/>
+    <col min="10238" max="10238" width="3.6640625" style="4" customWidth="1"/>
+    <col min="10239" max="10239" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="10240" max="10240" width="4.33203125" style="4" customWidth="1"/>
+    <col min="10241" max="10241" width="6.83203125" style="4" customWidth="1"/>
+    <col min="10242" max="10242" width="4.33203125" style="4" customWidth="1"/>
+    <col min="10243" max="10243" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="4.1640625" style="4" customWidth="1"/>
+    <col min="10245" max="10245" width="7.1640625" style="4" customWidth="1"/>
+    <col min="10246" max="10246" width="4.6640625" style="4" customWidth="1"/>
+    <col min="10247" max="10247" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="4.1640625" style="4" customWidth="1"/>
+    <col min="10249" max="10250" width="7.5" style="4" customWidth="1"/>
+    <col min="10251" max="10251" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="4.1640625" style="4" customWidth="1"/>
+    <col min="10253" max="10253" width="7.5" style="4" customWidth="1"/>
+    <col min="10254" max="10493" width="9" style="4"/>
+    <col min="10494" max="10494" width="3.6640625" style="4" customWidth="1"/>
+    <col min="10495" max="10495" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="10496" max="10496" width="4.33203125" style="4" customWidth="1"/>
+    <col min="10497" max="10497" width="6.83203125" style="4" customWidth="1"/>
+    <col min="10498" max="10498" width="4.33203125" style="4" customWidth="1"/>
+    <col min="10499" max="10499" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="4.1640625" style="4" customWidth="1"/>
+    <col min="10501" max="10501" width="7.1640625" style="4" customWidth="1"/>
+    <col min="10502" max="10502" width="4.6640625" style="4" customWidth="1"/>
+    <col min="10503" max="10503" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="4.1640625" style="4" customWidth="1"/>
+    <col min="10505" max="10506" width="7.5" style="4" customWidth="1"/>
+    <col min="10507" max="10507" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="4.1640625" style="4" customWidth="1"/>
+    <col min="10509" max="10509" width="7.5" style="4" customWidth="1"/>
+    <col min="10510" max="10749" width="9" style="4"/>
+    <col min="10750" max="10750" width="3.6640625" style="4" customWidth="1"/>
+    <col min="10751" max="10751" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="10752" max="10752" width="4.33203125" style="4" customWidth="1"/>
+    <col min="10753" max="10753" width="6.83203125" style="4" customWidth="1"/>
+    <col min="10754" max="10754" width="4.33203125" style="4" customWidth="1"/>
+    <col min="10755" max="10755" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="4.1640625" style="4" customWidth="1"/>
+    <col min="10757" max="10757" width="7.1640625" style="4" customWidth="1"/>
+    <col min="10758" max="10758" width="4.6640625" style="4" customWidth="1"/>
+    <col min="10759" max="10759" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="4.1640625" style="4" customWidth="1"/>
+    <col min="10761" max="10762" width="7.5" style="4" customWidth="1"/>
+    <col min="10763" max="10763" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="4.1640625" style="4" customWidth="1"/>
+    <col min="10765" max="10765" width="7.5" style="4" customWidth="1"/>
+    <col min="10766" max="11005" width="9" style="4"/>
+    <col min="11006" max="11006" width="3.6640625" style="4" customWidth="1"/>
+    <col min="11007" max="11007" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11008" max="11008" width="4.33203125" style="4" customWidth="1"/>
+    <col min="11009" max="11009" width="6.83203125" style="4" customWidth="1"/>
+    <col min="11010" max="11010" width="4.33203125" style="4" customWidth="1"/>
+    <col min="11011" max="11011" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="4.1640625" style="4" customWidth="1"/>
+    <col min="11013" max="11013" width="7.1640625" style="4" customWidth="1"/>
+    <col min="11014" max="11014" width="4.6640625" style="4" customWidth="1"/>
+    <col min="11015" max="11015" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="4.1640625" style="4" customWidth="1"/>
+    <col min="11017" max="11018" width="7.5" style="4" customWidth="1"/>
+    <col min="11019" max="11019" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="4.1640625" style="4" customWidth="1"/>
+    <col min="11021" max="11021" width="7.5" style="4" customWidth="1"/>
+    <col min="11022" max="11261" width="9" style="4"/>
+    <col min="11262" max="11262" width="3.6640625" style="4" customWidth="1"/>
+    <col min="11263" max="11263" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11264" max="11264" width="4.33203125" style="4" customWidth="1"/>
+    <col min="11265" max="11265" width="6.83203125" style="4" customWidth="1"/>
+    <col min="11266" max="11266" width="4.33203125" style="4" customWidth="1"/>
+    <col min="11267" max="11267" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="4.1640625" style="4" customWidth="1"/>
+    <col min="11269" max="11269" width="7.1640625" style="4" customWidth="1"/>
+    <col min="11270" max="11270" width="4.6640625" style="4" customWidth="1"/>
+    <col min="11271" max="11271" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="4.1640625" style="4" customWidth="1"/>
+    <col min="11273" max="11274" width="7.5" style="4" customWidth="1"/>
+    <col min="11275" max="11275" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="4.1640625" style="4" customWidth="1"/>
+    <col min="11277" max="11277" width="7.5" style="4" customWidth="1"/>
+    <col min="11278" max="11517" width="9" style="4"/>
+    <col min="11518" max="11518" width="3.6640625" style="4" customWidth="1"/>
+    <col min="11519" max="11519" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11520" max="11520" width="4.33203125" style="4" customWidth="1"/>
+    <col min="11521" max="11521" width="6.83203125" style="4" customWidth="1"/>
+    <col min="11522" max="11522" width="4.33203125" style="4" customWidth="1"/>
+    <col min="11523" max="11523" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="4.1640625" style="4" customWidth="1"/>
+    <col min="11525" max="11525" width="7.1640625" style="4" customWidth="1"/>
+    <col min="11526" max="11526" width="4.6640625" style="4" customWidth="1"/>
+    <col min="11527" max="11527" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="4.1640625" style="4" customWidth="1"/>
+    <col min="11529" max="11530" width="7.5" style="4" customWidth="1"/>
+    <col min="11531" max="11531" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="4.1640625" style="4" customWidth="1"/>
+    <col min="11533" max="11533" width="7.5" style="4" customWidth="1"/>
+    <col min="11534" max="11773" width="9" style="4"/>
+    <col min="11774" max="11774" width="3.6640625" style="4" customWidth="1"/>
+    <col min="11775" max="11775" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11776" max="11776" width="4.33203125" style="4" customWidth="1"/>
+    <col min="11777" max="11777" width="6.83203125" style="4" customWidth="1"/>
+    <col min="11778" max="11778" width="4.33203125" style="4" customWidth="1"/>
+    <col min="11779" max="11779" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="4.1640625" style="4" customWidth="1"/>
+    <col min="11781" max="11781" width="7.1640625" style="4" customWidth="1"/>
+    <col min="11782" max="11782" width="4.6640625" style="4" customWidth="1"/>
+    <col min="11783" max="11783" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="4.1640625" style="4" customWidth="1"/>
+    <col min="11785" max="11786" width="7.5" style="4" customWidth="1"/>
+    <col min="11787" max="11787" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="4.1640625" style="4" customWidth="1"/>
+    <col min="11789" max="11789" width="7.5" style="4" customWidth="1"/>
+    <col min="11790" max="12029" width="9" style="4"/>
+    <col min="12030" max="12030" width="3.6640625" style="4" customWidth="1"/>
+    <col min="12031" max="12031" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12032" max="12032" width="4.33203125" style="4" customWidth="1"/>
+    <col min="12033" max="12033" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12034" max="12034" width="4.33203125" style="4" customWidth="1"/>
+    <col min="12035" max="12035" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="4.1640625" style="4" customWidth="1"/>
+    <col min="12037" max="12037" width="7.1640625" style="4" customWidth="1"/>
+    <col min="12038" max="12038" width="4.6640625" style="4" customWidth="1"/>
+    <col min="12039" max="12039" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="4.1640625" style="4" customWidth="1"/>
+    <col min="12041" max="12042" width="7.5" style="4" customWidth="1"/>
+    <col min="12043" max="12043" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="4.1640625" style="4" customWidth="1"/>
+    <col min="12045" max="12045" width="7.5" style="4" customWidth="1"/>
+    <col min="12046" max="12285" width="9" style="4"/>
+    <col min="12286" max="12286" width="3.6640625" style="4" customWidth="1"/>
+    <col min="12287" max="12287" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12288" max="12288" width="4.33203125" style="4" customWidth="1"/>
+    <col min="12289" max="12289" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12290" max="12290" width="4.33203125" style="4" customWidth="1"/>
+    <col min="12291" max="12291" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="4.1640625" style="4" customWidth="1"/>
+    <col min="12293" max="12293" width="7.1640625" style="4" customWidth="1"/>
+    <col min="12294" max="12294" width="4.6640625" style="4" customWidth="1"/>
+    <col min="12295" max="12295" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="4.1640625" style="4" customWidth="1"/>
+    <col min="12297" max="12298" width="7.5" style="4" customWidth="1"/>
+    <col min="12299" max="12299" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="4.1640625" style="4" customWidth="1"/>
+    <col min="12301" max="12301" width="7.5" style="4" customWidth="1"/>
+    <col min="12302" max="12541" width="9" style="4"/>
+    <col min="12542" max="12542" width="3.6640625" style="4" customWidth="1"/>
+    <col min="12543" max="12543" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12544" max="12544" width="4.33203125" style="4" customWidth="1"/>
+    <col min="12545" max="12545" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12546" max="12546" width="4.33203125" style="4" customWidth="1"/>
+    <col min="12547" max="12547" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="4.1640625" style="4" customWidth="1"/>
+    <col min="12549" max="12549" width="7.1640625" style="4" customWidth="1"/>
+    <col min="12550" max="12550" width="4.6640625" style="4" customWidth="1"/>
+    <col min="12551" max="12551" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="4.1640625" style="4" customWidth="1"/>
+    <col min="12553" max="12554" width="7.5" style="4" customWidth="1"/>
+    <col min="12555" max="12555" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="4.1640625" style="4" customWidth="1"/>
+    <col min="12557" max="12557" width="7.5" style="4" customWidth="1"/>
+    <col min="12558" max="12797" width="9" style="4"/>
+    <col min="12798" max="12798" width="3.6640625" style="4" customWidth="1"/>
+    <col min="12799" max="12799" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12800" max="12800" width="4.33203125" style="4" customWidth="1"/>
+    <col min="12801" max="12801" width="6.83203125" style="4" customWidth="1"/>
+    <col min="12802" max="12802" width="4.33203125" style="4" customWidth="1"/>
+    <col min="12803" max="12803" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="4.1640625" style="4" customWidth="1"/>
+    <col min="12805" max="12805" width="7.1640625" style="4" customWidth="1"/>
+    <col min="12806" max="12806" width="4.6640625" style="4" customWidth="1"/>
+    <col min="12807" max="12807" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="4.1640625" style="4" customWidth="1"/>
+    <col min="12809" max="12810" width="7.5" style="4" customWidth="1"/>
+    <col min="12811" max="12811" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="4.1640625" style="4" customWidth="1"/>
+    <col min="12813" max="12813" width="7.5" style="4" customWidth="1"/>
+    <col min="12814" max="13053" width="9" style="4"/>
+    <col min="13054" max="13054" width="3.6640625" style="4" customWidth="1"/>
+    <col min="13055" max="13055" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13056" max="13056" width="4.33203125" style="4" customWidth="1"/>
+    <col min="13057" max="13057" width="6.83203125" style="4" customWidth="1"/>
+    <col min="13058" max="13058" width="4.33203125" style="4" customWidth="1"/>
+    <col min="13059" max="13059" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="4.1640625" style="4" customWidth="1"/>
+    <col min="13061" max="13061" width="7.1640625" style="4" customWidth="1"/>
+    <col min="13062" max="13062" width="4.6640625" style="4" customWidth="1"/>
+    <col min="13063" max="13063" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="4.1640625" style="4" customWidth="1"/>
+    <col min="13065" max="13066" width="7.5" style="4" customWidth="1"/>
+    <col min="13067" max="13067" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="4.1640625" style="4" customWidth="1"/>
+    <col min="13069" max="13069" width="7.5" style="4" customWidth="1"/>
+    <col min="13070" max="13309" width="9" style="4"/>
+    <col min="13310" max="13310" width="3.6640625" style="4" customWidth="1"/>
+    <col min="13311" max="13311" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13312" max="13312" width="4.33203125" style="4" customWidth="1"/>
+    <col min="13313" max="13313" width="6.83203125" style="4" customWidth="1"/>
+    <col min="13314" max="13314" width="4.33203125" style="4" customWidth="1"/>
+    <col min="13315" max="13315" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="4.1640625" style="4" customWidth="1"/>
+    <col min="13317" max="13317" width="7.1640625" style="4" customWidth="1"/>
+    <col min="13318" max="13318" width="4.6640625" style="4" customWidth="1"/>
+    <col min="13319" max="13319" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="4.1640625" style="4" customWidth="1"/>
+    <col min="13321" max="13322" width="7.5" style="4" customWidth="1"/>
+    <col min="13323" max="13323" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="4.1640625" style="4" customWidth="1"/>
+    <col min="13325" max="13325" width="7.5" style="4" customWidth="1"/>
+    <col min="13326" max="13565" width="9" style="4"/>
+    <col min="13566" max="13566" width="3.6640625" style="4" customWidth="1"/>
+    <col min="13567" max="13567" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13568" max="13568" width="4.33203125" style="4" customWidth="1"/>
+    <col min="13569" max="13569" width="6.83203125" style="4" customWidth="1"/>
+    <col min="13570" max="13570" width="4.33203125" style="4" customWidth="1"/>
+    <col min="13571" max="13571" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="4.1640625" style="4" customWidth="1"/>
+    <col min="13573" max="13573" width="7.1640625" style="4" customWidth="1"/>
+    <col min="13574" max="13574" width="4.6640625" style="4" customWidth="1"/>
+    <col min="13575" max="13575" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="4.1640625" style="4" customWidth="1"/>
+    <col min="13577" max="13578" width="7.5" style="4" customWidth="1"/>
+    <col min="13579" max="13579" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="4.1640625" style="4" customWidth="1"/>
+    <col min="13581" max="13581" width="7.5" style="4" customWidth="1"/>
+    <col min="13582" max="13821" width="9" style="4"/>
+    <col min="13822" max="13822" width="3.6640625" style="4" customWidth="1"/>
+    <col min="13823" max="13823" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13824" max="13824" width="4.33203125" style="4" customWidth="1"/>
+    <col min="13825" max="13825" width="6.83203125" style="4" customWidth="1"/>
+    <col min="13826" max="13826" width="4.33203125" style="4" customWidth="1"/>
+    <col min="13827" max="13827" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="4.1640625" style="4" customWidth="1"/>
+    <col min="13829" max="13829" width="7.1640625" style="4" customWidth="1"/>
+    <col min="13830" max="13830" width="4.6640625" style="4" customWidth="1"/>
+    <col min="13831" max="13831" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="4.1640625" style="4" customWidth="1"/>
+    <col min="13833" max="13834" width="7.5" style="4" customWidth="1"/>
+    <col min="13835" max="13835" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="4.1640625" style="4" customWidth="1"/>
+    <col min="13837" max="13837" width="7.5" style="4" customWidth="1"/>
+    <col min="13838" max="14077" width="9" style="4"/>
+    <col min="14078" max="14078" width="3.6640625" style="4" customWidth="1"/>
+    <col min="14079" max="14079" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14080" max="14080" width="4.33203125" style="4" customWidth="1"/>
+    <col min="14081" max="14081" width="6.83203125" style="4" customWidth="1"/>
+    <col min="14082" max="14082" width="4.33203125" style="4" customWidth="1"/>
+    <col min="14083" max="14083" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="4.1640625" style="4" customWidth="1"/>
+    <col min="14085" max="14085" width="7.1640625" style="4" customWidth="1"/>
+    <col min="14086" max="14086" width="4.6640625" style="4" customWidth="1"/>
+    <col min="14087" max="14087" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="4.1640625" style="4" customWidth="1"/>
+    <col min="14089" max="14090" width="7.5" style="4" customWidth="1"/>
+    <col min="14091" max="14091" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="4.1640625" style="4" customWidth="1"/>
+    <col min="14093" max="14093" width="7.5" style="4" customWidth="1"/>
+    <col min="14094" max="14333" width="9" style="4"/>
+    <col min="14334" max="14334" width="3.6640625" style="4" customWidth="1"/>
+    <col min="14335" max="14335" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14336" max="14336" width="4.33203125" style="4" customWidth="1"/>
+    <col min="14337" max="14337" width="6.83203125" style="4" customWidth="1"/>
+    <col min="14338" max="14338" width="4.33203125" style="4" customWidth="1"/>
+    <col min="14339" max="14339" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="4.1640625" style="4" customWidth="1"/>
+    <col min="14341" max="14341" width="7.1640625" style="4" customWidth="1"/>
+    <col min="14342" max="14342" width="4.6640625" style="4" customWidth="1"/>
+    <col min="14343" max="14343" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="4.1640625" style="4" customWidth="1"/>
+    <col min="14345" max="14346" width="7.5" style="4" customWidth="1"/>
+    <col min="14347" max="14347" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="4.1640625" style="4" customWidth="1"/>
+    <col min="14349" max="14349" width="7.5" style="4" customWidth="1"/>
+    <col min="14350" max="14589" width="9" style="4"/>
+    <col min="14590" max="14590" width="3.6640625" style="4" customWidth="1"/>
+    <col min="14591" max="14591" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14592" max="14592" width="4.33203125" style="4" customWidth="1"/>
+    <col min="14593" max="14593" width="6.83203125" style="4" customWidth="1"/>
+    <col min="14594" max="14594" width="4.33203125" style="4" customWidth="1"/>
+    <col min="14595" max="14595" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="4.1640625" style="4" customWidth="1"/>
+    <col min="14597" max="14597" width="7.1640625" style="4" customWidth="1"/>
+    <col min="14598" max="14598" width="4.6640625" style="4" customWidth="1"/>
+    <col min="14599" max="14599" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="4.1640625" style="4" customWidth="1"/>
+    <col min="14601" max="14602" width="7.5" style="4" customWidth="1"/>
+    <col min="14603" max="14603" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="4.1640625" style="4" customWidth="1"/>
+    <col min="14605" max="14605" width="7.5" style="4" customWidth="1"/>
+    <col min="14606" max="14845" width="9" style="4"/>
+    <col min="14846" max="14846" width="3.6640625" style="4" customWidth="1"/>
+    <col min="14847" max="14847" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14848" max="14848" width="4.33203125" style="4" customWidth="1"/>
+    <col min="14849" max="14849" width="6.83203125" style="4" customWidth="1"/>
+    <col min="14850" max="14850" width="4.33203125" style="4" customWidth="1"/>
+    <col min="14851" max="14851" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="4.1640625" style="4" customWidth="1"/>
+    <col min="14853" max="14853" width="7.1640625" style="4" customWidth="1"/>
+    <col min="14854" max="14854" width="4.6640625" style="4" customWidth="1"/>
+    <col min="14855" max="14855" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="4.1640625" style="4" customWidth="1"/>
+    <col min="14857" max="14858" width="7.5" style="4" customWidth="1"/>
+    <col min="14859" max="14859" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="4.1640625" style="4" customWidth="1"/>
+    <col min="14861" max="14861" width="7.5" style="4" customWidth="1"/>
+    <col min="14862" max="15101" width="9" style="4"/>
+    <col min="15102" max="15102" width="3.6640625" style="4" customWidth="1"/>
+    <col min="15103" max="15103" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15104" max="15104" width="4.33203125" style="4" customWidth="1"/>
+    <col min="15105" max="15105" width="6.83203125" style="4" customWidth="1"/>
+    <col min="15106" max="15106" width="4.33203125" style="4" customWidth="1"/>
+    <col min="15107" max="15107" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="4.1640625" style="4" customWidth="1"/>
+    <col min="15109" max="15109" width="7.1640625" style="4" customWidth="1"/>
+    <col min="15110" max="15110" width="4.6640625" style="4" customWidth="1"/>
+    <col min="15111" max="15111" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="4.1640625" style="4" customWidth="1"/>
+    <col min="15113" max="15114" width="7.5" style="4" customWidth="1"/>
+    <col min="15115" max="15115" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="4.1640625" style="4" customWidth="1"/>
+    <col min="15117" max="15117" width="7.5" style="4" customWidth="1"/>
+    <col min="15118" max="15357" width="9" style="4"/>
+    <col min="15358" max="15358" width="3.6640625" style="4" customWidth="1"/>
+    <col min="15359" max="15359" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15360" max="15360" width="4.33203125" style="4" customWidth="1"/>
+    <col min="15361" max="15361" width="6.83203125" style="4" customWidth="1"/>
+    <col min="15362" max="15362" width="4.33203125" style="4" customWidth="1"/>
+    <col min="15363" max="15363" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="4.1640625" style="4" customWidth="1"/>
+    <col min="15365" max="15365" width="7.1640625" style="4" customWidth="1"/>
+    <col min="15366" max="15366" width="4.6640625" style="4" customWidth="1"/>
+    <col min="15367" max="15367" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="4.1640625" style="4" customWidth="1"/>
+    <col min="15369" max="15370" width="7.5" style="4" customWidth="1"/>
+    <col min="15371" max="15371" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="4.1640625" style="4" customWidth="1"/>
+    <col min="15373" max="15373" width="7.5" style="4" customWidth="1"/>
+    <col min="15374" max="15613" width="9" style="4"/>
+    <col min="15614" max="15614" width="3.6640625" style="4" customWidth="1"/>
+    <col min="15615" max="15615" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15616" max="15616" width="4.33203125" style="4" customWidth="1"/>
+    <col min="15617" max="15617" width="6.83203125" style="4" customWidth="1"/>
+    <col min="15618" max="15618" width="4.33203125" style="4" customWidth="1"/>
+    <col min="15619" max="15619" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="4.1640625" style="4" customWidth="1"/>
+    <col min="15621" max="15621" width="7.1640625" style="4" customWidth="1"/>
+    <col min="15622" max="15622" width="4.6640625" style="4" customWidth="1"/>
+    <col min="15623" max="15623" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="4.1640625" style="4" customWidth="1"/>
+    <col min="15625" max="15626" width="7.5" style="4" customWidth="1"/>
+    <col min="15627" max="15627" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="4.1640625" style="4" customWidth="1"/>
+    <col min="15629" max="15629" width="7.5" style="4" customWidth="1"/>
+    <col min="15630" max="15869" width="9" style="4"/>
+    <col min="15870" max="15870" width="3.6640625" style="4" customWidth="1"/>
+    <col min="15871" max="15871" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15872" max="15872" width="4.33203125" style="4" customWidth="1"/>
+    <col min="15873" max="15873" width="6.83203125" style="4" customWidth="1"/>
+    <col min="15874" max="15874" width="4.33203125" style="4" customWidth="1"/>
+    <col min="15875" max="15875" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="4.1640625" style="4" customWidth="1"/>
+    <col min="15877" max="15877" width="7.1640625" style="4" customWidth="1"/>
+    <col min="15878" max="15878" width="4.6640625" style="4" customWidth="1"/>
+    <col min="15879" max="15879" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="4.1640625" style="4" customWidth="1"/>
+    <col min="15881" max="15882" width="7.5" style="4" customWidth="1"/>
+    <col min="15883" max="15883" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="4.1640625" style="4" customWidth="1"/>
+    <col min="15885" max="15885" width="7.5" style="4" customWidth="1"/>
+    <col min="15886" max="16125" width="9" style="4"/>
+    <col min="16126" max="16126" width="3.6640625" style="4" customWidth="1"/>
+    <col min="16127" max="16127" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="16128" max="16128" width="4.33203125" style="4" customWidth="1"/>
+    <col min="16129" max="16129" width="6.83203125" style="4" customWidth="1"/>
+    <col min="16130" max="16130" width="4.33203125" style="4" customWidth="1"/>
+    <col min="16131" max="16131" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="4.1640625" style="4" customWidth="1"/>
+    <col min="16133" max="16133" width="7.1640625" style="4" customWidth="1"/>
+    <col min="16134" max="16134" width="4.6640625" style="4" customWidth="1"/>
+    <col min="16135" max="16135" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="4.1640625" style="4" customWidth="1"/>
+    <col min="16137" max="16138" width="7.5" style="4" customWidth="1"/>
+    <col min="16139" max="16139" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="4.1640625" style="4" customWidth="1"/>
+    <col min="16141" max="16141" width="7.5" style="4" customWidth="1"/>
+    <col min="16142" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="14">
+        <f>'reduced HuangZhou element'!B4</f>
+        <v>3.01498</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="14">
+        <f>'reduced HuangZhou element'!F4</f>
+        <v>0.2078788</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="14">
+        <f>'reduced HuangZhou element'!I4</f>
+        <v>0.8550295</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="4" t="str">
+        <f>A1&amp;B1&amp;TEXT(C1,"0.0000E+00")&amp;D1&amp;TEXT(E1,"0.00")&amp;F1&amp;TEXT(G1,"0.0000E+00")&amp;H1&amp;TEXT(I1,"0.00")&amp;J1&amp;TEXT(K1,"0.0000E+00")&amp;L1&amp;TEXT(M1,"0.00")&amp;N1</f>
+        <v>$2^{-1}$ &amp; 3.0150E+00 &amp; $-$ &amp; 2.0788E-01 &amp; $-$ &amp; 8.5503E-01 &amp; $-$ \\</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="14">
+        <f>'reduced HuangZhou element'!B5</f>
+        <v>1.054473</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="17">
+        <f>LOG(C1/C2,2)</f>
+        <v>1.5156262768786546</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="14">
+        <f>'reduced HuangZhou element'!F5</f>
+        <v>7.8315170000000003E-2</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="17">
+        <f>LOG(G1/G2,2)</f>
+        <v>1.408378939844775</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="14">
+        <f>'reduced HuangZhou element'!I5</f>
+        <v>0.3335574</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="17">
+        <f>LOG(K1/K2,2)</f>
+        <v>1.3580391483613847</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="4" t="str">
+        <f>A2&amp;B2&amp;TEXT(C2,"0.0000E+00")&amp;D2&amp;TEXT(E2,"0.00")&amp;F2&amp;TEXT(G2,"0.0000E+00")&amp;H2&amp;TEXT(I2,"0.00")&amp;J2&amp;TEXT(K2,"0.0000E+00")&amp;L2&amp;TEXT(M2,"0.00")&amp;N2</f>
+        <v>$2^{-2}$ &amp; 1.0545E+00 &amp; 1.52 &amp; 7.8315E-02 &amp; 1.41 &amp; 3.3356E-01 &amp; 1.36 \\</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="14">
+        <f>'reduced HuangZhou element'!B6</f>
+        <v>0.2611599</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="17">
+        <f>LOG(C2/C3,2)</f>
+        <v>2.0135168558289713</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="14">
+        <f>'reduced HuangZhou element'!F6</f>
+        <v>2.030144E-2</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="17">
+        <f>LOG(G2/G3,2)</f>
+        <v>1.9477097283523088</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="14">
+        <f>'reduced HuangZhou element'!I6</f>
+        <v>8.4282419999999997E-2</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="17">
+        <f>LOG(K2/K3,2)</f>
+        <v>1.9846314040297417</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="4" t="str">
+        <f>A3&amp;B3&amp;TEXT(C3,"0.0000E+00")&amp;D3&amp;TEXT(E3,"0.00")&amp;F3&amp;TEXT(G3,"0.0000E+00")&amp;H3&amp;TEXT(I3,"0.00")&amp;J3&amp;TEXT(K3,"0.0000E+00")&amp;L3&amp;TEXT(M3,"0.00")&amp;N3</f>
+        <v>$2^{-3}$ &amp; 2.6116E-01 &amp; 2.01 &amp; 2.0301E-02 &amp; 1.95 &amp; 8.4282E-02 &amp; 1.98 \\</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="14">
+        <f>'reduced HuangZhou element'!B7</f>
+        <v>6.4955079999999998E-2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="17">
+        <f>LOG(C3/C4,2)</f>
+        <v>2.0074191288182903</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="14">
+        <f>'reduced HuangZhou element'!F7</f>
+        <v>5.1083860000000004E-3</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="17">
+        <f>LOG(G3/G4,2)</f>
+        <v>1.9906426155059405</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="14">
+        <f>'reduced HuangZhou element'!I7</f>
+        <v>2.1035189999999999E-2</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="17">
+        <f>LOG(K3/K4,2)</f>
+        <v>2.0024268895491248</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="4" t="str">
+        <f>A4&amp;B4&amp;TEXT(C4,"0.0000E+00")&amp;D4&amp;TEXT(E4,"0.00")&amp;F4&amp;TEXT(G4,"0.0000E+00")&amp;H4&amp;TEXT(I4,"0.00")&amp;J4&amp;TEXT(K4,"0.0000E+00")&amp;L4&amp;TEXT(M4,"0.00")&amp;N4</f>
+        <v>$2^{-4}$ &amp; 6.4955E-02 &amp; 2.01 &amp; 5.1084E-03 &amp; 1.99 &amp; 2.1035E-02 &amp; 2.00 \\</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="14">
+        <f>'reduced HuangZhou element'!B8</f>
+        <v>1.6213129999999999E-2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="17">
+        <f t="shared" ref="E5:E7" si="0">LOG(C4/C5,2)</f>
+        <v>2.0022797252885347</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="14">
+        <f>'reduced HuangZhou element'!F8</f>
+        <v>1.2789329999999999E-3</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="17">
+        <f t="shared" ref="I5:I7" si="1">LOG(G4/G5,2)</f>
+        <v>1.9979268549924651</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="14">
+        <f>'reduced HuangZhou element'!I8</f>
+        <v>5.2618700000000001E-3</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="17">
+        <f t="shared" ref="M5:M7" si="2">LOG(K4/K5,2)</f>
+        <v>1.9991573385169423</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="4" t="str">
+        <f>A5&amp;B5&amp;TEXT(C5,"0.0000E+00")&amp;D5&amp;TEXT(E5,"0.00")&amp;F5&amp;TEXT(G5,"0.0000E+00")&amp;H5&amp;TEXT(I5,"0.00")&amp;J5&amp;TEXT(K5,"0.0000E+00")&amp;L5&amp;TEXT(M5,"0.00")&amp;N5</f>
+        <v>$2^{-5}$ &amp; 1.6213E-02 &amp; 2.00 &amp; 1.2789E-03 &amp; 2.00 &amp; 5.2619E-03 &amp; 2.00 \\</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="14">
+        <f>'reduced HuangZhou element'!B9</f>
+        <v>4.0520809999999999E-3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" si="0"/>
+        <v>2.0004277163150856</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="14">
+        <f>'reduced HuangZhou element'!F9</f>
+        <v>3.1984409999999999E-4</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="17">
+        <f t="shared" si="1"/>
+        <v>1.9994999111620078</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="14">
+        <f>'reduced HuangZhou element'!I9</f>
+        <v>1.3165589999999999E-3</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="17">
+        <f t="shared" si="2"/>
+        <v>1.9988034301878037</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="4" t="str">
+        <f>A6&amp;B6&amp;TEXT(C6,"0.0000E+00")&amp;D6&amp;TEXT(E6,"0.00")&amp;F6&amp;TEXT(G6,"0.0000E+00")&amp;H6&amp;TEXT(I6,"0.00")&amp;J6&amp;TEXT(K6,"0.0000E+00")&amp;L6&amp;TEXT(M6,"0.00")&amp;N6</f>
+        <v>$2^{-6}$ &amp; 4.0521E-03 &amp; 2.00 &amp; 3.1984E-04 &amp; 2.00 &amp; 1.3166E-03 &amp; 2.00 \\</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="14">
+        <f>'reduced HuangZhou element'!B10</f>
+        <v>1.013026E-3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="17">
+        <f t="shared" si="0"/>
+        <v>1.9999918111479587</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="14">
+        <f>'reduced HuangZhou element'!F10</f>
+        <v>7.9967909999999998E-5</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="17">
+        <f t="shared" si="1"/>
+        <v>1.9998757828861593</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="14">
+        <f>'reduced HuangZhou element'!I10</f>
+        <v>3.293255E-4</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="17">
+        <f t="shared" si="2"/>
+        <v>1.9991860447883816</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="4" t="str">
+        <f>A7&amp;B7&amp;TEXT(C7,"0.0000E+00")&amp;D7&amp;TEXT(E7,"0.00")&amp;F7&amp;TEXT(G7,"0.0000E+00")&amp;H7&amp;TEXT(I7,"0.00")&amp;J7&amp;TEXT(K7,"0.0000E+00")&amp;L7&amp;TEXT(M7,"0.00")&amp;N7</f>
+        <v>$2^{-7}$ &amp; 1.0130E-03 &amp; 2.00 &amp; 7.9968E-05 &amp; 2.00 &amp; 3.2933E-04 &amp; 2.00 \\</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="C8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="C9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="C10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="14">
+        <f>'reduced HuangZhou element'!B14</f>
+        <v>3.055393</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="14">
+        <f>'reduced HuangZhou element'!F14</f>
+        <v>0.21197260000000001</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="14">
+        <f>'reduced HuangZhou element'!I14</f>
+        <v>0.85721159999999996</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="4" t="str">
+        <f>A11&amp;B11&amp;TEXT(C11,"0.0000E+00")&amp;D11&amp;TEXT(E11,"0.00")&amp;F11&amp;TEXT(G11,"0.0000E+00")&amp;H11&amp;TEXT(I11,"0.00")&amp;J11&amp;TEXT(K11,"0.0000E+00")&amp;L11&amp;TEXT(M11,"0.00")&amp;N11</f>
+        <v>$2^{-1}$ &amp; 3.0554E+00 &amp; $-$ &amp; 2.1197E-01 &amp; $-$ &amp; 8.5721E-01 &amp; $-$ \\</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="14">
+        <f>'reduced HuangZhou element'!B15</f>
+        <v>1.100017</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="17">
+        <f>LOG(C11/C12,2)</f>
+        <v>1.4738321388907785</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="14">
+        <f>'reduced HuangZhou element'!F15</f>
+        <v>7.9080520000000001E-2</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="17">
+        <f>LOG(G11/G12,2)</f>
+        <v>1.4224835284465369</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="14">
+        <f>'reduced HuangZhou element'!I15</f>
+        <v>0.3351015</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="17">
+        <f>LOG(K11/K12,2)</f>
+        <v>1.3550532286249655</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="4" t="str">
+        <f>A12&amp;B12&amp;TEXT(C12,"0.0000E+00")&amp;D12&amp;TEXT(E12,"0.00")&amp;F12&amp;TEXT(G12,"0.0000E+00")&amp;H12&amp;TEXT(I12,"0.00")&amp;J12&amp;TEXT(K12,"0.0000E+00")&amp;L12&amp;TEXT(M12,"0.00")&amp;N12</f>
+        <v>$2^{-2}$ &amp; 1.1000E+00 &amp; 1.47 &amp; 7.9081E-02 &amp; 1.42 &amp; 3.3510E-01 &amp; 1.36 \\</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="14">
+        <f>'reduced HuangZhou element'!B16</f>
+        <v>0.27583869999999999</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="17">
+        <f>LOG(C12/C13,2)</f>
+        <v>1.99562903438179</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="14">
+        <f>'reduced HuangZhou element'!F16</f>
+        <v>2.042948E-2</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="17">
+        <f>LOG(G12/G13,2)</f>
+        <v>1.9526698746245661</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="14">
+        <f>'reduced HuangZhou element'!I16</f>
+        <v>8.355369E-2</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="17">
+        <f>LOG(K12/K13,2)</f>
+        <v>2.003822695564089</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="4" t="str">
+        <f>A13&amp;B13&amp;TEXT(C13,"0.0000E+00")&amp;D13&amp;TEXT(E13,"0.00")&amp;F13&amp;TEXT(G13,"0.0000E+00")&amp;H13&amp;TEXT(I13,"0.00")&amp;J13&amp;TEXT(K13,"0.0000E+00")&amp;L13&amp;TEXT(M13,"0.00")&amp;N13</f>
+        <v>$2^{-3}$ &amp; 2.7584E-01 &amp; 2.00 &amp; 2.0429E-02 &amp; 1.95 &amp; 8.3554E-02 &amp; 2.00 \\</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="14">
+        <f>'reduced HuangZhou element'!B17</f>
+        <v>6.9016170000000002E-2</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="17">
+        <f>LOG(C13/C14,2)</f>
+        <v>1.9988185604387507</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="14">
+        <f>'reduced HuangZhou element'!F17</f>
+        <v>5.1319269999999997E-3</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="17">
+        <f>LOG(G13/G14,2)</f>
+        <v>1.9930799292088517</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="14">
+        <f>'reduced HuangZhou element'!I17</f>
+        <v>2.0735300000000002E-2</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="17">
+        <f>LOG(K13/K14,2)</f>
+        <v>2.0106146233284283</v>
+      </c>
+      <c r="N14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="4" t="str">
+        <f>A14&amp;B14&amp;TEXT(C14,"0.0000E+00")&amp;D14&amp;TEXT(E14,"0.00")&amp;F14&amp;TEXT(G14,"0.0000E+00")&amp;H14&amp;TEXT(I14,"0.00")&amp;J14&amp;TEXT(K14,"0.0000E+00")&amp;L14&amp;TEXT(M14,"0.00")&amp;N14</f>
+        <v>$2^{-4}$ &amp; 6.9016E-02 &amp; 2.00 &amp; 5.1319E-03 &amp; 1.99 &amp; 2.0735E-02 &amp; 2.01 \\</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="14">
+        <f>'reduced HuangZhou element'!B18</f>
+        <v>1.7262690000000001E-2</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="17">
+        <f t="shared" ref="E15:E27" si="3">LOG(C14/C15,2)</f>
+        <v>1.9992771212844609</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="14">
+        <f>'reduced HuangZhou element'!F18</f>
+        <v>1.284161E-3</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="17">
+        <f t="shared" ref="I15:I27" si="4">LOG(G14/G15,2)</f>
+        <v>1.9986745589066797</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="14">
+        <f>'reduced HuangZhou element'!I18</f>
+        <v>5.1762989999999997E-3</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="17">
+        <f t="shared" ref="M15:M27" si="5">LOG(K14/K15,2)</f>
+        <v>2.0020960607783564</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="4" t="str">
+        <f>A15&amp;B15&amp;TEXT(C15,"0.0000E+00")&amp;D15&amp;TEXT(E15,"0.00")&amp;F15&amp;TEXT(G15,"0.0000E+00")&amp;H15&amp;TEXT(I15,"0.00")&amp;J15&amp;TEXT(K15,"0.0000E+00")&amp;L15&amp;TEXT(M15,"0.00")&amp;N15</f>
+        <v>$2^{-5}$ &amp; 1.7263E-02 &amp; 2.00 &amp; 1.2842E-03 &amp; 2.00 &amp; 5.1763E-03 &amp; 2.00 \\</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="14">
+        <f>'reduced HuangZhou element'!B19</f>
+        <v>4.3169649999999999E-3</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="17">
+        <f t="shared" si="3"/>
+        <v>1.999567992203013</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="14">
+        <f>'reduced HuangZhou element'!F19</f>
+        <v>3.2110759999999999E-4</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="17">
+        <f t="shared" si="4"/>
+        <v>1.999697373396609</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="14">
+        <f>'reduced HuangZhou element'!I19</f>
+        <v>1.294014E-3</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="17">
+        <f t="shared" si="5"/>
+        <v>2.0000677285303681</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="4" t="str">
+        <f>A16&amp;B16&amp;TEXT(C16,"0.0000E+00")&amp;D16&amp;TEXT(E16,"0.00")&amp;F16&amp;TEXT(G16,"0.0000E+00")&amp;H16&amp;TEXT(I16,"0.00")&amp;J16&amp;TEXT(K16,"0.0000E+00")&amp;L16&amp;TEXT(M16,"0.00")&amp;N16</f>
+        <v>$2^{-6}$ &amp; 4.3170E-03 &amp; 2.00 &amp; 3.2111E-04 &amp; 2.00 &amp; 1.2940E-03 &amp; 2.00 \\</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="14">
+        <f>'reduced HuangZhou element'!B20</f>
+        <v>1.0794170000000001E-3</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="17">
+        <f t="shared" si="3"/>
+        <v>1.9997650821717641</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="14">
+        <f>'reduced HuangZhou element'!F20</f>
+        <v>8.0281020000000001E-5</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="17">
+        <f t="shared" si="4"/>
+        <v>1.9999259593850025</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="14">
+        <f>'reduced HuangZhou element'!I20</f>
+        <v>3.2355110000000003E-4</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="17">
+        <f t="shared" si="5"/>
+        <v>1.9997877388273875</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="4" t="str">
+        <f>A17&amp;B17&amp;TEXT(C17,"0.0000E+00")&amp;D17&amp;TEXT(E17,"0.00")&amp;F17&amp;TEXT(G17,"0.0000E+00")&amp;H17&amp;TEXT(I17,"0.00")&amp;J17&amp;TEXT(K17,"0.0000E+00")&amp;L17&amp;TEXT(M17,"0.00")&amp;N17</f>
+        <v>$2^{-7}$ &amp; 1.0794E-03 &amp; 2.00 &amp; 8.0281E-05 &amp; 2.00 &amp; 3.2355E-04 &amp; 2.00 \\</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="C18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="C19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="C20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="14">
+        <f>'reduced HuangZhou element'!B24</f>
+        <v>3.0555940000000001</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="14">
+        <f>'reduced HuangZhou element'!F24</f>
+        <v>0.21198639999999999</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="14">
+        <f>'reduced HuangZhou element'!I24</f>
+        <v>0.85722240000000005</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="4" t="str">
+        <f>A21&amp;B21&amp;TEXT(C21,"0.0000E+00")&amp;D21&amp;TEXT(E21,"0.00")&amp;F21&amp;TEXT(G21,"0.0000E+00")&amp;H21&amp;TEXT(I21,"0.00")&amp;J21&amp;TEXT(K21,"0.0000E+00")&amp;L21&amp;TEXT(M21,"0.00")&amp;N21</f>
+        <v>$2^{-1}$ &amp; 3.0556E+00 &amp; $-$ &amp; 2.1199E-01 &amp; $-$ &amp; 8.5722E-01 &amp; $-$ \\</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="14">
+        <f>'reduced HuangZhou element'!B25</f>
+        <v>1.100225</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="17">
+        <f t="shared" si="3"/>
+        <v>1.4736542734082405</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="14">
+        <f>'reduced HuangZhou element'!F25</f>
+        <v>7.9083630000000002E-2</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="17">
+        <f t="shared" si="4"/>
+        <v>1.4225207130500843</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="14">
+        <f>'reduced HuangZhou element'!I25</f>
+        <v>0.33511279999999999</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" s="17">
+        <f t="shared" si="5"/>
+        <v>1.3550227565287947</v>
+      </c>
+      <c r="N22" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P22" s="4" t="str">
+        <f>A22&amp;B22&amp;TEXT(C22,"0.0000E+00")&amp;D22&amp;TEXT(E22,"0.00")&amp;F22&amp;TEXT(G22,"0.0000E+00")&amp;H22&amp;TEXT(I22,"0.00")&amp;J22&amp;TEXT(K22,"0.0000E+00")&amp;L22&amp;TEXT(M22,"0.00")&amp;N22</f>
+        <v>$2^{-2}$ &amp; 1.1002E+00 &amp; 1.47 &amp; 7.9084E-02 &amp; 1.42 &amp; 3.3511E-01 &amp; 1.36 \\</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="14">
+        <f>'reduced HuangZhou element'!B26</f>
+        <v>0.2759067</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="17">
+        <f t="shared" si="3"/>
+        <v>1.9955461942696335</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="14">
+        <f>'reduced HuangZhou element'!F26</f>
+        <v>2.0430259999999999E-2</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="17">
+        <f t="shared" si="4"/>
+        <v>1.9526715291655041</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="14">
+        <f>'reduced HuangZhou element'!I26</f>
+        <v>8.3553639999999998E-2</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" s="17">
+        <f t="shared" si="5"/>
+        <v>2.0038722073799042</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" s="4" t="str">
+        <f>A23&amp;B23&amp;TEXT(C23,"0.0000E+00")&amp;D23&amp;TEXT(E23,"0.00")&amp;F23&amp;TEXT(G23,"0.0000E+00")&amp;H23&amp;TEXT(I23,"0.00")&amp;J23&amp;TEXT(K23,"0.0000E+00")&amp;L23&amp;TEXT(M23,"0.00")&amp;N23</f>
+        <v>$2^{-3}$ &amp; 2.7591E-01 &amp; 2.00 &amp; 2.0430E-02 &amp; 1.95 &amp; 8.3554E-02 &amp; 2.00 \\</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="14">
+        <f>'reduced HuangZhou element'!B27</f>
+        <v>6.9034990000000004E-2</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="17">
+        <f t="shared" si="3"/>
+        <v>1.9987808165879852</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="14">
+        <f>'reduced HuangZhou element'!F27</f>
+        <v>5.1321090000000001E-3</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="17">
+        <f t="shared" si="4"/>
+        <v>1.993083847220634</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="14">
+        <f>'reduced HuangZhou element'!I27</f>
+        <v>2.0735E-2</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="17">
+        <f t="shared" si="5"/>
+        <v>2.010634633173753</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="4" t="str">
+        <f>A24&amp;B24&amp;TEXT(C24,"0.0000E+00")&amp;D24&amp;TEXT(E24,"0.00")&amp;F24&amp;TEXT(G24,"0.0000E+00")&amp;H24&amp;TEXT(I24,"0.00")&amp;J24&amp;TEXT(K24,"0.0000E+00")&amp;L24&amp;TEXT(M24,"0.00")&amp;N24</f>
+        <v>$2^{-4}$ &amp; 6.9035E-02 &amp; 2.00 &amp; 5.1321E-03 &amp; 1.99 &amp; 2.0735E-02 &amp; 2.01 \\</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="14">
+        <f>'reduced HuangZhou element'!B28</f>
+        <v>1.726755E-2</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="17">
+        <f t="shared" si="3"/>
+        <v>1.9992643680734912</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="14">
+        <f>'reduced HuangZhou element'!F28</f>
+        <v>1.2842050000000001E-3</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="17">
+        <f t="shared" si="4"/>
+        <v>1.9986762910105942</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="14">
+        <f>'reduced HuangZhou element'!I28</f>
+        <v>5.1761940000000003E-3</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" s="17">
+        <f t="shared" si="5"/>
+        <v>2.0021044526228864</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P25" s="4" t="str">
+        <f>A25&amp;B25&amp;TEXT(C25,"0.0000E+00")&amp;D25&amp;TEXT(E25,"0.00")&amp;F25&amp;TEXT(G25,"0.0000E+00")&amp;H25&amp;TEXT(I25,"0.00")&amp;J25&amp;TEXT(K25,"0.0000E+00")&amp;L25&amp;TEXT(M25,"0.00")&amp;N25</f>
+        <v>$2^{-5}$ &amp; 1.7268E-02 &amp; 2.00 &amp; 1.2842E-03 &amp; 2.00 &amp; 5.1762E-03 &amp; 2.00 \\</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="14">
+        <f>'reduced HuangZhou element'!B29</f>
+        <v>4.3181909999999999E-3</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="17">
+        <f t="shared" si="3"/>
+        <v>1.9995644387019569</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="14">
+        <f>'reduced HuangZhou element'!F29</f>
+        <v>3.211186E-4</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="17">
+        <f t="shared" si="4"/>
+        <v>1.9996973837642484</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" s="14">
+        <f>'reduced HuangZhou element'!I29</f>
+        <v>1.2939850000000001E-3</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" s="17">
+        <f t="shared" si="5"/>
+        <v>2.0000707959422588</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" s="4" t="str">
+        <f>A26&amp;B26&amp;TEXT(C26,"0.0000E+00")&amp;D26&amp;TEXT(E26,"0.00")&amp;F26&amp;TEXT(G26,"0.0000E+00")&amp;H26&amp;TEXT(I26,"0.00")&amp;J26&amp;TEXT(K26,"0.0000E+00")&amp;L26&amp;TEXT(M26,"0.00")&amp;N26</f>
+        <v>$2^{-6}$ &amp; 4.3182E-03 &amp; 2.00 &amp; 3.2112E-04 &amp; 2.00 &amp; 1.2940E-03 &amp; 2.00 \\</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="14">
+        <f>'reduced HuangZhou element'!B30</f>
+        <v>1.0797249999999999E-3</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="17">
+        <f t="shared" si="3"/>
+        <v>1.9997631446082282</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="14">
+        <f>'reduced HuangZhou element'!F30</f>
+        <v>8.0283750000000002E-5</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="17">
+        <f t="shared" si="4"/>
+        <v>1.9999263213201899</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="14">
+        <f>'reduced HuangZhou element'!I30</f>
+        <v>3.2354330000000002E-4</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="17">
+        <f t="shared" si="5"/>
+        <v>1.9997901865448768</v>
+      </c>
+      <c r="N27" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="4" t="str">
+        <f>A27&amp;B27&amp;TEXT(C27,"0.0000E+00")&amp;D27&amp;TEXT(E27,"0.00")&amp;F27&amp;TEXT(G27,"0.0000E+00")&amp;H27&amp;TEXT(I27,"0.00")&amp;J27&amp;TEXT(K27,"0.0000E+00")&amp;L27&amp;TEXT(M27,"0.00")&amp;N27</f>
+        <v>$2^{-7}$ &amp; 1.0797E-03 &amp; 2.00 &amp; 8.0284E-05 &amp; 2.00 &amp; 3.2354E-04 &amp; 2.00 \\</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="C28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="K28" s="14"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="C29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="K29" s="14"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="C30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="K30" s="14"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="14">
+        <f>'reduced HuangZhou element'!B34</f>
+        <v>3.0555940000000001</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="14">
+        <f>'reduced HuangZhou element'!F34</f>
+        <v>0.21198649999999999</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="14">
+        <f>'reduced HuangZhou element'!I34</f>
+        <v>0.85722240000000005</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P31" s="4" t="str">
+        <f>A31&amp;B31&amp;TEXT(C31,"0.0000E+00")&amp;D31&amp;TEXT(E31,"0.00")&amp;F31&amp;TEXT(G31,"0.0000E+00")&amp;H31&amp;TEXT(I31,"0.00")&amp;J31&amp;TEXT(K31,"0.0000E+00")&amp;L31&amp;TEXT(M31,"0.00")&amp;N31</f>
+        <v>$2^{-1}$ &amp; 3.0556E+00 &amp; $-$ &amp; 2.1199E-01 &amp; $-$ &amp; 8.5722E-01 &amp; $-$ \\</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="14">
+        <f>'reduced HuangZhou element'!B35</f>
+        <v>1.100225</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="17">
+        <f t="shared" ref="E32:E37" si="6">LOG(C31/C32,2)</f>
+        <v>1.4736542734082405</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="14">
+        <f>'reduced HuangZhou element'!F35</f>
+        <v>7.9083630000000002E-2</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="17">
+        <f t="shared" ref="I32:I37" si="7">LOG(G31/G32,2)</f>
+        <v>1.4225213936101113</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" s="14">
+        <f>'reduced HuangZhou element'!I35</f>
+        <v>0.33511279999999999</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" s="17">
+        <f t="shared" ref="M32:M37" si="8">LOG(K31/K32,2)</f>
+        <v>1.3550227565287947</v>
+      </c>
+      <c r="N32" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P32" s="4" t="str">
+        <f>A32&amp;B32&amp;TEXT(C32,"0.0000E+00")&amp;D32&amp;TEXT(E32,"0.00")&amp;F32&amp;TEXT(G32,"0.0000E+00")&amp;H32&amp;TEXT(I32,"0.00")&amp;J32&amp;TEXT(K32,"0.0000E+00")&amp;L32&amp;TEXT(M32,"0.00")&amp;N32</f>
+        <v>$2^{-2}$ &amp; 1.1002E+00 &amp; 1.47 &amp; 7.9084E-02 &amp; 1.42 &amp; 3.3511E-01 &amp; 1.36 \\</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="14">
+        <f>'reduced HuangZhou element'!B36</f>
+        <v>0.2759067</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="17">
+        <f t="shared" si="6"/>
+        <v>1.9955461942696335</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="14">
+        <f>'reduced HuangZhou element'!F36</f>
+        <v>2.0430259999999999E-2</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="17">
+        <f t="shared" si="7"/>
+        <v>1.9526715291655041</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="14">
+        <f>'reduced HuangZhou element'!I36</f>
+        <v>8.3553639999999998E-2</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" s="17">
+        <f t="shared" si="8"/>
+        <v>2.0038722073799042</v>
+      </c>
+      <c r="N33" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P33" s="4" t="str">
+        <f>A33&amp;B33&amp;TEXT(C33,"0.0000E+00")&amp;D33&amp;TEXT(E33,"0.00")&amp;F33&amp;TEXT(G33,"0.0000E+00")&amp;H33&amp;TEXT(I33,"0.00")&amp;J33&amp;TEXT(K33,"0.0000E+00")&amp;L33&amp;TEXT(M33,"0.00")&amp;N33</f>
+        <v>$2^{-3}$ &amp; 2.7591E-01 &amp; 2.00 &amp; 2.0430E-02 &amp; 1.95 &amp; 8.3554E-02 &amp; 2.00 \\</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="14">
+        <f>'reduced HuangZhou element'!B37</f>
+        <v>6.9035009999999994E-2</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="17">
+        <f t="shared" si="6"/>
+        <v>1.9987803986275186</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="14">
+        <f>'reduced HuangZhou element'!F37</f>
+        <v>5.1321090000000001E-3</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="17">
+        <f t="shared" si="7"/>
+        <v>1.993083847220634</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="14">
+        <f>'reduced HuangZhou element'!I37</f>
+        <v>2.0735E-2</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" s="17">
+        <f t="shared" si="8"/>
+        <v>2.010634633173753</v>
+      </c>
+      <c r="N34" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P34" s="4" t="str">
+        <f>A34&amp;B34&amp;TEXT(C34,"0.0000E+00")&amp;D34&amp;TEXT(E34,"0.00")&amp;F34&amp;TEXT(G34,"0.0000E+00")&amp;H34&amp;TEXT(I34,"0.00")&amp;J34&amp;TEXT(K34,"0.0000E+00")&amp;L34&amp;TEXT(M34,"0.00")&amp;N34</f>
+        <v>$2^{-4}$ &amp; 6.9035E-02 &amp; 2.00 &amp; 5.1321E-03 &amp; 1.99 &amp; 2.0735E-02 &amp; 2.01 \\</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="14">
+        <f>'reduced HuangZhou element'!B38</f>
+        <v>1.7267560000000001E-2</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="17">
+        <f t="shared" si="6"/>
+        <v>1.9992639505392731</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="14">
+        <f>'reduced HuangZhou element'!F38</f>
+        <v>1.2842050000000001E-3</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="17">
+        <f t="shared" si="7"/>
+        <v>1.9986762910105942</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="14">
+        <f>'reduced HuangZhou element'!I38</f>
+        <v>5.1761940000000003E-3</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" s="17">
+        <f t="shared" si="8"/>
+        <v>2.0021044526228864</v>
+      </c>
+      <c r="N35" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P35" s="4" t="str">
+        <f>A35&amp;B35&amp;TEXT(C35,"0.0000E+00")&amp;D35&amp;TEXT(E35,"0.00")&amp;F35&amp;TEXT(G35,"0.0000E+00")&amp;H35&amp;TEXT(I35,"0.00")&amp;J35&amp;TEXT(K35,"0.0000E+00")&amp;L35&amp;TEXT(M35,"0.00")&amp;N35</f>
+        <v>$2^{-5}$ &amp; 1.7268E-02 &amp; 2.00 &amp; 1.2842E-03 &amp; 2.00 &amp; 5.1762E-03 &amp; 2.00 \\</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="14">
+        <f>'reduced HuangZhou element'!B39</f>
+        <v>4.3181929999999997E-3</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="17">
+        <f t="shared" si="6"/>
+        <v>1.9995646060026186</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="14">
+        <f>'reduced HuangZhou element'!F39</f>
+        <v>3.211186E-4</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="17">
+        <f t="shared" si="7"/>
+        <v>1.9996973837642484</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="14">
+        <f>'reduced HuangZhou element'!I39</f>
+        <v>1.2939850000000001E-3</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" s="17">
+        <f t="shared" si="8"/>
+        <v>2.0000707959422588</v>
+      </c>
+      <c r="N36" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P36" s="4" t="str">
+        <f>A36&amp;B36&amp;TEXT(C36,"0.0000E+00")&amp;D36&amp;TEXT(E36,"0.00")&amp;F36&amp;TEXT(G36,"0.0000E+00")&amp;H36&amp;TEXT(I36,"0.00")&amp;J36&amp;TEXT(K36,"0.0000E+00")&amp;L36&amp;TEXT(M36,"0.00")&amp;N36</f>
+        <v>$2^{-6}$ &amp; 4.3182E-03 &amp; 2.00 &amp; 3.2112E-04 &amp; 2.00 &amp; 1.2940E-03 &amp; 2.00 \\</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="14">
+        <f>'reduced HuangZhou element'!B40</f>
+        <v>1.0797249999999999E-3</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="17">
+        <f t="shared" si="6"/>
+        <v>1.9997638128022504</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="14">
+        <f>'reduced HuangZhou element'!F40</f>
+        <v>8.0283750000000002E-5</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" s="17">
+        <f t="shared" si="7"/>
+        <v>1.9999263213201899</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="14">
+        <f>'reduced HuangZhou element'!I40</f>
+        <v>3.2354330000000002E-4</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M37" s="17">
+        <f t="shared" si="8"/>
+        <v>1.9997901865448768</v>
+      </c>
+      <c r="N37" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P37" s="4" t="str">
+        <f>A37&amp;B37&amp;TEXT(C37,"0.0000E+00")&amp;D37&amp;TEXT(E37,"0.00")&amp;F37&amp;TEXT(G37,"0.0000E+00")&amp;H37&amp;TEXT(I37,"0.00")&amp;J37&amp;TEXT(K37,"0.0000E+00")&amp;L37&amp;TEXT(M37,"0.00")&amp;N37</f>
+        <v>$2^{-7}$ &amp; 1.0797E-03 &amp; 2.00 &amp; 8.0284E-05 &amp; 2.00 &amp; 3.2354E-04 &amp; 2.00 \\</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="N11" r:id="rId1" xr:uid="{948BCE88-4D28-7C41-8112-7C0ED92C8DD0}"/>
+    <hyperlink ref="N12:N17" r:id="rId2" display=" \\" xr:uid="{B8E85C7B-2F9A-8B49-8726-6869B8A1B58D}"/>
+    <hyperlink ref="N21" r:id="rId3" xr:uid="{5F38B506-93AA-CE4E-A1C7-146EAF7EAB04}"/>
+    <hyperlink ref="N22:N27" r:id="rId4" display=" \\" xr:uid="{D70F1DAA-6C92-FF44-A451-162595CBECC9}"/>
+    <hyperlink ref="N31" r:id="rId5" xr:uid="{52267E1A-B6F6-734F-9B81-34EFD6E0F225}"/>
+    <hyperlink ref="N32:N37" r:id="rId6" display=" \\" xr:uid="{26A50736-04C5-9549-A20E-96895D51CD7C}"/>
+    <hyperlink ref="N1" r:id="rId7" xr:uid="{3BB56BB6-0D81-C049-8070-C2EA2186A581}"/>
+    <hyperlink ref="N2:N7" r:id="rId8" display=" \\" xr:uid="{F7272425-6F77-014D-A7ED-610D235D5957}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>